--- a/Document/eAlarmServer_API _1.xlsx
+++ b/Document/eAlarmServer_API _1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="540" windowWidth="17895" windowHeight="9915" activeTab="1"/>
+    <workbookView xWindow="630" yWindow="540" windowWidth="17895" windowHeight="9915"/>
   </bookViews>
   <sheets>
     <sheet name="Default Value" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="99">
   <si>
     <t>Send value</t>
   </si>
@@ -304,6 +304,15 @@
   </si>
   <si>
     <t>- With once service must has default param return by login service</t>
+  </si>
+  <si>
+    <t>SessionUserName</t>
+  </si>
+  <si>
+    <t>SessionKey</t>
+  </si>
+  <si>
+    <t>user in current uses</t>
   </si>
 </sst>
 </file>
@@ -1438,10 +1447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1552,7 +1561,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="110" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="C13" s="110" t="s">
         <v>83</v>
@@ -1560,6 +1569,18 @@
       <c r="D13" s="104" t="s">
         <v>85</v>
       </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="109">
+        <v>2</v>
+      </c>
+      <c r="B14" s="110" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="110" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="109"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1580,11 +1601,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q121"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="4" ySplit="3" topLeftCell="G97" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J16" sqref="J16:J25"/>
+      <selection pane="bottomRight" activeCell="J106" sqref="J106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Document/eAlarmServer_API _1.xlsx
+++ b/Document/eAlarmServer_API _1.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="540" windowWidth="17895" windowHeight="9915"/>
+    <workbookView xWindow="630" yWindow="540" windowWidth="17895" windowHeight="9915" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Default Value" sheetId="2" r:id="rId1"/>
     <sheet name="InterfaceList" sheetId="1" r:id="rId2"/>
+    <sheet name="Error Code" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="115">
   <si>
     <t>Send value</t>
   </si>
@@ -313,6 +314,54 @@
   </si>
   <si>
     <t>user in current uses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code </t>
+  </si>
+  <si>
+    <t>EAS-SYS-001</t>
+  </si>
+  <si>
+    <t>EAS-SYS-002</t>
+  </si>
+  <si>
+    <t>EAS-SYS-003</t>
+  </si>
+  <si>
+    <t>EAS-SYS-004</t>
+  </si>
+  <si>
+    <t>DBTableAuthenticator.verifyPassword</t>
+  </si>
+  <si>
+    <t>User not correct, Pls try again!</t>
+  </si>
+  <si>
+    <t>Session expire!</t>
+  </si>
+  <si>
+    <t>Session user name not correct!</t>
+  </si>
+  <si>
+    <t>userInfor</t>
+  </si>
+  <si>
+    <t>JSONObject</t>
+  </si>
+  <si>
+    <t>SYS-ERROR</t>
+  </si>
+  <si>
+    <t>All system error</t>
+  </si>
+  <si>
+    <t>JSON-ERROR</t>
+  </si>
+  <si>
+    <t>App error</t>
+  </si>
+  <si>
+    <t>Json format error</t>
   </si>
 </sst>
 </file>
@@ -395,7 +444,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -522,6 +571,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="22">
     <border>
@@ -799,7 +854,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -911,29 +966,209 @@
     <xf numFmtId="0" fontId="3" fillId="20" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -941,33 +1176,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -992,157 +1200,10 @@
     <xf numFmtId="0" fontId="5" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1449,8 +1510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1461,126 +1522,126 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="111" t="s">
+      <c r="A2" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="112" t="s">
+      <c r="B2" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="113" t="s">
+      <c r="A3" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="113" t="s">
+      <c r="A4" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="111" t="s">
+      <c r="A5" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="112" t="s">
+      <c r="B5" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="86" t="s">
+      <c r="A6" s="41" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="85" t="s">
+      <c r="A7" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="85" t="s">
+      <c r="B7" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="85" t="s">
+      <c r="C7" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="85" t="s">
+      <c r="D7" s="40" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="102">
+      <c r="A8" s="43">
         <v>1</v>
       </c>
-      <c r="B8" s="103" t="s">
+      <c r="B8" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="103" t="s">
+      <c r="C8" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="D8" s="104" t="s">
+      <c r="D8" s="45" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="86" t="s">
+      <c r="A11" s="41" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="108" t="s">
+      <c r="A12" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="B12" s="108" t="s">
+      <c r="B12" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="108" t="s">
+      <c r="C12" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="108" t="s">
+      <c r="D12" s="47" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="109">
+      <c r="A13" s="48">
         <v>1</v>
       </c>
-      <c r="B13" s="110" t="s">
+      <c r="B13" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="C13" s="110" t="s">
+      <c r="C13" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="D13" s="104" t="s">
+      <c r="D13" s="45" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="109">
+      <c r="A14" s="48">
         <v>2</v>
       </c>
-      <c r="B14" s="110" t="s">
+      <c r="B14" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="C14" s="110" t="s">
+      <c r="C14" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="D14" s="109"/>
+      <c r="D14" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1602,10 +1663,10 @@
   <dimension ref="A1:Q121"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="G97" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="G109" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J106" sqref="J106"/>
+      <selection pane="bottomRight" activeCell="Q125" sqref="Q125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1632,72 +1693,72 @@
   <sheetData>
     <row r="1" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="46" t="s">
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="106" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="106"/>
+      <c r="P1" s="106"/>
+      <c r="Q1" s="106"/>
     </row>
     <row r="2" spans="1:17" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="66" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="31"/>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="47" t="s">
+      <c r="E2" s="66" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="36"/>
-      <c r="G2" s="47" t="s">
+      <c r="G2" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="47" t="s">
+      <c r="H2" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47" t="s">
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
     </row>
     <row r="3" spans="1:17" s="34" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="66"/>
       <c r="C3" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
       <c r="F3" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="47"/>
+      <c r="G3" s="66"/>
       <c r="H3" s="36" t="s">
         <v>8</v>
       </c>
@@ -1730,26 +1791,26 @@
       </c>
     </row>
     <row r="4" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="88">
+      <c r="A4" s="67">
         <v>1</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="58" t="s">
+      <c r="B4" s="74"/>
+      <c r="C4" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="61" t="s">
+      <c r="D4" s="112" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="64" t="s">
+      <c r="E4" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="65" t="s">
+      <c r="F4" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="37" t="s">
+      <c r="G4" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="37" t="s">
+      <c r="H4" s="84" t="s">
         <v>18</v>
       </c>
       <c r="I4" s="19" t="s">
@@ -1758,10 +1819,10 @@
       <c r="J4" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="79"/>
+      <c r="K4" s="37"/>
       <c r="L4" s="19"/>
-      <c r="M4" s="80"/>
-      <c r="N4" s="37" t="s">
+      <c r="M4" s="38"/>
+      <c r="N4" s="84" t="s">
         <v>20</v>
       </c>
       <c r="O4" s="19" t="s">
@@ -1773,14 +1834,14 @@
       <c r="Q4" s="19"/>
     </row>
     <row r="5" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="87"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
+      <c r="A5" s="68"/>
+      <c r="B5" s="107"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="93"/>
       <c r="I5" s="3" t="s">
         <v>21</v>
       </c>
@@ -1788,219 +1849,219 @@
       <c r="K5" s="5"/>
       <c r="L5" s="3"/>
       <c r="M5" s="6"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="72" t="s">
+      <c r="N5" s="93"/>
+      <c r="O5" s="96" t="s">
         <v>41</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="Q5" s="69"/>
+      <c r="Q5" s="94"/>
     </row>
     <row r="6" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="87"/>
-      <c r="B6" s="56"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
+      <c r="A6" s="68"/>
+      <c r="B6" s="107"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="93"/>
       <c r="I6" s="7"/>
       <c r="J6" s="8"/>
       <c r="K6" s="9"/>
       <c r="L6" s="7"/>
       <c r="M6" s="10"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="73"/>
+      <c r="N6" s="93"/>
+      <c r="O6" s="97"/>
       <c r="P6" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="Q6" s="70"/>
+      <c r="Q6" s="95"/>
     </row>
     <row r="7" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="87"/>
-      <c r="B7" s="56"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
+      <c r="A7" s="68"/>
+      <c r="B7" s="107"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="113"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="93"/>
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
       <c r="K7" s="13"/>
       <c r="L7" s="12"/>
       <c r="M7" s="14"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="73"/>
+      <c r="N7" s="93"/>
+      <c r="O7" s="97"/>
       <c r="P7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="Q7" s="70"/>
+      <c r="Q7" s="95"/>
     </row>
     <row r="8" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="87"/>
-      <c r="B8" s="56"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
+      <c r="A8" s="68"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="110"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="93"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
       <c r="K8" s="13"/>
       <c r="L8" s="12"/>
       <c r="M8" s="14"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="73"/>
+      <c r="N8" s="93"/>
+      <c r="O8" s="97"/>
       <c r="P8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="Q8" s="70"/>
+      <c r="Q8" s="95"/>
     </row>
     <row r="9" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="87"/>
-      <c r="B9" s="56"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
+      <c r="A9" s="68"/>
+      <c r="B9" s="107"/>
+      <c r="C9" s="110"/>
+      <c r="D9" s="113"/>
+      <c r="E9" s="98"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="93"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
       <c r="K9" s="13"/>
       <c r="L9" s="12"/>
       <c r="M9" s="14"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="73"/>
+      <c r="N9" s="93"/>
+      <c r="O9" s="97"/>
       <c r="P9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Q9" s="70"/>
+      <c r="Q9" s="95"/>
     </row>
     <row r="10" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="87"/>
-      <c r="B10" s="56"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
+      <c r="A10" s="68"/>
+      <c r="B10" s="107"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="98"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="93"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
       <c r="K10" s="13"/>
       <c r="L10" s="12"/>
       <c r="M10" s="14"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="73"/>
+      <c r="N10" s="93"/>
+      <c r="O10" s="97"/>
       <c r="P10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="Q10" s="70"/>
+      <c r="Q10" s="95"/>
     </row>
     <row r="11" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="87"/>
-      <c r="B11" s="56"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
+      <c r="A11" s="68"/>
+      <c r="B11" s="107"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="113"/>
+      <c r="E11" s="98"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="93"/>
+      <c r="H11" s="93"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
       <c r="K11" s="13"/>
       <c r="L11" s="12"/>
       <c r="M11" s="14"/>
-      <c r="N11" s="39"/>
-      <c r="O11" s="73"/>
+      <c r="N11" s="93"/>
+      <c r="O11" s="97"/>
       <c r="P11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="Q11" s="70"/>
+      <c r="Q11" s="95"/>
     </row>
     <row r="12" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="87"/>
-      <c r="B12" s="56"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
+      <c r="A12" s="68"/>
+      <c r="B12" s="107"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="93"/>
+      <c r="H12" s="93"/>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
       <c r="K12" s="13"/>
       <c r="L12" s="12"/>
       <c r="M12" s="14"/>
-      <c r="N12" s="39"/>
-      <c r="O12" s="73"/>
+      <c r="N12" s="93"/>
+      <c r="O12" s="97"/>
       <c r="P12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="Q12" s="70"/>
+      <c r="Q12" s="95"/>
     </row>
     <row r="13" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="87"/>
-      <c r="B13" s="56"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
+      <c r="A13" s="68"/>
+      <c r="B13" s="107"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="93"/>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
       <c r="K13" s="13"/>
       <c r="L13" s="12"/>
       <c r="M13" s="14"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="73"/>
+      <c r="N13" s="93"/>
+      <c r="O13" s="97"/>
       <c r="P13" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Q13" s="70"/>
+      <c r="Q13" s="95"/>
     </row>
     <row r="14" spans="1:17" s="15" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="87"/>
-      <c r="B14" s="56"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
+      <c r="A14" s="68"/>
+      <c r="B14" s="107"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="93"/>
+      <c r="H14" s="93"/>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
       <c r="K14" s="13"/>
       <c r="L14" s="12"/>
       <c r="M14" s="14"/>
-      <c r="N14" s="39"/>
-      <c r="O14" s="74"/>
+      <c r="N14" s="93"/>
+      <c r="O14" s="104"/>
       <c r="P14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Q14" s="71"/>
+      <c r="Q14" s="103"/>
     </row>
     <row r="15" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="87"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="66" t="s">
+      <c r="A15" s="68"/>
+      <c r="B15" s="107"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="82" t="s">
         <v>70</v>
       </c>
-      <c r="F15" s="65" t="s">
+      <c r="F15" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="37" t="s">
+      <c r="G15" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="H15" s="37" t="s">
+      <c r="H15" s="84" t="s">
         <v>18</v>
       </c>
       <c r="I15" s="3" t="s">
@@ -2012,7 +2073,7 @@
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="6"/>
-      <c r="N15" s="37" t="s">
+      <c r="N15" s="84" t="s">
         <v>20</v>
       </c>
       <c r="O15" s="3" t="s">
@@ -2024,232 +2085,232 @@
       <c r="Q15" s="3"/>
     </row>
     <row r="16" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="87"/>
-      <c r="B16" s="56"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
-      <c r="N16" s="38"/>
-      <c r="O16" s="42" t="s">
+      <c r="A16" s="68"/>
+      <c r="B16" s="107"/>
+      <c r="C16" s="110"/>
+      <c r="D16" s="113"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="87"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="80"/>
+      <c r="J16" s="80"/>
+      <c r="K16" s="80"/>
+      <c r="L16" s="80"/>
+      <c r="M16" s="80"/>
+      <c r="N16" s="75"/>
+      <c r="O16" s="80" t="s">
         <v>71</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="Q16" s="42"/>
+      <c r="Q16" s="80"/>
     </row>
     <row r="17" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="87"/>
-      <c r="B17" s="56"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="43"/>
-      <c r="N17" s="38"/>
-      <c r="O17" s="43"/>
+      <c r="A17" s="68"/>
+      <c r="B17" s="107"/>
+      <c r="C17" s="110"/>
+      <c r="D17" s="113"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="87"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="85"/>
+      <c r="I17" s="81"/>
+      <c r="J17" s="81"/>
+      <c r="K17" s="81"/>
+      <c r="L17" s="81"/>
+      <c r="M17" s="81"/>
+      <c r="N17" s="75"/>
+      <c r="O17" s="81"/>
       <c r="P17" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="Q17" s="43"/>
+      <c r="Q17" s="81"/>
     </row>
     <row r="18" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="87"/>
-      <c r="B18" s="56"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="43"/>
-      <c r="N18" s="38"/>
-      <c r="O18" s="43"/>
+      <c r="A18" s="68"/>
+      <c r="B18" s="107"/>
+      <c r="C18" s="110"/>
+      <c r="D18" s="113"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="87"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="85"/>
+      <c r="I18" s="81"/>
+      <c r="J18" s="81"/>
+      <c r="K18" s="81"/>
+      <c r="L18" s="81"/>
+      <c r="M18" s="81"/>
+      <c r="N18" s="75"/>
+      <c r="O18" s="81"/>
       <c r="P18" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="Q18" s="43"/>
+      <c r="Q18" s="81"/>
     </row>
     <row r="19" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="87"/>
-      <c r="B19" s="56"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="43"/>
-      <c r="N19" s="38"/>
-      <c r="O19" s="43"/>
+      <c r="A19" s="68"/>
+      <c r="B19" s="107"/>
+      <c r="C19" s="110"/>
+      <c r="D19" s="113"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="87"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="85"/>
+      <c r="I19" s="81"/>
+      <c r="J19" s="81"/>
+      <c r="K19" s="81"/>
+      <c r="L19" s="81"/>
+      <c r="M19" s="81"/>
+      <c r="N19" s="75"/>
+      <c r="O19" s="81"/>
       <c r="P19" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="Q19" s="43"/>
+      <c r="Q19" s="81"/>
     </row>
     <row r="20" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="87"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="43"/>
-      <c r="N20" s="38"/>
-      <c r="O20" s="43"/>
+      <c r="A20" s="68"/>
+      <c r="B20" s="107"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="113"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="87"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="85"/>
+      <c r="I20" s="81"/>
+      <c r="J20" s="81"/>
+      <c r="K20" s="81"/>
+      <c r="L20" s="81"/>
+      <c r="M20" s="81"/>
+      <c r="N20" s="75"/>
+      <c r="O20" s="81"/>
       <c r="P20" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Q20" s="43"/>
+      <c r="Q20" s="81"/>
     </row>
     <row r="21" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="87"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="43"/>
-      <c r="N21" s="38"/>
-      <c r="O21" s="43"/>
+      <c r="A21" s="68"/>
+      <c r="B21" s="107"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="113"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="87"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="85"/>
+      <c r="I21" s="81"/>
+      <c r="J21" s="81"/>
+      <c r="K21" s="81"/>
+      <c r="L21" s="81"/>
+      <c r="M21" s="81"/>
+      <c r="N21" s="75"/>
+      <c r="O21" s="81"/>
       <c r="P21" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="Q21" s="43"/>
+      <c r="Q21" s="81"/>
     </row>
     <row r="22" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="87"/>
-      <c r="B22" s="56"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="68"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="43"/>
-      <c r="N22" s="38"/>
-      <c r="O22" s="43"/>
+      <c r="A22" s="68"/>
+      <c r="B22" s="107"/>
+      <c r="C22" s="110"/>
+      <c r="D22" s="113"/>
+      <c r="E22" s="83"/>
+      <c r="F22" s="87"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="85"/>
+      <c r="I22" s="81"/>
+      <c r="J22" s="81"/>
+      <c r="K22" s="81"/>
+      <c r="L22" s="81"/>
+      <c r="M22" s="81"/>
+      <c r="N22" s="75"/>
+      <c r="O22" s="81"/>
       <c r="P22" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="Q22" s="43"/>
+      <c r="Q22" s="81"/>
     </row>
     <row r="23" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="87"/>
-      <c r="B23" s="56"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="68"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="43"/>
-      <c r="L23" s="43"/>
-      <c r="M23" s="43"/>
-      <c r="N23" s="38"/>
-      <c r="O23" s="43"/>
+      <c r="A23" s="68"/>
+      <c r="B23" s="107"/>
+      <c r="C23" s="110"/>
+      <c r="D23" s="113"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="87"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="85"/>
+      <c r="I23" s="81"/>
+      <c r="J23" s="81"/>
+      <c r="K23" s="81"/>
+      <c r="L23" s="81"/>
+      <c r="M23" s="81"/>
+      <c r="N23" s="75"/>
+      <c r="O23" s="81"/>
       <c r="P23" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="Q23" s="43"/>
+      <c r="Q23" s="81"/>
     </row>
     <row r="24" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="87"/>
-      <c r="B24" s="56"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="43"/>
-      <c r="L24" s="43"/>
-      <c r="M24" s="43"/>
-      <c r="N24" s="38"/>
-      <c r="O24" s="43"/>
+      <c r="A24" s="68"/>
+      <c r="B24" s="107"/>
+      <c r="C24" s="110"/>
+      <c r="D24" s="113"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="85"/>
+      <c r="I24" s="81"/>
+      <c r="J24" s="81"/>
+      <c r="K24" s="81"/>
+      <c r="L24" s="81"/>
+      <c r="M24" s="81"/>
+      <c r="N24" s="75"/>
+      <c r="O24" s="81"/>
       <c r="P24" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Q24" s="43"/>
+      <c r="Q24" s="81"/>
     </row>
     <row r="25" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="87"/>
-      <c r="B25" s="56"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="44"/>
-      <c r="K25" s="44"/>
-      <c r="L25" s="44"/>
-      <c r="M25" s="44"/>
-      <c r="N25" s="39"/>
-      <c r="O25" s="44"/>
+      <c r="A25" s="68"/>
+      <c r="B25" s="107"/>
+      <c r="C25" s="110"/>
+      <c r="D25" s="113"/>
+      <c r="E25" s="82"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="93"/>
+      <c r="H25" s="102"/>
+      <c r="I25" s="89"/>
+      <c r="J25" s="89"/>
+      <c r="K25" s="89"/>
+      <c r="L25" s="89"/>
+      <c r="M25" s="89"/>
+      <c r="N25" s="93"/>
+      <c r="O25" s="89"/>
       <c r="P25" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Q25" s="44"/>
+      <c r="Q25" s="89"/>
     </row>
     <row r="26" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="87"/>
-      <c r="B26" s="56"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="66" t="s">
+      <c r="A26" s="68"/>
+      <c r="B26" s="107"/>
+      <c r="C26" s="110"/>
+      <c r="D26" s="113"/>
+      <c r="E26" s="82" t="s">
         <v>72</v>
       </c>
-      <c r="F26" s="65" t="s">
+      <c r="F26" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="G26" s="37" t="s">
+      <c r="G26" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="H26" s="37" t="s">
+      <c r="H26" s="84" t="s">
         <v>18</v>
       </c>
       <c r="I26" s="3" t="s">
@@ -2261,7 +2322,7 @@
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
       <c r="M26" s="6"/>
-      <c r="N26" s="37" t="s">
+      <c r="N26" s="84" t="s">
         <v>20</v>
       </c>
       <c r="O26" s="3" t="s">
@@ -2273,232 +2334,232 @@
       <c r="Q26" s="3"/>
     </row>
     <row r="27" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="87"/>
-      <c r="B27" s="56"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="68"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="42"/>
-      <c r="N27" s="38"/>
-      <c r="O27" s="42" t="s">
+      <c r="A27" s="68"/>
+      <c r="B27" s="107"/>
+      <c r="C27" s="110"/>
+      <c r="D27" s="113"/>
+      <c r="E27" s="83"/>
+      <c r="F27" s="87"/>
+      <c r="G27" s="75"/>
+      <c r="H27" s="75"/>
+      <c r="I27" s="80"/>
+      <c r="J27" s="80"/>
+      <c r="K27" s="80"/>
+      <c r="L27" s="80"/>
+      <c r="M27" s="80"/>
+      <c r="N27" s="75"/>
+      <c r="O27" s="80" t="s">
         <v>73</v>
       </c>
       <c r="P27" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="Q27" s="42"/>
+      <c r="Q27" s="80"/>
     </row>
     <row r="28" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="87"/>
-      <c r="B28" s="56"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="43"/>
-      <c r="J28" s="43"/>
-      <c r="K28" s="43"/>
-      <c r="L28" s="43"/>
-      <c r="M28" s="43"/>
-      <c r="N28" s="38"/>
-      <c r="O28" s="43"/>
+      <c r="A28" s="68"/>
+      <c r="B28" s="107"/>
+      <c r="C28" s="110"/>
+      <c r="D28" s="113"/>
+      <c r="E28" s="83"/>
+      <c r="F28" s="87"/>
+      <c r="G28" s="75"/>
+      <c r="H28" s="85"/>
+      <c r="I28" s="81"/>
+      <c r="J28" s="81"/>
+      <c r="K28" s="81"/>
+      <c r="L28" s="81"/>
+      <c r="M28" s="81"/>
+      <c r="N28" s="75"/>
+      <c r="O28" s="81"/>
       <c r="P28" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="Q28" s="43"/>
+      <c r="Q28" s="81"/>
     </row>
     <row r="29" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="87"/>
-      <c r="B29" s="56"/>
-      <c r="C29" s="59"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="68"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="43"/>
-      <c r="J29" s="43"/>
-      <c r="K29" s="43"/>
-      <c r="L29" s="43"/>
-      <c r="M29" s="43"/>
-      <c r="N29" s="38"/>
-      <c r="O29" s="43"/>
+      <c r="A29" s="68"/>
+      <c r="B29" s="107"/>
+      <c r="C29" s="110"/>
+      <c r="D29" s="113"/>
+      <c r="E29" s="83"/>
+      <c r="F29" s="87"/>
+      <c r="G29" s="75"/>
+      <c r="H29" s="85"/>
+      <c r="I29" s="81"/>
+      <c r="J29" s="81"/>
+      <c r="K29" s="81"/>
+      <c r="L29" s="81"/>
+      <c r="M29" s="81"/>
+      <c r="N29" s="75"/>
+      <c r="O29" s="81"/>
       <c r="P29" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="Q29" s="43"/>
+      <c r="Q29" s="81"/>
     </row>
     <row r="30" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="87"/>
-      <c r="B30" s="56"/>
-      <c r="C30" s="59"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="68"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="43"/>
-      <c r="J30" s="43"/>
-      <c r="K30" s="43"/>
-      <c r="L30" s="43"/>
-      <c r="M30" s="43"/>
-      <c r="N30" s="38"/>
-      <c r="O30" s="43"/>
+      <c r="A30" s="68"/>
+      <c r="B30" s="107"/>
+      <c r="C30" s="110"/>
+      <c r="D30" s="113"/>
+      <c r="E30" s="83"/>
+      <c r="F30" s="87"/>
+      <c r="G30" s="75"/>
+      <c r="H30" s="85"/>
+      <c r="I30" s="81"/>
+      <c r="J30" s="81"/>
+      <c r="K30" s="81"/>
+      <c r="L30" s="81"/>
+      <c r="M30" s="81"/>
+      <c r="N30" s="75"/>
+      <c r="O30" s="81"/>
       <c r="P30" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="Q30" s="43"/>
+      <c r="Q30" s="81"/>
     </row>
     <row r="31" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="87"/>
-      <c r="B31" s="56"/>
-      <c r="C31" s="59"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="68"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="43"/>
-      <c r="J31" s="43"/>
-      <c r="K31" s="43"/>
-      <c r="L31" s="43"/>
-      <c r="M31" s="43"/>
-      <c r="N31" s="38"/>
-      <c r="O31" s="43"/>
+      <c r="A31" s="68"/>
+      <c r="B31" s="107"/>
+      <c r="C31" s="110"/>
+      <c r="D31" s="113"/>
+      <c r="E31" s="83"/>
+      <c r="F31" s="87"/>
+      <c r="G31" s="75"/>
+      <c r="H31" s="85"/>
+      <c r="I31" s="81"/>
+      <c r="J31" s="81"/>
+      <c r="K31" s="81"/>
+      <c r="L31" s="81"/>
+      <c r="M31" s="81"/>
+      <c r="N31" s="75"/>
+      <c r="O31" s="81"/>
       <c r="P31" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Q31" s="43"/>
+      <c r="Q31" s="81"/>
     </row>
     <row r="32" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="87"/>
-      <c r="B32" s="56"/>
-      <c r="C32" s="59"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="68"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="43"/>
-      <c r="K32" s="43"/>
-      <c r="L32" s="43"/>
-      <c r="M32" s="43"/>
-      <c r="N32" s="38"/>
-      <c r="O32" s="43"/>
+      <c r="A32" s="68"/>
+      <c r="B32" s="107"/>
+      <c r="C32" s="110"/>
+      <c r="D32" s="113"/>
+      <c r="E32" s="83"/>
+      <c r="F32" s="87"/>
+      <c r="G32" s="75"/>
+      <c r="H32" s="85"/>
+      <c r="I32" s="81"/>
+      <c r="J32" s="81"/>
+      <c r="K32" s="81"/>
+      <c r="L32" s="81"/>
+      <c r="M32" s="81"/>
+      <c r="N32" s="75"/>
+      <c r="O32" s="81"/>
       <c r="P32" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="Q32" s="43"/>
+      <c r="Q32" s="81"/>
     </row>
     <row r="33" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="87"/>
-      <c r="B33" s="56"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="68"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="40"/>
-      <c r="I33" s="43"/>
-      <c r="J33" s="43"/>
-      <c r="K33" s="43"/>
-      <c r="L33" s="43"/>
-      <c r="M33" s="43"/>
-      <c r="N33" s="38"/>
-      <c r="O33" s="43"/>
+      <c r="A33" s="68"/>
+      <c r="B33" s="107"/>
+      <c r="C33" s="110"/>
+      <c r="D33" s="113"/>
+      <c r="E33" s="83"/>
+      <c r="F33" s="87"/>
+      <c r="G33" s="75"/>
+      <c r="H33" s="85"/>
+      <c r="I33" s="81"/>
+      <c r="J33" s="81"/>
+      <c r="K33" s="81"/>
+      <c r="L33" s="81"/>
+      <c r="M33" s="81"/>
+      <c r="N33" s="75"/>
+      <c r="O33" s="81"/>
       <c r="P33" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="Q33" s="43"/>
+      <c r="Q33" s="81"/>
     </row>
     <row r="34" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="87"/>
-      <c r="B34" s="56"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="67"/>
-      <c r="F34" s="68"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="40"/>
-      <c r="I34" s="43"/>
-      <c r="J34" s="43"/>
-      <c r="K34" s="43"/>
-      <c r="L34" s="43"/>
-      <c r="M34" s="43"/>
-      <c r="N34" s="38"/>
-      <c r="O34" s="43"/>
+      <c r="A34" s="68"/>
+      <c r="B34" s="107"/>
+      <c r="C34" s="110"/>
+      <c r="D34" s="113"/>
+      <c r="E34" s="83"/>
+      <c r="F34" s="87"/>
+      <c r="G34" s="75"/>
+      <c r="H34" s="85"/>
+      <c r="I34" s="81"/>
+      <c r="J34" s="81"/>
+      <c r="K34" s="81"/>
+      <c r="L34" s="81"/>
+      <c r="M34" s="81"/>
+      <c r="N34" s="75"/>
+      <c r="O34" s="81"/>
       <c r="P34" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="Q34" s="43"/>
+      <c r="Q34" s="81"/>
     </row>
     <row r="35" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="87"/>
-      <c r="B35" s="56"/>
-      <c r="C35" s="59"/>
-      <c r="D35" s="62"/>
-      <c r="E35" s="67"/>
-      <c r="F35" s="68"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="40"/>
-      <c r="I35" s="43"/>
-      <c r="J35" s="43"/>
-      <c r="K35" s="43"/>
-      <c r="L35" s="43"/>
-      <c r="M35" s="43"/>
-      <c r="N35" s="38"/>
-      <c r="O35" s="43"/>
+      <c r="A35" s="68"/>
+      <c r="B35" s="107"/>
+      <c r="C35" s="110"/>
+      <c r="D35" s="113"/>
+      <c r="E35" s="83"/>
+      <c r="F35" s="87"/>
+      <c r="G35" s="75"/>
+      <c r="H35" s="85"/>
+      <c r="I35" s="81"/>
+      <c r="J35" s="81"/>
+      <c r="K35" s="81"/>
+      <c r="L35" s="81"/>
+      <c r="M35" s="81"/>
+      <c r="N35" s="75"/>
+      <c r="O35" s="81"/>
       <c r="P35" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Q35" s="43"/>
+      <c r="Q35" s="81"/>
     </row>
     <row r="36" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="87"/>
-      <c r="B36" s="56"/>
-      <c r="C36" s="59"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="66"/>
-      <c r="F36" s="65"/>
-      <c r="G36" s="39"/>
-      <c r="H36" s="41"/>
-      <c r="I36" s="44"/>
-      <c r="J36" s="44"/>
-      <c r="K36" s="44"/>
-      <c r="L36" s="44"/>
-      <c r="M36" s="44"/>
-      <c r="N36" s="39"/>
-      <c r="O36" s="44"/>
+      <c r="A36" s="68"/>
+      <c r="B36" s="107"/>
+      <c r="C36" s="110"/>
+      <c r="D36" s="113"/>
+      <c r="E36" s="82"/>
+      <c r="F36" s="86"/>
+      <c r="G36" s="93"/>
+      <c r="H36" s="102"/>
+      <c r="I36" s="89"/>
+      <c r="J36" s="89"/>
+      <c r="K36" s="89"/>
+      <c r="L36" s="89"/>
+      <c r="M36" s="89"/>
+      <c r="N36" s="93"/>
+      <c r="O36" s="89"/>
       <c r="P36" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Q36" s="44"/>
+      <c r="Q36" s="89"/>
     </row>
     <row r="37" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="87"/>
-      <c r="B37" s="56"/>
-      <c r="C37" s="59"/>
-      <c r="D37" s="62"/>
-      <c r="E37" s="66" t="s">
+      <c r="A37" s="68"/>
+      <c r="B37" s="107"/>
+      <c r="C37" s="110"/>
+      <c r="D37" s="113"/>
+      <c r="E37" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="F37" s="65" t="s">
+      <c r="F37" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="G37" s="37" t="s">
+      <c r="G37" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="H37" s="37" t="s">
+      <c r="H37" s="84" t="s">
         <v>18</v>
       </c>
       <c r="I37" s="3" t="s">
@@ -2510,7 +2571,7 @@
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
       <c r="M37" s="6"/>
-      <c r="N37" s="37" t="s">
+      <c r="N37" s="84" t="s">
         <v>20</v>
       </c>
       <c r="O37" s="3" t="s">
@@ -2522,14 +2583,14 @@
       <c r="Q37" s="3"/>
     </row>
     <row r="38" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="87"/>
-      <c r="B38" s="56"/>
-      <c r="C38" s="59"/>
-      <c r="D38" s="62"/>
-      <c r="E38" s="67"/>
-      <c r="F38" s="68"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
+      <c r="A38" s="68"/>
+      <c r="B38" s="107"/>
+      <c r="C38" s="110"/>
+      <c r="D38" s="113"/>
+      <c r="E38" s="83"/>
+      <c r="F38" s="87"/>
+      <c r="G38" s="75"/>
+      <c r="H38" s="75"/>
       <c r="I38" s="4" t="s">
         <v>21</v>
       </c>
@@ -2537,217 +2598,217 @@
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
-      <c r="N38" s="38"/>
-      <c r="O38" s="42" t="s">
+      <c r="N38" s="75"/>
+      <c r="O38" s="80" t="s">
         <v>40</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="Q38" s="42"/>
+      <c r="Q38" s="80"/>
     </row>
     <row r="39" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="87"/>
-      <c r="B39" s="56"/>
-      <c r="C39" s="59"/>
-      <c r="D39" s="62"/>
-      <c r="E39" s="67"/>
-      <c r="F39" s="68"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="40"/>
+      <c r="A39" s="68"/>
+      <c r="B39" s="107"/>
+      <c r="C39" s="110"/>
+      <c r="D39" s="113"/>
+      <c r="E39" s="83"/>
+      <c r="F39" s="87"/>
+      <c r="G39" s="75"/>
+      <c r="H39" s="85"/>
       <c r="I39" s="16"/>
       <c r="J39" s="17"/>
       <c r="K39" s="17"/>
       <c r="L39" s="18"/>
       <c r="M39" s="18"/>
-      <c r="N39" s="38"/>
-      <c r="O39" s="43"/>
+      <c r="N39" s="75"/>
+      <c r="O39" s="81"/>
       <c r="P39" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="Q39" s="43"/>
+      <c r="Q39" s="81"/>
     </row>
     <row r="40" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="87"/>
-      <c r="B40" s="56"/>
-      <c r="C40" s="59"/>
-      <c r="D40" s="62"/>
-      <c r="E40" s="67"/>
-      <c r="F40" s="68"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="40"/>
+      <c r="A40" s="68"/>
+      <c r="B40" s="107"/>
+      <c r="C40" s="110"/>
+      <c r="D40" s="113"/>
+      <c r="E40" s="83"/>
+      <c r="F40" s="87"/>
+      <c r="G40" s="75"/>
+      <c r="H40" s="85"/>
       <c r="I40" s="18"/>
       <c r="J40" s="17"/>
       <c r="K40" s="17"/>
       <c r="L40" s="18"/>
       <c r="M40" s="18"/>
-      <c r="N40" s="38"/>
-      <c r="O40" s="43"/>
+      <c r="N40" s="75"/>
+      <c r="O40" s="81"/>
       <c r="P40" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="Q40" s="43"/>
+      <c r="Q40" s="81"/>
     </row>
     <row r="41" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A41" s="87"/>
-      <c r="B41" s="56"/>
-      <c r="C41" s="59"/>
-      <c r="D41" s="62"/>
-      <c r="E41" s="67"/>
-      <c r="F41" s="68"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="40"/>
+      <c r="A41" s="68"/>
+      <c r="B41" s="107"/>
+      <c r="C41" s="110"/>
+      <c r="D41" s="113"/>
+      <c r="E41" s="83"/>
+      <c r="F41" s="87"/>
+      <c r="G41" s="75"/>
+      <c r="H41" s="85"/>
       <c r="I41" s="18"/>
       <c r="J41" s="17"/>
       <c r="K41" s="17"/>
       <c r="L41" s="18"/>
       <c r="M41" s="18"/>
-      <c r="N41" s="38"/>
-      <c r="O41" s="43"/>
+      <c r="N41" s="75"/>
+      <c r="O41" s="81"/>
       <c r="P41" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="Q41" s="43"/>
+      <c r="Q41" s="81"/>
     </row>
     <row r="42" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A42" s="87"/>
-      <c r="B42" s="56"/>
-      <c r="C42" s="59"/>
-      <c r="D42" s="62"/>
-      <c r="E42" s="67"/>
-      <c r="F42" s="68"/>
-      <c r="G42" s="38"/>
-      <c r="H42" s="40"/>
+      <c r="A42" s="68"/>
+      <c r="B42" s="107"/>
+      <c r="C42" s="110"/>
+      <c r="D42" s="113"/>
+      <c r="E42" s="83"/>
+      <c r="F42" s="87"/>
+      <c r="G42" s="75"/>
+      <c r="H42" s="85"/>
       <c r="I42" s="18"/>
       <c r="J42" s="17"/>
       <c r="K42" s="17"/>
       <c r="L42" s="18"/>
       <c r="M42" s="18"/>
-      <c r="N42" s="38"/>
-      <c r="O42" s="43"/>
+      <c r="N42" s="75"/>
+      <c r="O42" s="81"/>
       <c r="P42" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Q42" s="43"/>
+      <c r="Q42" s="81"/>
     </row>
     <row r="43" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A43" s="87"/>
-      <c r="B43" s="56"/>
-      <c r="C43" s="59"/>
-      <c r="D43" s="62"/>
-      <c r="E43" s="67"/>
-      <c r="F43" s="68"/>
-      <c r="G43" s="38"/>
-      <c r="H43" s="40"/>
+      <c r="A43" s="68"/>
+      <c r="B43" s="107"/>
+      <c r="C43" s="110"/>
+      <c r="D43" s="113"/>
+      <c r="E43" s="83"/>
+      <c r="F43" s="87"/>
+      <c r="G43" s="75"/>
+      <c r="H43" s="85"/>
       <c r="I43" s="18"/>
       <c r="J43" s="17"/>
       <c r="K43" s="17"/>
       <c r="L43" s="18"/>
       <c r="M43" s="18"/>
-      <c r="N43" s="38"/>
-      <c r="O43" s="43"/>
+      <c r="N43" s="75"/>
+      <c r="O43" s="81"/>
       <c r="P43" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="Q43" s="43"/>
+      <c r="Q43" s="81"/>
     </row>
     <row r="44" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A44" s="87"/>
-      <c r="B44" s="56"/>
-      <c r="C44" s="59"/>
-      <c r="D44" s="62"/>
-      <c r="E44" s="67"/>
-      <c r="F44" s="68"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="40"/>
+      <c r="A44" s="68"/>
+      <c r="B44" s="107"/>
+      <c r="C44" s="110"/>
+      <c r="D44" s="113"/>
+      <c r="E44" s="83"/>
+      <c r="F44" s="87"/>
+      <c r="G44" s="75"/>
+      <c r="H44" s="85"/>
       <c r="I44" s="18"/>
       <c r="J44" s="17"/>
       <c r="K44" s="17"/>
       <c r="L44" s="18"/>
       <c r="M44" s="18"/>
-      <c r="N44" s="38"/>
-      <c r="O44" s="43"/>
+      <c r="N44" s="75"/>
+      <c r="O44" s="81"/>
       <c r="P44" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="Q44" s="43"/>
+      <c r="Q44" s="81"/>
     </row>
     <row r="45" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A45" s="87"/>
-      <c r="B45" s="56"/>
-      <c r="C45" s="59"/>
-      <c r="D45" s="62"/>
-      <c r="E45" s="67"/>
-      <c r="F45" s="68"/>
-      <c r="G45" s="38"/>
-      <c r="H45" s="40"/>
+      <c r="A45" s="68"/>
+      <c r="B45" s="107"/>
+      <c r="C45" s="110"/>
+      <c r="D45" s="113"/>
+      <c r="E45" s="83"/>
+      <c r="F45" s="87"/>
+      <c r="G45" s="75"/>
+      <c r="H45" s="85"/>
       <c r="I45" s="18"/>
       <c r="J45" s="17"/>
       <c r="K45" s="17"/>
       <c r="L45" s="18"/>
       <c r="M45" s="18"/>
-      <c r="N45" s="38"/>
-      <c r="O45" s="43"/>
+      <c r="N45" s="75"/>
+      <c r="O45" s="81"/>
       <c r="P45" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="Q45" s="43"/>
+      <c r="Q45" s="81"/>
     </row>
     <row r="46" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A46" s="87"/>
-      <c r="B46" s="56"/>
-      <c r="C46" s="59"/>
-      <c r="D46" s="62"/>
-      <c r="E46" s="67"/>
-      <c r="F46" s="68"/>
-      <c r="G46" s="38"/>
-      <c r="H46" s="40"/>
+      <c r="A46" s="68"/>
+      <c r="B46" s="107"/>
+      <c r="C46" s="110"/>
+      <c r="D46" s="113"/>
+      <c r="E46" s="83"/>
+      <c r="F46" s="87"/>
+      <c r="G46" s="75"/>
+      <c r="H46" s="85"/>
       <c r="I46" s="18"/>
       <c r="J46" s="17"/>
       <c r="K46" s="17"/>
       <c r="L46" s="18"/>
       <c r="M46" s="18"/>
-      <c r="N46" s="38"/>
-      <c r="O46" s="43"/>
+      <c r="N46" s="75"/>
+      <c r="O46" s="81"/>
       <c r="P46" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Q46" s="43"/>
+      <c r="Q46" s="81"/>
     </row>
     <row r="47" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A47" s="87"/>
-      <c r="B47" s="56"/>
-      <c r="C47" s="59"/>
-      <c r="D47" s="62"/>
-      <c r="E47" s="66"/>
-      <c r="F47" s="65"/>
-      <c r="G47" s="39"/>
-      <c r="H47" s="41"/>
+      <c r="A47" s="68"/>
+      <c r="B47" s="107"/>
+      <c r="C47" s="110"/>
+      <c r="D47" s="113"/>
+      <c r="E47" s="82"/>
+      <c r="F47" s="86"/>
+      <c r="G47" s="93"/>
+      <c r="H47" s="102"/>
       <c r="I47" s="19"/>
       <c r="J47" s="17"/>
       <c r="K47" s="17"/>
       <c r="L47" s="18"/>
       <c r="M47" s="18"/>
-      <c r="N47" s="39"/>
-      <c r="O47" s="44"/>
+      <c r="N47" s="93"/>
+      <c r="O47" s="89"/>
       <c r="P47" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Q47" s="44"/>
+      <c r="Q47" s="89"/>
     </row>
     <row r="48" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A48" s="87"/>
-      <c r="B48" s="56"/>
-      <c r="C48" s="59"/>
-      <c r="D48" s="62"/>
-      <c r="E48" s="49" t="s">
+      <c r="A48" s="68"/>
+      <c r="B48" s="107"/>
+      <c r="C48" s="110"/>
+      <c r="D48" s="113"/>
+      <c r="E48" s="99" t="s">
         <v>26</v>
       </c>
       <c r="F48" s="20"/>
-      <c r="G48" s="52" t="s">
+      <c r="G48" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="H48" s="52" t="s">
+      <c r="H48" s="74" t="s">
         <v>18</v>
       </c>
       <c r="I48" s="4" t="s">
@@ -2759,7 +2820,7 @@
       <c r="K48" s="5"/>
       <c r="L48" s="6"/>
       <c r="M48" s="6"/>
-      <c r="N48" s="37" t="s">
+      <c r="N48" s="84" t="s">
         <v>20</v>
       </c>
       <c r="O48" s="3" t="s">
@@ -2771,14 +2832,14 @@
       <c r="Q48" s="3"/>
     </row>
     <row r="49" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A49" s="87"/>
-      <c r="B49" s="56"/>
-      <c r="C49" s="59"/>
-      <c r="D49" s="62"/>
-      <c r="E49" s="50"/>
+      <c r="A49" s="68"/>
+      <c r="B49" s="107"/>
+      <c r="C49" s="110"/>
+      <c r="D49" s="113"/>
+      <c r="E49" s="91"/>
       <c r="F49" s="20"/>
-      <c r="G49" s="38"/>
-      <c r="H49" s="38"/>
+      <c r="G49" s="75"/>
+      <c r="H49" s="75"/>
       <c r="I49" s="3" t="s">
         <v>29</v>
       </c>
@@ -2786,20 +2847,20 @@
       <c r="K49" s="5"/>
       <c r="L49" s="6"/>
       <c r="M49" s="6"/>
-      <c r="N49" s="39"/>
-      <c r="O49" s="42"/>
-      <c r="P49" s="42"/>
-      <c r="Q49" s="42"/>
+      <c r="N49" s="93"/>
+      <c r="O49" s="80"/>
+      <c r="P49" s="80"/>
+      <c r="Q49" s="80"/>
     </row>
     <row r="50" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A50" s="87"/>
-      <c r="B50" s="56"/>
-      <c r="C50" s="59"/>
-      <c r="D50" s="62"/>
-      <c r="E50" s="50"/>
+      <c r="A50" s="68"/>
+      <c r="B50" s="107"/>
+      <c r="C50" s="110"/>
+      <c r="D50" s="113"/>
+      <c r="E50" s="91"/>
       <c r="F50" s="20"/>
-      <c r="G50" s="38"/>
-      <c r="H50" s="38"/>
+      <c r="G50" s="75"/>
+      <c r="H50" s="75"/>
       <c r="I50" s="3" t="s">
         <v>30</v>
       </c>
@@ -2807,20 +2868,20 @@
       <c r="K50" s="5"/>
       <c r="L50" s="6"/>
       <c r="M50" s="6"/>
-      <c r="N50" s="39"/>
-      <c r="O50" s="43"/>
-      <c r="P50" s="43"/>
-      <c r="Q50" s="43"/>
+      <c r="N50" s="93"/>
+      <c r="O50" s="81"/>
+      <c r="P50" s="81"/>
+      <c r="Q50" s="81"/>
     </row>
     <row r="51" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A51" s="87"/>
-      <c r="B51" s="56"/>
-      <c r="C51" s="59"/>
-      <c r="D51" s="62"/>
-      <c r="E51" s="50"/>
+      <c r="A51" s="68"/>
+      <c r="B51" s="107"/>
+      <c r="C51" s="110"/>
+      <c r="D51" s="113"/>
+      <c r="E51" s="91"/>
       <c r="F51" s="20"/>
-      <c r="G51" s="38"/>
-      <c r="H51" s="38"/>
+      <c r="G51" s="75"/>
+      <c r="H51" s="75"/>
       <c r="I51" s="3" t="s">
         <v>31</v>
       </c>
@@ -2828,20 +2889,20 @@
       <c r="K51" s="5"/>
       <c r="L51" s="6"/>
       <c r="M51" s="6"/>
-      <c r="N51" s="39"/>
-      <c r="O51" s="43"/>
-      <c r="P51" s="43"/>
-      <c r="Q51" s="43"/>
+      <c r="N51" s="93"/>
+      <c r="O51" s="81"/>
+      <c r="P51" s="81"/>
+      <c r="Q51" s="81"/>
     </row>
     <row r="52" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A52" s="87"/>
-      <c r="B52" s="56"/>
-      <c r="C52" s="59"/>
-      <c r="D52" s="62"/>
-      <c r="E52" s="50"/>
+      <c r="A52" s="68"/>
+      <c r="B52" s="107"/>
+      <c r="C52" s="110"/>
+      <c r="D52" s="113"/>
+      <c r="E52" s="91"/>
       <c r="F52" s="20"/>
-      <c r="G52" s="38"/>
-      <c r="H52" s="38"/>
+      <c r="G52" s="75"/>
+      <c r="H52" s="75"/>
       <c r="I52" s="3" t="s">
         <v>32</v>
       </c>
@@ -2849,20 +2910,20 @@
       <c r="K52" s="5"/>
       <c r="L52" s="6"/>
       <c r="M52" s="6"/>
-      <c r="N52" s="39"/>
-      <c r="O52" s="43"/>
-      <c r="P52" s="43"/>
-      <c r="Q52" s="43"/>
+      <c r="N52" s="93"/>
+      <c r="O52" s="81"/>
+      <c r="P52" s="81"/>
+      <c r="Q52" s="81"/>
     </row>
     <row r="53" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A53" s="87"/>
-      <c r="B53" s="56"/>
-      <c r="C53" s="59"/>
-      <c r="D53" s="62"/>
-      <c r="E53" s="50"/>
+      <c r="A53" s="68"/>
+      <c r="B53" s="107"/>
+      <c r="C53" s="110"/>
+      <c r="D53" s="113"/>
+      <c r="E53" s="91"/>
       <c r="F53" s="20"/>
-      <c r="G53" s="38"/>
-      <c r="H53" s="38"/>
+      <c r="G53" s="75"/>
+      <c r="H53" s="75"/>
       <c r="I53" s="3" t="s">
         <v>33</v>
       </c>
@@ -2870,20 +2931,20 @@
       <c r="K53" s="5"/>
       <c r="L53" s="6"/>
       <c r="M53" s="6"/>
-      <c r="N53" s="39"/>
-      <c r="O53" s="43"/>
-      <c r="P53" s="43"/>
-      <c r="Q53" s="43"/>
+      <c r="N53" s="93"/>
+      <c r="O53" s="81"/>
+      <c r="P53" s="81"/>
+      <c r="Q53" s="81"/>
     </row>
     <row r="54" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A54" s="87"/>
-      <c r="B54" s="56"/>
-      <c r="C54" s="59"/>
-      <c r="D54" s="62"/>
-      <c r="E54" s="50"/>
+      <c r="A54" s="68"/>
+      <c r="B54" s="107"/>
+      <c r="C54" s="110"/>
+      <c r="D54" s="113"/>
+      <c r="E54" s="91"/>
       <c r="F54" s="20"/>
-      <c r="G54" s="38"/>
-      <c r="H54" s="38"/>
+      <c r="G54" s="75"/>
+      <c r="H54" s="75"/>
       <c r="I54" s="3" t="s">
         <v>34</v>
       </c>
@@ -2891,20 +2952,20 @@
       <c r="K54" s="5"/>
       <c r="L54" s="6"/>
       <c r="M54" s="6"/>
-      <c r="N54" s="39"/>
-      <c r="O54" s="44"/>
-      <c r="P54" s="44"/>
-      <c r="Q54" s="44"/>
+      <c r="N54" s="93"/>
+      <c r="O54" s="89"/>
+      <c r="P54" s="89"/>
+      <c r="Q54" s="89"/>
     </row>
     <row r="55" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A55" s="87"/>
-      <c r="B55" s="56"/>
-      <c r="C55" s="59"/>
-      <c r="D55" s="62"/>
-      <c r="E55" s="51"/>
+      <c r="A55" s="68"/>
+      <c r="B55" s="107"/>
+      <c r="C55" s="110"/>
+      <c r="D55" s="113"/>
+      <c r="E55" s="100"/>
       <c r="F55" s="21"/>
-      <c r="G55" s="53"/>
-      <c r="H55" s="53"/>
+      <c r="G55" s="76"/>
+      <c r="H55" s="76"/>
       <c r="I55" s="3" t="s">
         <v>35</v>
       </c>
@@ -2918,18 +2979,18 @@
       <c r="Q55" s="24"/>
     </row>
     <row r="56" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A56" s="87"/>
-      <c r="B56" s="56"/>
-      <c r="C56" s="59"/>
-      <c r="D56" s="62"/>
-      <c r="E56" s="54" t="s">
+      <c r="A56" s="68"/>
+      <c r="B56" s="107"/>
+      <c r="C56" s="110"/>
+      <c r="D56" s="113"/>
+      <c r="E56" s="90" t="s">
         <v>27</v>
       </c>
       <c r="F56" s="20"/>
-      <c r="G56" s="37" t="s">
+      <c r="G56" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="H56" s="37" t="s">
+      <c r="H56" s="84" t="s">
         <v>18</v>
       </c>
       <c r="I56" s="3" t="s">
@@ -2941,7 +3002,7 @@
       <c r="K56" s="5"/>
       <c r="L56" s="6"/>
       <c r="M56" s="6"/>
-      <c r="N56" s="37" t="s">
+      <c r="N56" s="84" t="s">
         <v>20</v>
       </c>
       <c r="O56" s="3" t="s">
@@ -2953,14 +3014,14 @@
       <c r="Q56" s="3"/>
     </row>
     <row r="57" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A57" s="87"/>
-      <c r="B57" s="56"/>
-      <c r="C57" s="59"/>
-      <c r="D57" s="62"/>
-      <c r="E57" s="50"/>
+      <c r="A57" s="68"/>
+      <c r="B57" s="107"/>
+      <c r="C57" s="110"/>
+      <c r="D57" s="113"/>
+      <c r="E57" s="91"/>
       <c r="F57" s="21"/>
-      <c r="G57" s="38"/>
-      <c r="H57" s="38"/>
+      <c r="G57" s="75"/>
+      <c r="H57" s="75"/>
       <c r="I57" s="3" t="s">
         <v>21</v>
       </c>
@@ -2968,20 +3029,20 @@
       <c r="K57" s="5"/>
       <c r="L57" s="22"/>
       <c r="M57" s="22"/>
-      <c r="N57" s="38"/>
-      <c r="O57" s="42"/>
-      <c r="P57" s="42"/>
-      <c r="Q57" s="42"/>
+      <c r="N57" s="75"/>
+      <c r="O57" s="80"/>
+      <c r="P57" s="80"/>
+      <c r="Q57" s="80"/>
     </row>
     <row r="58" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A58" s="87"/>
-      <c r="B58" s="56"/>
-      <c r="C58" s="59"/>
-      <c r="D58" s="62"/>
-      <c r="E58" s="50"/>
+      <c r="A58" s="68"/>
+      <c r="B58" s="107"/>
+      <c r="C58" s="110"/>
+      <c r="D58" s="113"/>
+      <c r="E58" s="91"/>
       <c r="F58" s="21"/>
-      <c r="G58" s="38"/>
-      <c r="H58" s="38"/>
+      <c r="G58" s="75"/>
+      <c r="H58" s="75"/>
       <c r="I58" s="3" t="s">
         <v>29</v>
       </c>
@@ -2989,20 +3050,20 @@
       <c r="K58" s="5"/>
       <c r="L58" s="22"/>
       <c r="M58" s="22"/>
-      <c r="N58" s="38"/>
-      <c r="O58" s="43"/>
-      <c r="P58" s="43"/>
-      <c r="Q58" s="43"/>
+      <c r="N58" s="75"/>
+      <c r="O58" s="81"/>
+      <c r="P58" s="81"/>
+      <c r="Q58" s="81"/>
     </row>
     <row r="59" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A59" s="87"/>
-      <c r="B59" s="56"/>
-      <c r="C59" s="59"/>
-      <c r="D59" s="62"/>
-      <c r="E59" s="50"/>
+      <c r="A59" s="68"/>
+      <c r="B59" s="107"/>
+      <c r="C59" s="110"/>
+      <c r="D59" s="113"/>
+      <c r="E59" s="91"/>
       <c r="F59" s="21"/>
-      <c r="G59" s="38"/>
-      <c r="H59" s="38"/>
+      <c r="G59" s="75"/>
+      <c r="H59" s="75"/>
       <c r="I59" s="3" t="s">
         <v>30</v>
       </c>
@@ -3010,20 +3071,20 @@
       <c r="K59" s="5"/>
       <c r="L59" s="22"/>
       <c r="M59" s="22"/>
-      <c r="N59" s="38"/>
-      <c r="O59" s="43"/>
-      <c r="P59" s="43"/>
-      <c r="Q59" s="43"/>
+      <c r="N59" s="75"/>
+      <c r="O59" s="81"/>
+      <c r="P59" s="81"/>
+      <c r="Q59" s="81"/>
     </row>
     <row r="60" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A60" s="87"/>
-      <c r="B60" s="56"/>
-      <c r="C60" s="59"/>
-      <c r="D60" s="62"/>
-      <c r="E60" s="50"/>
+      <c r="A60" s="68"/>
+      <c r="B60" s="107"/>
+      <c r="C60" s="110"/>
+      <c r="D60" s="113"/>
+      <c r="E60" s="91"/>
       <c r="F60" s="21"/>
-      <c r="G60" s="38"/>
-      <c r="H60" s="38"/>
+      <c r="G60" s="75"/>
+      <c r="H60" s="75"/>
       <c r="I60" s="3" t="s">
         <v>31</v>
       </c>
@@ -3031,20 +3092,20 @@
       <c r="K60" s="5"/>
       <c r="L60" s="22"/>
       <c r="M60" s="22"/>
-      <c r="N60" s="38"/>
-      <c r="O60" s="43"/>
-      <c r="P60" s="43"/>
-      <c r="Q60" s="43"/>
+      <c r="N60" s="75"/>
+      <c r="O60" s="81"/>
+      <c r="P60" s="81"/>
+      <c r="Q60" s="81"/>
     </row>
     <row r="61" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A61" s="87"/>
-      <c r="B61" s="56"/>
-      <c r="C61" s="59"/>
-      <c r="D61" s="62"/>
-      <c r="E61" s="50"/>
+      <c r="A61" s="68"/>
+      <c r="B61" s="107"/>
+      <c r="C61" s="110"/>
+      <c r="D61" s="113"/>
+      <c r="E61" s="91"/>
       <c r="F61" s="21"/>
-      <c r="G61" s="38"/>
-      <c r="H61" s="38"/>
+      <c r="G61" s="75"/>
+      <c r="H61" s="75"/>
       <c r="I61" s="3" t="s">
         <v>32</v>
       </c>
@@ -3052,20 +3113,20 @@
       <c r="K61" s="5"/>
       <c r="L61" s="22"/>
       <c r="M61" s="22"/>
-      <c r="N61" s="38"/>
-      <c r="O61" s="43"/>
-      <c r="P61" s="43"/>
-      <c r="Q61" s="43"/>
+      <c r="N61" s="75"/>
+      <c r="O61" s="81"/>
+      <c r="P61" s="81"/>
+      <c r="Q61" s="81"/>
     </row>
     <row r="62" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A62" s="87"/>
-      <c r="B62" s="56"/>
-      <c r="C62" s="59"/>
-      <c r="D62" s="62"/>
-      <c r="E62" s="50"/>
+      <c r="A62" s="68"/>
+      <c r="B62" s="107"/>
+      <c r="C62" s="110"/>
+      <c r="D62" s="113"/>
+      <c r="E62" s="91"/>
       <c r="F62" s="21"/>
-      <c r="G62" s="38"/>
-      <c r="H62" s="38"/>
+      <c r="G62" s="75"/>
+      <c r="H62" s="75"/>
       <c r="I62" s="3" t="s">
         <v>33</v>
       </c>
@@ -3073,20 +3134,20 @@
       <c r="K62" s="5"/>
       <c r="L62" s="22"/>
       <c r="M62" s="22"/>
-      <c r="N62" s="38"/>
-      <c r="O62" s="43"/>
-      <c r="P62" s="43"/>
-      <c r="Q62" s="43"/>
+      <c r="N62" s="75"/>
+      <c r="O62" s="81"/>
+      <c r="P62" s="81"/>
+      <c r="Q62" s="81"/>
     </row>
     <row r="63" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A63" s="87"/>
-      <c r="B63" s="56"/>
-      <c r="C63" s="59"/>
-      <c r="D63" s="62"/>
-      <c r="E63" s="50"/>
+      <c r="A63" s="68"/>
+      <c r="B63" s="107"/>
+      <c r="C63" s="110"/>
+      <c r="D63" s="113"/>
+      <c r="E63" s="91"/>
       <c r="F63" s="21"/>
-      <c r="G63" s="38"/>
-      <c r="H63" s="38"/>
+      <c r="G63" s="75"/>
+      <c r="H63" s="75"/>
       <c r="I63" s="3" t="s">
         <v>34</v>
       </c>
@@ -3094,20 +3155,20 @@
       <c r="K63" s="5"/>
       <c r="L63" s="22"/>
       <c r="M63" s="22"/>
-      <c r="N63" s="38"/>
-      <c r="O63" s="43"/>
-      <c r="P63" s="43"/>
-      <c r="Q63" s="43"/>
+      <c r="N63" s="75"/>
+      <c r="O63" s="81"/>
+      <c r="P63" s="81"/>
+      <c r="Q63" s="81"/>
     </row>
     <row r="64" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A64" s="87"/>
-      <c r="B64" s="56"/>
-      <c r="C64" s="59"/>
-      <c r="D64" s="62"/>
-      <c r="E64" s="55"/>
+      <c r="A64" s="68"/>
+      <c r="B64" s="107"/>
+      <c r="C64" s="110"/>
+      <c r="D64" s="113"/>
+      <c r="E64" s="92"/>
       <c r="F64" s="20"/>
-      <c r="G64" s="48"/>
-      <c r="H64" s="48"/>
+      <c r="G64" s="88"/>
+      <c r="H64" s="88"/>
       <c r="I64" s="3" t="s">
         <v>35</v>
       </c>
@@ -3115,24 +3176,24 @@
       <c r="K64" s="5"/>
       <c r="L64" s="6"/>
       <c r="M64" s="6"/>
-      <c r="N64" s="48"/>
-      <c r="O64" s="44"/>
-      <c r="P64" s="44"/>
-      <c r="Q64" s="44"/>
+      <c r="N64" s="88"/>
+      <c r="O64" s="89"/>
+      <c r="P64" s="89"/>
+      <c r="Q64" s="89"/>
     </row>
     <row r="65" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A65" s="87"/>
-      <c r="B65" s="56"/>
-      <c r="C65" s="59"/>
-      <c r="D65" s="62"/>
-      <c r="E65" s="49" t="s">
+      <c r="A65" s="68"/>
+      <c r="B65" s="107"/>
+      <c r="C65" s="110"/>
+      <c r="D65" s="113"/>
+      <c r="E65" s="99" t="s">
         <v>28</v>
       </c>
       <c r="F65" s="20"/>
-      <c r="G65" s="37" t="s">
+      <c r="G65" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="H65" s="37" t="s">
+      <c r="H65" s="84" t="s">
         <v>18</v>
       </c>
       <c r="I65" s="3" t="s">
@@ -3144,7 +3205,7 @@
       <c r="K65" s="5"/>
       <c r="L65" s="6"/>
       <c r="M65" s="6"/>
-      <c r="N65" s="37" t="s">
+      <c r="N65" s="84" t="s">
         <v>20</v>
       </c>
       <c r="O65" s="3" t="s">
@@ -3156,14 +3217,14 @@
       <c r="Q65" s="3"/>
     </row>
     <row r="66" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A66" s="89"/>
-      <c r="B66" s="57"/>
-      <c r="C66" s="60"/>
-      <c r="D66" s="63"/>
-      <c r="E66" s="51"/>
+      <c r="A66" s="69"/>
+      <c r="B66" s="108"/>
+      <c r="C66" s="111"/>
+      <c r="D66" s="114"/>
+      <c r="E66" s="100"/>
       <c r="F66" s="20"/>
-      <c r="G66" s="48"/>
-      <c r="H66" s="48"/>
+      <c r="G66" s="88"/>
+      <c r="H66" s="88"/>
       <c r="I66" s="3" t="s">
         <v>21</v>
       </c>
@@ -3171,30 +3232,30 @@
       <c r="K66" s="5"/>
       <c r="L66" s="6"/>
       <c r="M66" s="6"/>
-      <c r="N66" s="48"/>
+      <c r="N66" s="88"/>
       <c r="O66" s="3"/>
       <c r="P66" s="24"/>
       <c r="Q66" s="3"/>
     </row>
     <row r="67" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="93">
+      <c r="A67" s="60">
         <v>2</v>
       </c>
-      <c r="B67" s="90"/>
+      <c r="B67" s="57"/>
       <c r="C67" s="34"/>
-      <c r="D67" s="75" t="s">
+      <c r="D67" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="E67" s="64" t="s">
+      <c r="E67" s="98" t="s">
         <v>48</v>
       </c>
-      <c r="F67" s="65" t="s">
+      <c r="F67" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="G67" s="37" t="s">
+      <c r="G67" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="H67" s="37" t="s">
+      <c r="H67" s="84" t="s">
         <v>18</v>
       </c>
       <c r="I67" s="3" t="s">
@@ -3206,7 +3267,7 @@
       <c r="K67" s="5"/>
       <c r="L67" s="3"/>
       <c r="M67" s="6"/>
-      <c r="N67" s="37" t="s">
+      <c r="N67" s="84" t="s">
         <v>20</v>
       </c>
       <c r="O67" s="3" t="s">
@@ -3218,14 +3279,14 @@
       <c r="Q67" s="3"/>
     </row>
     <row r="68" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="94"/>
-      <c r="B68" s="91"/>
+      <c r="A68" s="61"/>
+      <c r="B68" s="58"/>
       <c r="C68" s="34"/>
-      <c r="D68" s="75"/>
-      <c r="E68" s="64"/>
-      <c r="F68" s="65"/>
-      <c r="G68" s="39"/>
-      <c r="H68" s="39"/>
+      <c r="D68" s="101"/>
+      <c r="E68" s="98"/>
+      <c r="F68" s="86"/>
+      <c r="G68" s="93"/>
+      <c r="H68" s="93"/>
       <c r="I68" s="3" t="s">
         <v>21</v>
       </c>
@@ -3233,177 +3294,177 @@
       <c r="K68" s="5"/>
       <c r="L68" s="3"/>
       <c r="M68" s="6"/>
-      <c r="N68" s="39"/>
-      <c r="O68" s="72" t="s">
+      <c r="N68" s="93"/>
+      <c r="O68" s="96" t="s">
         <v>58</v>
       </c>
       <c r="P68" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="Q68" s="69"/>
+      <c r="Q68" s="94"/>
     </row>
     <row r="69" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="94"/>
-      <c r="B69" s="91"/>
+      <c r="A69" s="61"/>
+      <c r="B69" s="58"/>
       <c r="C69" s="34"/>
-      <c r="D69" s="75"/>
-      <c r="E69" s="64"/>
-      <c r="F69" s="65"/>
-      <c r="G69" s="39"/>
-      <c r="H69" s="39"/>
+      <c r="D69" s="101"/>
+      <c r="E69" s="98"/>
+      <c r="F69" s="86"/>
+      <c r="G69" s="93"/>
+      <c r="H69" s="93"/>
       <c r="I69" s="7"/>
       <c r="J69" s="8"/>
       <c r="K69" s="28"/>
       <c r="L69" s="7"/>
       <c r="M69" s="10"/>
-      <c r="N69" s="39"/>
-      <c r="O69" s="73"/>
+      <c r="N69" s="93"/>
+      <c r="O69" s="97"/>
       <c r="P69" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="Q69" s="70"/>
+      <c r="Q69" s="95"/>
     </row>
     <row r="70" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="94"/>
-      <c r="B70" s="91"/>
+      <c r="A70" s="61"/>
+      <c r="B70" s="58"/>
       <c r="C70" s="34"/>
-      <c r="D70" s="75"/>
-      <c r="E70" s="64"/>
-      <c r="F70" s="65"/>
-      <c r="G70" s="39"/>
-      <c r="H70" s="39"/>
+      <c r="D70" s="101"/>
+      <c r="E70" s="98"/>
+      <c r="F70" s="86"/>
+      <c r="G70" s="93"/>
+      <c r="H70" s="93"/>
       <c r="I70" s="12"/>
       <c r="J70" s="12"/>
       <c r="K70" s="29"/>
       <c r="L70" s="12"/>
       <c r="M70" s="14"/>
-      <c r="N70" s="39"/>
-      <c r="O70" s="73"/>
+      <c r="N70" s="93"/>
+      <c r="O70" s="97"/>
       <c r="P70" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="Q70" s="70"/>
+      <c r="Q70" s="95"/>
     </row>
     <row r="71" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="94"/>
-      <c r="B71" s="91"/>
+      <c r="A71" s="61"/>
+      <c r="B71" s="58"/>
       <c r="C71" s="34"/>
-      <c r="D71" s="75"/>
-      <c r="E71" s="64"/>
-      <c r="F71" s="65"/>
-      <c r="G71" s="39"/>
-      <c r="H71" s="39"/>
+      <c r="D71" s="101"/>
+      <c r="E71" s="98"/>
+      <c r="F71" s="86"/>
+      <c r="G71" s="93"/>
+      <c r="H71" s="93"/>
       <c r="I71" s="12"/>
       <c r="J71" s="12"/>
       <c r="K71" s="29"/>
       <c r="L71" s="12"/>
       <c r="M71" s="14"/>
-      <c r="N71" s="39"/>
-      <c r="O71" s="73"/>
+      <c r="N71" s="93"/>
+      <c r="O71" s="97"/>
       <c r="P71" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="Q71" s="70"/>
+      <c r="Q71" s="95"/>
     </row>
     <row r="72" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="94"/>
-      <c r="B72" s="91"/>
+      <c r="A72" s="61"/>
+      <c r="B72" s="58"/>
       <c r="C72" s="34"/>
-      <c r="D72" s="75"/>
-      <c r="E72" s="64"/>
-      <c r="F72" s="65"/>
-      <c r="G72" s="39"/>
-      <c r="H72" s="39"/>
+      <c r="D72" s="101"/>
+      <c r="E72" s="98"/>
+      <c r="F72" s="86"/>
+      <c r="G72" s="93"/>
+      <c r="H72" s="93"/>
       <c r="I72" s="12"/>
       <c r="J72" s="12"/>
       <c r="K72" s="29"/>
       <c r="L72" s="12"/>
       <c r="M72" s="14"/>
-      <c r="N72" s="39"/>
-      <c r="O72" s="73"/>
+      <c r="N72" s="93"/>
+      <c r="O72" s="97"/>
       <c r="P72" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="Q72" s="70"/>
+      <c r="Q72" s="95"/>
     </row>
     <row r="73" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="94"/>
-      <c r="B73" s="91"/>
+      <c r="A73" s="61"/>
+      <c r="B73" s="58"/>
       <c r="C73" s="34"/>
-      <c r="D73" s="75"/>
-      <c r="E73" s="64"/>
-      <c r="F73" s="65"/>
-      <c r="G73" s="39"/>
-      <c r="H73" s="39"/>
+      <c r="D73" s="101"/>
+      <c r="E73" s="98"/>
+      <c r="F73" s="86"/>
+      <c r="G73" s="93"/>
+      <c r="H73" s="93"/>
       <c r="I73" s="12"/>
       <c r="J73" s="12"/>
       <c r="K73" s="29"/>
       <c r="L73" s="12"/>
       <c r="M73" s="14"/>
-      <c r="N73" s="39"/>
-      <c r="O73" s="73"/>
+      <c r="N73" s="93"/>
+      <c r="O73" s="97"/>
       <c r="P73" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="Q73" s="70"/>
+      <c r="Q73" s="95"/>
     </row>
     <row r="74" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="94"/>
-      <c r="B74" s="91"/>
+      <c r="A74" s="61"/>
+      <c r="B74" s="58"/>
       <c r="C74" s="34"/>
-      <c r="D74" s="75"/>
-      <c r="E74" s="64"/>
-      <c r="F74" s="65"/>
-      <c r="G74" s="39"/>
-      <c r="H74" s="39"/>
+      <c r="D74" s="101"/>
+      <c r="E74" s="98"/>
+      <c r="F74" s="86"/>
+      <c r="G74" s="93"/>
+      <c r="H74" s="93"/>
       <c r="I74" s="12"/>
       <c r="J74" s="12"/>
       <c r="K74" s="29"/>
       <c r="L74" s="12"/>
       <c r="M74" s="14"/>
-      <c r="N74" s="39"/>
-      <c r="O74" s="73"/>
+      <c r="N74" s="93"/>
+      <c r="O74" s="97"/>
       <c r="P74" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="Q74" s="70"/>
+      <c r="Q74" s="95"/>
     </row>
     <row r="75" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="94"/>
-      <c r="B75" s="91"/>
+      <c r="A75" s="61"/>
+      <c r="B75" s="58"/>
       <c r="C75" s="34"/>
-      <c r="D75" s="75"/>
-      <c r="E75" s="64"/>
-      <c r="F75" s="65"/>
-      <c r="G75" s="39"/>
-      <c r="H75" s="39"/>
+      <c r="D75" s="101"/>
+      <c r="E75" s="98"/>
+      <c r="F75" s="86"/>
+      <c r="G75" s="93"/>
+      <c r="H75" s="93"/>
       <c r="I75" s="12"/>
       <c r="J75" s="12"/>
       <c r="K75" s="29"/>
       <c r="L75" s="12"/>
       <c r="M75" s="14"/>
-      <c r="N75" s="39"/>
-      <c r="O75" s="73"/>
+      <c r="N75" s="93"/>
+      <c r="O75" s="97"/>
       <c r="P75" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="Q75" s="70"/>
+      <c r="Q75" s="95"/>
     </row>
     <row r="76" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="94"/>
-      <c r="B76" s="91"/>
+      <c r="A76" s="61"/>
+      <c r="B76" s="58"/>
       <c r="C76" s="34"/>
-      <c r="D76" s="75"/>
-      <c r="E76" s="66" t="s">
+      <c r="D76" s="101"/>
+      <c r="E76" s="82" t="s">
         <v>57</v>
       </c>
-      <c r="F76" s="65" t="s">
+      <c r="F76" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="G76" s="37" t="s">
+      <c r="G76" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="H76" s="37" t="s">
+      <c r="H76" s="84" t="s">
         <v>18</v>
       </c>
       <c r="I76" s="3" t="s">
@@ -3415,7 +3476,7 @@
       <c r="K76" s="5"/>
       <c r="L76" s="5"/>
       <c r="M76" s="6"/>
-      <c r="N76" s="37" t="s">
+      <c r="N76" s="84" t="s">
         <v>20</v>
       </c>
       <c r="O76" s="3" t="s">
@@ -3427,14 +3488,14 @@
       <c r="Q76" s="3"/>
     </row>
     <row r="77" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="94"/>
-      <c r="B77" s="91"/>
+      <c r="A77" s="61"/>
+      <c r="B77" s="58"/>
       <c r="C77" s="34"/>
-      <c r="D77" s="75"/>
-      <c r="E77" s="67"/>
-      <c r="F77" s="68"/>
-      <c r="G77" s="38"/>
-      <c r="H77" s="38"/>
+      <c r="D77" s="101"/>
+      <c r="E77" s="83"/>
+      <c r="F77" s="87"/>
+      <c r="G77" s="75"/>
+      <c r="H77" s="75"/>
       <c r="I77" s="4" t="s">
         <v>21</v>
       </c>
@@ -3442,175 +3503,175 @@
       <c r="K77" s="4"/>
       <c r="L77" s="4"/>
       <c r="M77" s="4"/>
-      <c r="N77" s="38"/>
-      <c r="O77" s="76" t="s">
+      <c r="N77" s="75"/>
+      <c r="O77" s="77" t="s">
         <v>59</v>
       </c>
       <c r="P77" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="Q77" s="42"/>
+      <c r="Q77" s="80"/>
     </row>
     <row r="78" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="94"/>
-      <c r="B78" s="91"/>
+      <c r="A78" s="61"/>
+      <c r="B78" s="58"/>
       <c r="C78" s="34"/>
-      <c r="D78" s="75"/>
-      <c r="E78" s="67"/>
-      <c r="F78" s="68"/>
-      <c r="G78" s="38"/>
-      <c r="H78" s="40"/>
+      <c r="D78" s="101"/>
+      <c r="E78" s="83"/>
+      <c r="F78" s="87"/>
+      <c r="G78" s="75"/>
+      <c r="H78" s="85"/>
       <c r="I78" s="16"/>
       <c r="J78" s="17"/>
       <c r="K78" s="17"/>
       <c r="L78" s="18"/>
       <c r="M78" s="18"/>
-      <c r="N78" s="38"/>
-      <c r="O78" s="77"/>
+      <c r="N78" s="75"/>
+      <c r="O78" s="78"/>
       <c r="P78" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="Q78" s="43"/>
+      <c r="Q78" s="81"/>
     </row>
     <row r="79" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="94"/>
-      <c r="B79" s="91"/>
+      <c r="A79" s="61"/>
+      <c r="B79" s="58"/>
       <c r="C79" s="34"/>
-      <c r="D79" s="75"/>
-      <c r="E79" s="67"/>
-      <c r="F79" s="68"/>
-      <c r="G79" s="38"/>
-      <c r="H79" s="40"/>
+      <c r="D79" s="101"/>
+      <c r="E79" s="83"/>
+      <c r="F79" s="87"/>
+      <c r="G79" s="75"/>
+      <c r="H79" s="85"/>
       <c r="I79" s="18"/>
       <c r="J79" s="17"/>
       <c r="K79" s="17"/>
       <c r="L79" s="18"/>
       <c r="M79" s="18"/>
-      <c r="N79" s="38"/>
-      <c r="O79" s="77"/>
+      <c r="N79" s="75"/>
+      <c r="O79" s="78"/>
       <c r="P79" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="Q79" s="43"/>
+      <c r="Q79" s="81"/>
     </row>
     <row r="80" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="94"/>
-      <c r="B80" s="91"/>
+      <c r="A80" s="61"/>
+      <c r="B80" s="58"/>
       <c r="C80" s="34"/>
-      <c r="D80" s="75"/>
-      <c r="E80" s="67"/>
-      <c r="F80" s="68"/>
-      <c r="G80" s="38"/>
-      <c r="H80" s="40"/>
+      <c r="D80" s="101"/>
+      <c r="E80" s="83"/>
+      <c r="F80" s="87"/>
+      <c r="G80" s="75"/>
+      <c r="H80" s="85"/>
       <c r="I80" s="18"/>
       <c r="J80" s="17"/>
       <c r="K80" s="17"/>
       <c r="L80" s="18"/>
       <c r="M80" s="18"/>
-      <c r="N80" s="38"/>
-      <c r="O80" s="77"/>
+      <c r="N80" s="75"/>
+      <c r="O80" s="78"/>
       <c r="P80" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="Q80" s="43"/>
+      <c r="Q80" s="81"/>
     </row>
     <row r="81" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="94"/>
-      <c r="B81" s="91"/>
+      <c r="A81" s="61"/>
+      <c r="B81" s="58"/>
       <c r="C81" s="34"/>
-      <c r="D81" s="75"/>
-      <c r="E81" s="67"/>
-      <c r="F81" s="68"/>
-      <c r="G81" s="38"/>
-      <c r="H81" s="40"/>
+      <c r="D81" s="101"/>
+      <c r="E81" s="83"/>
+      <c r="F81" s="87"/>
+      <c r="G81" s="75"/>
+      <c r="H81" s="85"/>
       <c r="I81" s="18"/>
       <c r="J81" s="17"/>
       <c r="K81" s="17"/>
       <c r="L81" s="18"/>
       <c r="M81" s="18"/>
-      <c r="N81" s="38"/>
-      <c r="O81" s="77"/>
+      <c r="N81" s="75"/>
+      <c r="O81" s="78"/>
       <c r="P81" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="Q81" s="43"/>
+      <c r="Q81" s="81"/>
     </row>
     <row r="82" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="94"/>
-      <c r="B82" s="91"/>
+      <c r="A82" s="61"/>
+      <c r="B82" s="58"/>
       <c r="C82" s="34"/>
-      <c r="D82" s="75"/>
-      <c r="E82" s="67"/>
-      <c r="F82" s="68"/>
-      <c r="G82" s="38"/>
-      <c r="H82" s="40"/>
+      <c r="D82" s="101"/>
+      <c r="E82" s="83"/>
+      <c r="F82" s="87"/>
+      <c r="G82" s="75"/>
+      <c r="H82" s="85"/>
       <c r="I82" s="18"/>
       <c r="J82" s="17"/>
       <c r="K82" s="17"/>
       <c r="L82" s="18"/>
       <c r="M82" s="18"/>
-      <c r="N82" s="38"/>
-      <c r="O82" s="77"/>
+      <c r="N82" s="75"/>
+      <c r="O82" s="78"/>
       <c r="P82" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="Q82" s="43"/>
+      <c r="Q82" s="81"/>
     </row>
     <row r="83" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="94"/>
-      <c r="B83" s="91"/>
+      <c r="A83" s="61"/>
+      <c r="B83" s="58"/>
       <c r="C83" s="34"/>
-      <c r="D83" s="75"/>
-      <c r="E83" s="67"/>
-      <c r="F83" s="68"/>
-      <c r="G83" s="38"/>
-      <c r="H83" s="40"/>
+      <c r="D83" s="101"/>
+      <c r="E83" s="83"/>
+      <c r="F83" s="87"/>
+      <c r="G83" s="75"/>
+      <c r="H83" s="85"/>
       <c r="I83" s="18"/>
       <c r="J83" s="17"/>
       <c r="K83" s="17"/>
       <c r="L83" s="18"/>
       <c r="M83" s="18"/>
-      <c r="N83" s="38"/>
-      <c r="O83" s="77"/>
+      <c r="N83" s="75"/>
+      <c r="O83" s="78"/>
       <c r="P83" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="Q83" s="43"/>
+      <c r="Q83" s="81"/>
     </row>
     <row r="84" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="94"/>
-      <c r="B84" s="91"/>
+      <c r="A84" s="61"/>
+      <c r="B84" s="58"/>
       <c r="C84" s="34"/>
-      <c r="D84" s="75"/>
-      <c r="E84" s="67"/>
-      <c r="F84" s="68"/>
-      <c r="G84" s="38"/>
-      <c r="H84" s="40"/>
+      <c r="D84" s="101"/>
+      <c r="E84" s="83"/>
+      <c r="F84" s="87"/>
+      <c r="G84" s="75"/>
+      <c r="H84" s="85"/>
       <c r="I84" s="18"/>
       <c r="J84" s="17"/>
       <c r="K84" s="17"/>
       <c r="L84" s="18"/>
       <c r="M84" s="18"/>
-      <c r="N84" s="38"/>
-      <c r="O84" s="78"/>
+      <c r="N84" s="75"/>
+      <c r="O84" s="79"/>
       <c r="P84" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="Q84" s="43"/>
+      <c r="Q84" s="81"/>
     </row>
     <row r="85" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="94"/>
-      <c r="B85" s="91"/>
+      <c r="A85" s="61"/>
+      <c r="B85" s="58"/>
       <c r="C85" s="34"/>
-      <c r="D85" s="75"/>
-      <c r="E85" s="49" t="s">
+      <c r="D85" s="101"/>
+      <c r="E85" s="99" t="s">
         <v>60</v>
       </c>
       <c r="F85" s="27"/>
-      <c r="G85" s="52" t="s">
+      <c r="G85" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="H85" s="52" t="s">
+      <c r="H85" s="74" t="s">
         <v>18</v>
       </c>
       <c r="I85" s="4" t="s">
@@ -3622,7 +3683,7 @@
       <c r="K85" s="5"/>
       <c r="L85" s="6"/>
       <c r="M85" s="6"/>
-      <c r="N85" s="37" t="s">
+      <c r="N85" s="84" t="s">
         <v>20</v>
       </c>
       <c r="O85" s="3" t="s">
@@ -3634,14 +3695,14 @@
       <c r="Q85" s="3"/>
     </row>
     <row r="86" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="94"/>
-      <c r="B86" s="91"/>
+      <c r="A86" s="61"/>
+      <c r="B86" s="58"/>
       <c r="C86" s="34"/>
-      <c r="D86" s="75"/>
-      <c r="E86" s="50"/>
+      <c r="D86" s="101"/>
+      <c r="E86" s="91"/>
       <c r="F86" s="27"/>
-      <c r="G86" s="38"/>
-      <c r="H86" s="38"/>
+      <c r="G86" s="75"/>
+      <c r="H86" s="75"/>
       <c r="I86" s="11" t="s">
         <v>50</v>
       </c>
@@ -3649,20 +3710,20 @@
       <c r="K86" s="5"/>
       <c r="L86" s="6"/>
       <c r="M86" s="6"/>
-      <c r="N86" s="39"/>
-      <c r="O86" s="42"/>
-      <c r="P86" s="42"/>
-      <c r="Q86" s="42"/>
+      <c r="N86" s="93"/>
+      <c r="O86" s="80"/>
+      <c r="P86" s="80"/>
+      <c r="Q86" s="80"/>
     </row>
     <row r="87" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="94"/>
-      <c r="B87" s="91"/>
+      <c r="A87" s="61"/>
+      <c r="B87" s="58"/>
       <c r="C87" s="34"/>
-      <c r="D87" s="75"/>
-      <c r="E87" s="50"/>
+      <c r="D87" s="101"/>
+      <c r="E87" s="91"/>
       <c r="F87" s="27"/>
-      <c r="G87" s="38"/>
-      <c r="H87" s="38"/>
+      <c r="G87" s="75"/>
+      <c r="H87" s="75"/>
       <c r="I87" s="3" t="s">
         <v>51</v>
       </c>
@@ -3670,20 +3731,20 @@
       <c r="K87" s="5"/>
       <c r="L87" s="6"/>
       <c r="M87" s="6"/>
-      <c r="N87" s="39"/>
-      <c r="O87" s="43"/>
-      <c r="P87" s="43"/>
-      <c r="Q87" s="43"/>
+      <c r="N87" s="93"/>
+      <c r="O87" s="81"/>
+      <c r="P87" s="81"/>
+      <c r="Q87" s="81"/>
     </row>
     <row r="88" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="94"/>
-      <c r="B88" s="91"/>
+      <c r="A88" s="61"/>
+      <c r="B88" s="58"/>
       <c r="C88" s="34"/>
-      <c r="D88" s="75"/>
-      <c r="E88" s="50"/>
+      <c r="D88" s="101"/>
+      <c r="E88" s="91"/>
       <c r="F88" s="27"/>
-      <c r="G88" s="38"/>
-      <c r="H88" s="38"/>
+      <c r="G88" s="75"/>
+      <c r="H88" s="75"/>
       <c r="I88" s="3" t="s">
         <v>52</v>
       </c>
@@ -3691,20 +3752,20 @@
       <c r="K88" s="5"/>
       <c r="L88" s="6"/>
       <c r="M88" s="6"/>
-      <c r="N88" s="39"/>
-      <c r="O88" s="43"/>
-      <c r="P88" s="43"/>
-      <c r="Q88" s="43"/>
+      <c r="N88" s="93"/>
+      <c r="O88" s="81"/>
+      <c r="P88" s="81"/>
+      <c r="Q88" s="81"/>
     </row>
     <row r="89" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="94"/>
-      <c r="B89" s="91"/>
+      <c r="A89" s="61"/>
+      <c r="B89" s="58"/>
       <c r="C89" s="34"/>
-      <c r="D89" s="75"/>
-      <c r="E89" s="50"/>
+      <c r="D89" s="101"/>
+      <c r="E89" s="91"/>
       <c r="F89" s="27"/>
-      <c r="G89" s="38"/>
-      <c r="H89" s="38"/>
+      <c r="G89" s="75"/>
+      <c r="H89" s="75"/>
       <c r="I89" s="3" t="s">
         <v>53</v>
       </c>
@@ -3712,20 +3773,20 @@
       <c r="K89" s="5"/>
       <c r="L89" s="6"/>
       <c r="M89" s="6"/>
-      <c r="N89" s="39"/>
-      <c r="O89" s="43"/>
-      <c r="P89" s="43"/>
-      <c r="Q89" s="43"/>
+      <c r="N89" s="93"/>
+      <c r="O89" s="81"/>
+      <c r="P89" s="81"/>
+      <c r="Q89" s="81"/>
     </row>
     <row r="90" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="94"/>
-      <c r="B90" s="91"/>
+      <c r="A90" s="61"/>
+      <c r="B90" s="58"/>
       <c r="C90" s="34"/>
-      <c r="D90" s="75"/>
-      <c r="E90" s="50"/>
+      <c r="D90" s="101"/>
+      <c r="E90" s="91"/>
       <c r="F90" s="27"/>
-      <c r="G90" s="38"/>
-      <c r="H90" s="38"/>
+      <c r="G90" s="75"/>
+      <c r="H90" s="75"/>
       <c r="I90" s="3" t="s">
         <v>54</v>
       </c>
@@ -3733,20 +3794,20 @@
       <c r="K90" s="5"/>
       <c r="L90" s="6"/>
       <c r="M90" s="6"/>
-      <c r="N90" s="39"/>
-      <c r="O90" s="43"/>
-      <c r="P90" s="43"/>
-      <c r="Q90" s="43"/>
+      <c r="N90" s="93"/>
+      <c r="O90" s="81"/>
+      <c r="P90" s="81"/>
+      <c r="Q90" s="81"/>
     </row>
     <row r="91" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="94"/>
-      <c r="B91" s="91"/>
+      <c r="A91" s="61"/>
+      <c r="B91" s="58"/>
       <c r="C91" s="34"/>
-      <c r="D91" s="75"/>
-      <c r="E91" s="50"/>
+      <c r="D91" s="101"/>
+      <c r="E91" s="91"/>
       <c r="F91" s="27"/>
-      <c r="G91" s="38"/>
-      <c r="H91" s="38"/>
+      <c r="G91" s="75"/>
+      <c r="H91" s="75"/>
       <c r="I91" s="3" t="s">
         <v>55</v>
       </c>
@@ -3754,20 +3815,20 @@
       <c r="K91" s="5"/>
       <c r="L91" s="6"/>
       <c r="M91" s="6"/>
-      <c r="N91" s="39"/>
-      <c r="O91" s="44"/>
-      <c r="P91" s="44"/>
-      <c r="Q91" s="44"/>
+      <c r="N91" s="93"/>
+      <c r="O91" s="89"/>
+      <c r="P91" s="89"/>
+      <c r="Q91" s="89"/>
     </row>
     <row r="92" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="94"/>
-      <c r="B92" s="91"/>
+      <c r="A92" s="61"/>
+      <c r="B92" s="58"/>
       <c r="C92" s="34"/>
-      <c r="D92" s="75"/>
-      <c r="E92" s="51"/>
+      <c r="D92" s="101"/>
+      <c r="E92" s="100"/>
       <c r="F92" s="30"/>
-      <c r="G92" s="53"/>
-      <c r="H92" s="53"/>
+      <c r="G92" s="76"/>
+      <c r="H92" s="76"/>
       <c r="I92" s="3" t="s">
         <v>56</v>
       </c>
@@ -3781,18 +3842,18 @@
       <c r="Q92" s="24"/>
     </row>
     <row r="93" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="94"/>
-      <c r="B93" s="91"/>
+      <c r="A93" s="61"/>
+      <c r="B93" s="58"/>
       <c r="C93" s="34"/>
-      <c r="D93" s="75"/>
-      <c r="E93" s="54" t="s">
+      <c r="D93" s="101"/>
+      <c r="E93" s="90" t="s">
         <v>61</v>
       </c>
       <c r="F93" s="27"/>
-      <c r="G93" s="37" t="s">
+      <c r="G93" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="H93" s="37" t="s">
+      <c r="H93" s="84" t="s">
         <v>18</v>
       </c>
       <c r="I93" s="3" t="s">
@@ -3804,7 +3865,7 @@
       <c r="K93" s="5"/>
       <c r="L93" s="6"/>
       <c r="M93" s="6"/>
-      <c r="N93" s="37" t="s">
+      <c r="N93" s="84" t="s">
         <v>20</v>
       </c>
       <c r="O93" s="3" t="s">
@@ -3816,14 +3877,14 @@
       <c r="Q93" s="3"/>
     </row>
     <row r="94" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="94"/>
-      <c r="B94" s="91"/>
+      <c r="A94" s="61"/>
+      <c r="B94" s="58"/>
       <c r="C94" s="34"/>
-      <c r="D94" s="75"/>
-      <c r="E94" s="50"/>
+      <c r="D94" s="101"/>
+      <c r="E94" s="91"/>
       <c r="F94" s="30"/>
-      <c r="G94" s="38"/>
-      <c r="H94" s="38"/>
+      <c r="G94" s="75"/>
+      <c r="H94" s="75"/>
       <c r="I94" s="3" t="s">
         <v>21</v>
       </c>
@@ -3831,20 +3892,20 @@
       <c r="K94" s="5"/>
       <c r="L94" s="22"/>
       <c r="M94" s="22"/>
-      <c r="N94" s="38"/>
-      <c r="O94" s="42"/>
-      <c r="P94" s="42"/>
-      <c r="Q94" s="42"/>
+      <c r="N94" s="75"/>
+      <c r="O94" s="80"/>
+      <c r="P94" s="80"/>
+      <c r="Q94" s="80"/>
     </row>
     <row r="95" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="94"/>
-      <c r="B95" s="91"/>
+      <c r="A95" s="61"/>
+      <c r="B95" s="58"/>
       <c r="C95" s="34"/>
-      <c r="D95" s="75"/>
-      <c r="E95" s="50"/>
+      <c r="D95" s="101"/>
+      <c r="E95" s="91"/>
       <c r="F95" s="30"/>
-      <c r="G95" s="38"/>
-      <c r="H95" s="38"/>
+      <c r="G95" s="75"/>
+      <c r="H95" s="75"/>
       <c r="I95" s="11" t="s">
         <v>50</v>
       </c>
@@ -3852,20 +3913,20 @@
       <c r="K95" s="5"/>
       <c r="L95" s="22"/>
       <c r="M95" s="22"/>
-      <c r="N95" s="38"/>
-      <c r="O95" s="43"/>
-      <c r="P95" s="43"/>
-      <c r="Q95" s="43"/>
+      <c r="N95" s="75"/>
+      <c r="O95" s="81"/>
+      <c r="P95" s="81"/>
+      <c r="Q95" s="81"/>
     </row>
     <row r="96" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="94"/>
-      <c r="B96" s="91"/>
+      <c r="A96" s="61"/>
+      <c r="B96" s="58"/>
       <c r="C96" s="34"/>
-      <c r="D96" s="75"/>
-      <c r="E96" s="50"/>
+      <c r="D96" s="101"/>
+      <c r="E96" s="91"/>
       <c r="F96" s="30"/>
-      <c r="G96" s="38"/>
-      <c r="H96" s="38"/>
+      <c r="G96" s="75"/>
+      <c r="H96" s="75"/>
       <c r="I96" s="3" t="s">
         <v>51</v>
       </c>
@@ -3873,20 +3934,20 @@
       <c r="K96" s="5"/>
       <c r="L96" s="22"/>
       <c r="M96" s="22"/>
-      <c r="N96" s="38"/>
-      <c r="O96" s="43"/>
-      <c r="P96" s="43"/>
-      <c r="Q96" s="43"/>
+      <c r="N96" s="75"/>
+      <c r="O96" s="81"/>
+      <c r="P96" s="81"/>
+      <c r="Q96" s="81"/>
     </row>
     <row r="97" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="94"/>
-      <c r="B97" s="91"/>
+      <c r="A97" s="61"/>
+      <c r="B97" s="58"/>
       <c r="C97" s="34"/>
-      <c r="D97" s="75"/>
-      <c r="E97" s="50"/>
+      <c r="D97" s="101"/>
+      <c r="E97" s="91"/>
       <c r="F97" s="30"/>
-      <c r="G97" s="38"/>
-      <c r="H97" s="38"/>
+      <c r="G97" s="75"/>
+      <c r="H97" s="75"/>
       <c r="I97" s="3" t="s">
         <v>52</v>
       </c>
@@ -3894,20 +3955,20 @@
       <c r="K97" s="5"/>
       <c r="L97" s="22"/>
       <c r="M97" s="22"/>
-      <c r="N97" s="38"/>
-      <c r="O97" s="43"/>
-      <c r="P97" s="43"/>
-      <c r="Q97" s="43"/>
+      <c r="N97" s="75"/>
+      <c r="O97" s="81"/>
+      <c r="P97" s="81"/>
+      <c r="Q97" s="81"/>
     </row>
     <row r="98" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="94"/>
-      <c r="B98" s="91"/>
+      <c r="A98" s="61"/>
+      <c r="B98" s="58"/>
       <c r="C98" s="34"/>
-      <c r="D98" s="75"/>
-      <c r="E98" s="50"/>
+      <c r="D98" s="101"/>
+      <c r="E98" s="91"/>
       <c r="F98" s="30"/>
-      <c r="G98" s="38"/>
-      <c r="H98" s="38"/>
+      <c r="G98" s="75"/>
+      <c r="H98" s="75"/>
       <c r="I98" s="3" t="s">
         <v>53</v>
       </c>
@@ -3915,20 +3976,20 @@
       <c r="K98" s="5"/>
       <c r="L98" s="22"/>
       <c r="M98" s="22"/>
-      <c r="N98" s="38"/>
-      <c r="O98" s="43"/>
-      <c r="P98" s="43"/>
-      <c r="Q98" s="43"/>
+      <c r="N98" s="75"/>
+      <c r="O98" s="81"/>
+      <c r="P98" s="81"/>
+      <c r="Q98" s="81"/>
     </row>
     <row r="99" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="94"/>
-      <c r="B99" s="91"/>
+      <c r="A99" s="61"/>
+      <c r="B99" s="58"/>
       <c r="C99" s="34"/>
-      <c r="D99" s="75"/>
-      <c r="E99" s="50"/>
+      <c r="D99" s="101"/>
+      <c r="E99" s="91"/>
       <c r="F99" s="30"/>
-      <c r="G99" s="38"/>
-      <c r="H99" s="38"/>
+      <c r="G99" s="75"/>
+      <c r="H99" s="75"/>
       <c r="I99" s="3" t="s">
         <v>54</v>
       </c>
@@ -3936,20 +3997,20 @@
       <c r="K99" s="5"/>
       <c r="L99" s="22"/>
       <c r="M99" s="22"/>
-      <c r="N99" s="38"/>
-      <c r="O99" s="43"/>
-      <c r="P99" s="43"/>
-      <c r="Q99" s="43"/>
+      <c r="N99" s="75"/>
+      <c r="O99" s="81"/>
+      <c r="P99" s="81"/>
+      <c r="Q99" s="81"/>
     </row>
     <row r="100" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="94"/>
-      <c r="B100" s="91"/>
+      <c r="A100" s="61"/>
+      <c r="B100" s="58"/>
       <c r="C100" s="34"/>
-      <c r="D100" s="75"/>
-      <c r="E100" s="50"/>
+      <c r="D100" s="101"/>
+      <c r="E100" s="91"/>
       <c r="F100" s="30"/>
-      <c r="G100" s="38"/>
-      <c r="H100" s="38"/>
+      <c r="G100" s="75"/>
+      <c r="H100" s="75"/>
       <c r="I100" s="3" t="s">
         <v>55</v>
       </c>
@@ -3957,20 +4018,20 @@
       <c r="K100" s="5"/>
       <c r="L100" s="22"/>
       <c r="M100" s="22"/>
-      <c r="N100" s="38"/>
-      <c r="O100" s="43"/>
-      <c r="P100" s="43"/>
-      <c r="Q100" s="43"/>
+      <c r="N100" s="75"/>
+      <c r="O100" s="81"/>
+      <c r="P100" s="81"/>
+      <c r="Q100" s="81"/>
     </row>
     <row r="101" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="94"/>
-      <c r="B101" s="91"/>
+      <c r="A101" s="61"/>
+      <c r="B101" s="58"/>
       <c r="C101" s="34"/>
-      <c r="D101" s="75"/>
-      <c r="E101" s="55"/>
+      <c r="D101" s="101"/>
+      <c r="E101" s="92"/>
       <c r="F101" s="27"/>
-      <c r="G101" s="48"/>
-      <c r="H101" s="48"/>
+      <c r="G101" s="88"/>
+      <c r="H101" s="88"/>
       <c r="I101" s="3" t="s">
         <v>56</v>
       </c>
@@ -3978,24 +4039,24 @@
       <c r="K101" s="5"/>
       <c r="L101" s="6"/>
       <c r="M101" s="6"/>
-      <c r="N101" s="48"/>
-      <c r="O101" s="44"/>
-      <c r="P101" s="44"/>
-      <c r="Q101" s="44"/>
+      <c r="N101" s="88"/>
+      <c r="O101" s="89"/>
+      <c r="P101" s="89"/>
+      <c r="Q101" s="89"/>
     </row>
     <row r="102" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="94"/>
-      <c r="B102" s="91"/>
+      <c r="A102" s="61"/>
+      <c r="B102" s="58"/>
       <c r="C102" s="34"/>
-      <c r="D102" s="75"/>
-      <c r="E102" s="49" t="s">
+      <c r="D102" s="101"/>
+      <c r="E102" s="99" t="s">
         <v>62</v>
       </c>
       <c r="F102" s="27"/>
-      <c r="G102" s="37" t="s">
+      <c r="G102" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="H102" s="37" t="s">
+      <c r="H102" s="84" t="s">
         <v>18</v>
       </c>
       <c r="I102" s="3" t="s">
@@ -4007,7 +4068,7 @@
       <c r="K102" s="5"/>
       <c r="L102" s="6"/>
       <c r="M102" s="6"/>
-      <c r="N102" s="37" t="s">
+      <c r="N102" s="84" t="s">
         <v>20</v>
       </c>
       <c r="O102" s="3" t="s">
@@ -4019,14 +4080,14 @@
       <c r="Q102" s="3"/>
     </row>
     <row r="103" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="94"/>
-      <c r="B103" s="91"/>
+      <c r="A103" s="61"/>
+      <c r="B103" s="58"/>
       <c r="C103" s="34"/>
-      <c r="D103" s="75"/>
-      <c r="E103" s="51"/>
+      <c r="D103" s="101"/>
+      <c r="E103" s="100"/>
       <c r="F103" s="27"/>
-      <c r="G103" s="48"/>
-      <c r="H103" s="48"/>
+      <c r="G103" s="88"/>
+      <c r="H103" s="88"/>
       <c r="I103" s="3" t="s">
         <v>21</v>
       </c>
@@ -4034,26 +4095,26 @@
       <c r="K103" s="5"/>
       <c r="L103" s="6"/>
       <c r="M103" s="6"/>
-      <c r="N103" s="48"/>
+      <c r="N103" s="88"/>
       <c r="O103" s="3"/>
       <c r="P103" s="24"/>
       <c r="Q103" s="3"/>
     </row>
     <row r="104" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="94"/>
-      <c r="B104" s="91"/>
+      <c r="A104" s="61"/>
+      <c r="B104" s="58"/>
       <c r="C104" s="34"/>
-      <c r="D104" s="75"/>
-      <c r="E104" s="66" t="s">
+      <c r="D104" s="101"/>
+      <c r="E104" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="F104" s="65" t="s">
+      <c r="F104" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="G104" s="37" t="s">
+      <c r="G104" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="H104" s="37" t="s">
+      <c r="H104" s="84" t="s">
         <v>18</v>
       </c>
       <c r="I104" s="3" t="s">
@@ -4065,7 +4126,7 @@
       <c r="K104" s="5"/>
       <c r="L104" s="5"/>
       <c r="M104" s="6"/>
-      <c r="N104" s="37" t="s">
+      <c r="N104" s="84" t="s">
         <v>20</v>
       </c>
       <c r="O104" s="3" t="s">
@@ -4077,14 +4138,14 @@
       <c r="Q104" s="3"/>
     </row>
     <row r="105" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="94"/>
-      <c r="B105" s="91"/>
+      <c r="A105" s="61"/>
+      <c r="B105" s="58"/>
       <c r="C105" s="34"/>
-      <c r="D105" s="75"/>
-      <c r="E105" s="67"/>
-      <c r="F105" s="68"/>
-      <c r="G105" s="38"/>
-      <c r="H105" s="38"/>
+      <c r="D105" s="101"/>
+      <c r="E105" s="83"/>
+      <c r="F105" s="87"/>
+      <c r="G105" s="75"/>
+      <c r="H105" s="75"/>
       <c r="I105" s="4" t="s">
         <v>21</v>
       </c>
@@ -4092,198 +4153,198 @@
       <c r="K105" s="4"/>
       <c r="L105" s="4"/>
       <c r="M105" s="4"/>
-      <c r="N105" s="38"/>
-      <c r="O105" s="76" t="s">
+      <c r="N105" s="75"/>
+      <c r="O105" s="77" t="s">
         <v>65</v>
       </c>
       <c r="P105" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="Q105" s="42"/>
+      <c r="Q105" s="80"/>
     </row>
     <row r="106" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="94"/>
-      <c r="B106" s="91"/>
+      <c r="A106" s="61"/>
+      <c r="B106" s="58"/>
       <c r="C106" s="34"/>
-      <c r="D106" s="75"/>
-      <c r="E106" s="67"/>
-      <c r="F106" s="68"/>
-      <c r="G106" s="38"/>
-      <c r="H106" s="40"/>
+      <c r="D106" s="101"/>
+      <c r="E106" s="83"/>
+      <c r="F106" s="87"/>
+      <c r="G106" s="75"/>
+      <c r="H106" s="85"/>
       <c r="I106" s="16"/>
       <c r="J106" s="17"/>
       <c r="K106" s="17"/>
       <c r="L106" s="18"/>
       <c r="M106" s="18"/>
-      <c r="N106" s="38"/>
-      <c r="O106" s="77"/>
+      <c r="N106" s="75"/>
+      <c r="O106" s="78"/>
       <c r="P106" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="Q106" s="43"/>
+      <c r="Q106" s="81"/>
     </row>
     <row r="107" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="94"/>
-      <c r="B107" s="91"/>
+      <c r="A107" s="61"/>
+      <c r="B107" s="58"/>
       <c r="C107" s="34"/>
-      <c r="D107" s="75"/>
-      <c r="E107" s="67"/>
-      <c r="F107" s="68"/>
-      <c r="G107" s="38"/>
-      <c r="H107" s="40"/>
+      <c r="D107" s="101"/>
+      <c r="E107" s="83"/>
+      <c r="F107" s="87"/>
+      <c r="G107" s="75"/>
+      <c r="H107" s="85"/>
       <c r="I107" s="18"/>
       <c r="J107" s="17"/>
       <c r="K107" s="17"/>
       <c r="L107" s="18"/>
       <c r="M107" s="18"/>
-      <c r="N107" s="38"/>
-      <c r="O107" s="77"/>
+      <c r="N107" s="75"/>
+      <c r="O107" s="78"/>
       <c r="P107" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="Q107" s="43"/>
+      <c r="Q107" s="81"/>
     </row>
     <row r="108" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="94"/>
-      <c r="B108" s="91"/>
+      <c r="A108" s="61"/>
+      <c r="B108" s="58"/>
       <c r="C108" s="34"/>
-      <c r="D108" s="75"/>
-      <c r="E108" s="67"/>
-      <c r="F108" s="68"/>
-      <c r="G108" s="38"/>
-      <c r="H108" s="40"/>
+      <c r="D108" s="101"/>
+      <c r="E108" s="83"/>
+      <c r="F108" s="87"/>
+      <c r="G108" s="75"/>
+      <c r="H108" s="85"/>
       <c r="I108" s="18"/>
       <c r="J108" s="17"/>
       <c r="K108" s="17"/>
       <c r="L108" s="18"/>
       <c r="M108" s="18"/>
-      <c r="N108" s="38"/>
-      <c r="O108" s="77"/>
+      <c r="N108" s="75"/>
+      <c r="O108" s="78"/>
       <c r="P108" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="Q108" s="43"/>
+      <c r="Q108" s="81"/>
     </row>
     <row r="109" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="94"/>
-      <c r="B109" s="91"/>
+      <c r="A109" s="61"/>
+      <c r="B109" s="58"/>
       <c r="C109" s="34"/>
-      <c r="D109" s="75"/>
-      <c r="E109" s="67"/>
-      <c r="F109" s="68"/>
-      <c r="G109" s="38"/>
-      <c r="H109" s="40"/>
+      <c r="D109" s="101"/>
+      <c r="E109" s="83"/>
+      <c r="F109" s="87"/>
+      <c r="G109" s="75"/>
+      <c r="H109" s="85"/>
       <c r="I109" s="18"/>
       <c r="J109" s="17"/>
       <c r="K109" s="17"/>
       <c r="L109" s="18"/>
       <c r="M109" s="18"/>
-      <c r="N109" s="38"/>
-      <c r="O109" s="77"/>
+      <c r="N109" s="75"/>
+      <c r="O109" s="78"/>
       <c r="P109" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="Q109" s="43"/>
+      <c r="Q109" s="81"/>
     </row>
     <row r="110" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="94"/>
-      <c r="B110" s="91"/>
+      <c r="A110" s="61"/>
+      <c r="B110" s="58"/>
       <c r="C110" s="34"/>
-      <c r="D110" s="75"/>
-      <c r="E110" s="67"/>
-      <c r="F110" s="68"/>
-      <c r="G110" s="38"/>
-      <c r="H110" s="40"/>
+      <c r="D110" s="101"/>
+      <c r="E110" s="83"/>
+      <c r="F110" s="87"/>
+      <c r="G110" s="75"/>
+      <c r="H110" s="85"/>
       <c r="I110" s="18"/>
       <c r="J110" s="17"/>
       <c r="K110" s="17"/>
       <c r="L110" s="18"/>
       <c r="M110" s="18"/>
-      <c r="N110" s="38"/>
-      <c r="O110" s="77"/>
+      <c r="N110" s="75"/>
+      <c r="O110" s="78"/>
       <c r="P110" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="Q110" s="43"/>
+      <c r="Q110" s="81"/>
     </row>
     <row r="111" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="94"/>
-      <c r="B111" s="91"/>
+      <c r="A111" s="61"/>
+      <c r="B111" s="58"/>
       <c r="C111" s="34"/>
-      <c r="D111" s="75"/>
-      <c r="E111" s="67"/>
-      <c r="F111" s="68"/>
-      <c r="G111" s="38"/>
-      <c r="H111" s="40"/>
+      <c r="D111" s="101"/>
+      <c r="E111" s="83"/>
+      <c r="F111" s="87"/>
+      <c r="G111" s="75"/>
+      <c r="H111" s="85"/>
       <c r="I111" s="18"/>
       <c r="J111" s="17"/>
       <c r="K111" s="17"/>
       <c r="L111" s="18"/>
       <c r="M111" s="18"/>
-      <c r="N111" s="38"/>
-      <c r="O111" s="77"/>
+      <c r="N111" s="75"/>
+      <c r="O111" s="78"/>
       <c r="P111" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="Q111" s="43"/>
+      <c r="Q111" s="81"/>
     </row>
     <row r="112" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="94"/>
-      <c r="B112" s="91"/>
+      <c r="A112" s="61"/>
+      <c r="B112" s="58"/>
       <c r="C112" s="34"/>
-      <c r="D112" s="75"/>
-      <c r="E112" s="67"/>
-      <c r="F112" s="68"/>
-      <c r="G112" s="38"/>
-      <c r="H112" s="40"/>
+      <c r="D112" s="101"/>
+      <c r="E112" s="83"/>
+      <c r="F112" s="87"/>
+      <c r="G112" s="75"/>
+      <c r="H112" s="85"/>
       <c r="I112" s="18"/>
       <c r="J112" s="17"/>
       <c r="K112" s="17"/>
       <c r="L112" s="18"/>
       <c r="M112" s="18"/>
-      <c r="N112" s="38"/>
-      <c r="O112" s="77"/>
+      <c r="N112" s="75"/>
+      <c r="O112" s="78"/>
       <c r="P112" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="Q112" s="43"/>
+      <c r="Q112" s="81"/>
     </row>
     <row r="113" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="94"/>
-      <c r="B113" s="91"/>
+      <c r="A113" s="61"/>
+      <c r="B113" s="58"/>
       <c r="C113" s="34"/>
-      <c r="D113" s="75"/>
-      <c r="E113" s="67"/>
-      <c r="F113" s="68"/>
-      <c r="G113" s="38"/>
-      <c r="H113" s="40"/>
+      <c r="D113" s="101"/>
+      <c r="E113" s="83"/>
+      <c r="F113" s="87"/>
+      <c r="G113" s="75"/>
+      <c r="H113" s="85"/>
       <c r="I113" s="18"/>
       <c r="J113" s="17"/>
       <c r="K113" s="17"/>
       <c r="L113" s="18"/>
       <c r="M113" s="18"/>
-      <c r="N113" s="38"/>
-      <c r="O113" s="78"/>
+      <c r="N113" s="75"/>
+      <c r="O113" s="79"/>
       <c r="P113" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="Q113" s="43"/>
+      <c r="Q113" s="81"/>
     </row>
     <row r="114" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="94"/>
-      <c r="B114" s="91"/>
+      <c r="A114" s="61"/>
+      <c r="B114" s="58"/>
       <c r="C114" s="34"/>
-      <c r="D114" s="75"/>
-      <c r="E114" s="98" t="s">
+      <c r="D114" s="101"/>
+      <c r="E114" s="71" t="s">
         <v>66</v>
       </c>
       <c r="F114" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="G114" s="52" t="s">
+      <c r="G114" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="H114" s="52" t="s">
+      <c r="H114" s="74" t="s">
         <v>18</v>
       </c>
       <c r="I114" s="4" t="s">
@@ -4307,14 +4368,14 @@
       <c r="Q114" s="4"/>
     </row>
     <row r="115" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="94"/>
-      <c r="B115" s="91"/>
+      <c r="A115" s="61"/>
+      <c r="B115" s="58"/>
       <c r="C115" s="34"/>
-      <c r="D115" s="75"/>
-      <c r="E115" s="99"/>
+      <c r="D115" s="101"/>
+      <c r="E115" s="72"/>
       <c r="F115" s="34"/>
-      <c r="G115" s="38"/>
-      <c r="H115" s="38"/>
+      <c r="G115" s="75"/>
+      <c r="H115" s="75"/>
       <c r="I115" s="11" t="s">
         <v>67</v>
       </c>
@@ -4328,14 +4389,14 @@
       <c r="Q115" s="35"/>
     </row>
     <row r="116" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="94"/>
-      <c r="B116" s="91"/>
+      <c r="A116" s="61"/>
+      <c r="B116" s="58"/>
       <c r="C116" s="34"/>
-      <c r="D116" s="75"/>
-      <c r="E116" s="99"/>
+      <c r="D116" s="101"/>
+      <c r="E116" s="72"/>
       <c r="F116" s="34"/>
-      <c r="G116" s="38"/>
-      <c r="H116" s="38"/>
+      <c r="G116" s="75"/>
+      <c r="H116" s="75"/>
       <c r="I116" s="4" t="s">
         <v>68</v>
       </c>
@@ -4349,14 +4410,14 @@
       <c r="Q116" s="35"/>
     </row>
     <row r="117" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="95"/>
-      <c r="B117" s="92"/>
+      <c r="A117" s="62"/>
+      <c r="B117" s="59"/>
       <c r="C117" s="34"/>
-      <c r="D117" s="75"/>
-      <c r="E117" s="100"/>
+      <c r="D117" s="101"/>
+      <c r="E117" s="73"/>
       <c r="F117" s="34"/>
-      <c r="G117" s="53"/>
-      <c r="H117" s="53"/>
+      <c r="G117" s="76"/>
+      <c r="H117" s="76"/>
       <c r="I117" s="4" t="s">
         <v>69</v>
       </c>
@@ -4370,22 +4431,22 @@
       <c r="Q117" s="35"/>
     </row>
     <row r="118" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="93">
+      <c r="A118" s="60">
         <v>3</v>
       </c>
-      <c r="B118" s="90"/>
+      <c r="B118" s="57"/>
       <c r="C118" s="34"/>
-      <c r="D118" s="97" t="s">
+      <c r="D118" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="E118" s="97" t="s">
+      <c r="E118" s="56" t="s">
         <v>78</v>
       </c>
       <c r="F118" s="34"/>
-      <c r="G118" s="82" t="s">
+      <c r="G118" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="H118" s="82" t="s">
+      <c r="H118" s="70" t="s">
         <v>18</v>
       </c>
       <c r="I118" s="33" t="s">
@@ -4397,7 +4458,7 @@
       <c r="K118" s="35"/>
       <c r="L118" s="35"/>
       <c r="M118" s="35"/>
-      <c r="N118" s="83" t="s">
+      <c r="N118" s="63" t="s">
         <v>20</v>
       </c>
       <c r="O118" s="35" t="s">
@@ -4409,14 +4470,14 @@
       <c r="Q118" s="35"/>
     </row>
     <row r="119" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="94"/>
-      <c r="B119" s="91"/>
+      <c r="A119" s="61"/>
+      <c r="B119" s="58"/>
       <c r="C119" s="34"/>
-      <c r="D119" s="97"/>
-      <c r="E119" s="97"/>
+      <c r="D119" s="56"/>
+      <c r="E119" s="56"/>
       <c r="F119" s="34"/>
-      <c r="G119" s="82"/>
-      <c r="H119" s="82"/>
+      <c r="G119" s="70"/>
+      <c r="H119" s="70"/>
       <c r="I119" s="33" t="s">
         <v>80</v>
       </c>
@@ -4424,7 +4485,7 @@
       <c r="K119" s="35"/>
       <c r="L119" s="35"/>
       <c r="M119" s="35"/>
-      <c r="N119" s="96"/>
+      <c r="N119" s="64"/>
       <c r="O119" s="35" t="s">
         <v>76</v>
       </c>
@@ -4434,14 +4495,14 @@
       <c r="Q119" s="35"/>
     </row>
     <row r="120" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="94"/>
-      <c r="B120" s="91"/>
+      <c r="A120" s="61"/>
+      <c r="B120" s="58"/>
       <c r="C120" s="34"/>
-      <c r="D120" s="97"/>
-      <c r="E120" s="97"/>
+      <c r="D120" s="56"/>
+      <c r="E120" s="56"/>
       <c r="F120" s="34"/>
-      <c r="G120" s="82"/>
-      <c r="H120" s="82"/>
+      <c r="G120" s="70"/>
+      <c r="H120" s="70"/>
       <c r="I120" s="33" t="s">
         <v>81</v>
       </c>
@@ -4451,24 +4512,28 @@
       <c r="K120" s="35"/>
       <c r="L120" s="35"/>
       <c r="M120" s="35"/>
-      <c r="N120" s="84"/>
-      <c r="O120" s="35"/>
-      <c r="P120" s="35"/>
+      <c r="N120" s="65"/>
+      <c r="O120" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="P120" s="35" t="s">
+        <v>109</v>
+      </c>
       <c r="Q120" s="35"/>
     </row>
     <row r="121" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="95"/>
-      <c r="B121" s="92"/>
+      <c r="A121" s="62"/>
+      <c r="B121" s="59"/>
       <c r="C121" s="34"/>
-      <c r="D121" s="97"/>
-      <c r="E121" s="101" t="s">
+      <c r="D121" s="56"/>
+      <c r="E121" s="42" t="s">
         <v>87</v>
       </c>
       <c r="F121" s="34"/>
-      <c r="G121" s="81" t="s">
+      <c r="G121" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="H121" s="81" t="s">
+      <c r="H121" s="39" t="s">
         <v>18</v>
       </c>
       <c r="I121" s="33" t="s">
@@ -4480,7 +4545,7 @@
       <c r="K121" s="35"/>
       <c r="L121" s="35"/>
       <c r="M121" s="35"/>
-      <c r="N121" s="81" t="s">
+      <c r="N121" s="39" t="s">
         <v>20</v>
       </c>
       <c r="O121" s="35"/>
@@ -4489,83 +4554,17 @@
     </row>
   </sheetData>
   <mergeCells count="121">
-    <mergeCell ref="D118:D121"/>
-    <mergeCell ref="B118:B121"/>
-    <mergeCell ref="A118:A121"/>
-    <mergeCell ref="N118:N120"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A66"/>
-    <mergeCell ref="A67:A117"/>
-    <mergeCell ref="B67:B117"/>
-    <mergeCell ref="G118:G120"/>
-    <mergeCell ref="H118:H120"/>
-    <mergeCell ref="E118:E120"/>
-    <mergeCell ref="E114:E117"/>
-    <mergeCell ref="G114:G117"/>
-    <mergeCell ref="H114:H117"/>
-    <mergeCell ref="O105:O113"/>
-    <mergeCell ref="Q105:Q113"/>
-    <mergeCell ref="E104:E113"/>
-    <mergeCell ref="G104:G113"/>
-    <mergeCell ref="H104:H113"/>
-    <mergeCell ref="N104:N113"/>
-    <mergeCell ref="F104:F113"/>
-    <mergeCell ref="N102:N103"/>
-    <mergeCell ref="Q86:Q91"/>
-    <mergeCell ref="E93:E101"/>
-    <mergeCell ref="H93:H101"/>
-    <mergeCell ref="N93:N101"/>
-    <mergeCell ref="Q94:Q101"/>
-    <mergeCell ref="O94:O101"/>
-    <mergeCell ref="P94:P101"/>
-    <mergeCell ref="G102:G103"/>
-    <mergeCell ref="N85:N91"/>
-    <mergeCell ref="O86:O91"/>
-    <mergeCell ref="P86:P91"/>
-    <mergeCell ref="Q68:Q75"/>
-    <mergeCell ref="E76:E84"/>
-    <mergeCell ref="F76:F84"/>
-    <mergeCell ref="G76:G84"/>
-    <mergeCell ref="H76:H84"/>
-    <mergeCell ref="N76:N84"/>
-    <mergeCell ref="O77:O84"/>
-    <mergeCell ref="Q77:Q84"/>
-    <mergeCell ref="N67:N75"/>
-    <mergeCell ref="O68:O75"/>
-    <mergeCell ref="E67:E75"/>
-    <mergeCell ref="F67:F75"/>
-    <mergeCell ref="G67:G75"/>
-    <mergeCell ref="H67:H75"/>
-    <mergeCell ref="E85:E92"/>
-    <mergeCell ref="H85:H92"/>
-    <mergeCell ref="G93:G101"/>
-    <mergeCell ref="G85:G92"/>
-    <mergeCell ref="D67:D117"/>
-    <mergeCell ref="E102:E103"/>
-    <mergeCell ref="H102:H103"/>
-    <mergeCell ref="F26:F36"/>
-    <mergeCell ref="E37:E47"/>
-    <mergeCell ref="F37:F47"/>
-    <mergeCell ref="G37:G47"/>
-    <mergeCell ref="H37:H47"/>
-    <mergeCell ref="N37:N47"/>
-    <mergeCell ref="Q5:Q14"/>
-    <mergeCell ref="G4:G14"/>
-    <mergeCell ref="H4:H14"/>
-    <mergeCell ref="N4:N14"/>
-    <mergeCell ref="O5:O14"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="H65:H66"/>
-    <mergeCell ref="N65:N66"/>
-    <mergeCell ref="E48:E55"/>
-    <mergeCell ref="H48:H55"/>
-    <mergeCell ref="G48:G55"/>
-    <mergeCell ref="N48:N54"/>
-    <mergeCell ref="E56:E64"/>
-    <mergeCell ref="G56:G64"/>
-    <mergeCell ref="H56:H64"/>
-    <mergeCell ref="N56:N64"/>
-    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="M16:M25"/>
+    <mergeCell ref="G26:G36"/>
+    <mergeCell ref="H26:H36"/>
+    <mergeCell ref="N26:N36"/>
+    <mergeCell ref="O27:O36"/>
+    <mergeCell ref="Q27:Q36"/>
+    <mergeCell ref="I27:I36"/>
+    <mergeCell ref="J27:J36"/>
+    <mergeCell ref="K27:K36"/>
+    <mergeCell ref="L27:L36"/>
+    <mergeCell ref="M27:M36"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="Q49:Q54"/>
     <mergeCell ref="O57:O64"/>
@@ -4590,6 +4589,23 @@
     <mergeCell ref="E15:E25"/>
     <mergeCell ref="F15:F25"/>
     <mergeCell ref="E26:E36"/>
+    <mergeCell ref="Q5:Q14"/>
+    <mergeCell ref="G4:G14"/>
+    <mergeCell ref="H4:H14"/>
+    <mergeCell ref="N4:N14"/>
+    <mergeCell ref="O5:O14"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="N65:N66"/>
+    <mergeCell ref="E48:E55"/>
+    <mergeCell ref="H48:H55"/>
+    <mergeCell ref="G48:G55"/>
+    <mergeCell ref="N48:N54"/>
+    <mergeCell ref="E56:E64"/>
+    <mergeCell ref="G56:G64"/>
+    <mergeCell ref="H56:H64"/>
+    <mergeCell ref="N56:N64"/>
+    <mergeCell ref="E65:E66"/>
     <mergeCell ref="G15:G25"/>
     <mergeCell ref="H15:H25"/>
     <mergeCell ref="N15:N25"/>
@@ -4597,19 +4613,68 @@
     <mergeCell ref="Q16:Q25"/>
     <mergeCell ref="I16:I25"/>
     <mergeCell ref="J16:J25"/>
+    <mergeCell ref="Q68:Q75"/>
+    <mergeCell ref="E76:E84"/>
+    <mergeCell ref="F76:F84"/>
+    <mergeCell ref="G76:G84"/>
+    <mergeCell ref="H76:H84"/>
+    <mergeCell ref="N76:N84"/>
+    <mergeCell ref="O77:O84"/>
+    <mergeCell ref="Q77:Q84"/>
+    <mergeCell ref="N67:N75"/>
+    <mergeCell ref="O68:O75"/>
+    <mergeCell ref="E67:E75"/>
+    <mergeCell ref="F67:F75"/>
+    <mergeCell ref="G67:G75"/>
+    <mergeCell ref="H67:H75"/>
+    <mergeCell ref="O105:O113"/>
+    <mergeCell ref="Q105:Q113"/>
+    <mergeCell ref="E104:E113"/>
+    <mergeCell ref="G104:G113"/>
+    <mergeCell ref="H104:H113"/>
+    <mergeCell ref="N104:N113"/>
+    <mergeCell ref="F104:F113"/>
+    <mergeCell ref="N102:N103"/>
+    <mergeCell ref="Q86:Q91"/>
+    <mergeCell ref="E93:E101"/>
+    <mergeCell ref="H93:H101"/>
+    <mergeCell ref="N93:N101"/>
+    <mergeCell ref="Q94:Q101"/>
+    <mergeCell ref="O94:O101"/>
+    <mergeCell ref="P94:P101"/>
+    <mergeCell ref="G102:G103"/>
+    <mergeCell ref="N85:N91"/>
+    <mergeCell ref="O86:O91"/>
+    <mergeCell ref="P86:P91"/>
+    <mergeCell ref="E85:E92"/>
+    <mergeCell ref="H85:H92"/>
+    <mergeCell ref="G93:G101"/>
+    <mergeCell ref="G85:G92"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="D118:D121"/>
+    <mergeCell ref="B118:B121"/>
+    <mergeCell ref="A118:A121"/>
+    <mergeCell ref="N118:N120"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A66"/>
+    <mergeCell ref="A67:A117"/>
+    <mergeCell ref="B67:B117"/>
+    <mergeCell ref="G118:G120"/>
+    <mergeCell ref="H118:H120"/>
+    <mergeCell ref="E118:E120"/>
+    <mergeCell ref="E114:E117"/>
+    <mergeCell ref="G114:G117"/>
+    <mergeCell ref="H114:H117"/>
+    <mergeCell ref="D67:D117"/>
+    <mergeCell ref="H102:H103"/>
+    <mergeCell ref="F26:F36"/>
+    <mergeCell ref="E37:E47"/>
+    <mergeCell ref="F37:F47"/>
+    <mergeCell ref="G37:G47"/>
+    <mergeCell ref="H37:H47"/>
+    <mergeCell ref="N37:N47"/>
     <mergeCell ref="K16:K25"/>
     <mergeCell ref="L16:L25"/>
-    <mergeCell ref="M16:M25"/>
-    <mergeCell ref="G26:G36"/>
-    <mergeCell ref="H26:H36"/>
-    <mergeCell ref="N26:N36"/>
-    <mergeCell ref="O27:O36"/>
-    <mergeCell ref="Q27:Q36"/>
-    <mergeCell ref="I27:I36"/>
-    <mergeCell ref="J27:J36"/>
-    <mergeCell ref="K27:K36"/>
-    <mergeCell ref="L27:L36"/>
-    <mergeCell ref="M27:M36"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E1" r:id="rId1"/>
@@ -4617,4 +4682,166 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:D21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="27" customWidth="1"/>
+    <col min="3" max="3" width="41" customWidth="1"/>
+    <col min="4" max="4" width="44" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="116" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="43">
+        <v>1</v>
+      </c>
+      <c r="B5" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" s="48"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="43">
+        <v>2</v>
+      </c>
+      <c r="B6" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="48"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="43">
+        <v>3</v>
+      </c>
+      <c r="B7" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="48"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="43">
+        <v>4</v>
+      </c>
+      <c r="B8" s="48" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="48"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="116" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="116"/>
+      <c r="C9" s="116"/>
+      <c r="D9" s="116"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="43">
+        <v>1</v>
+      </c>
+      <c r="B10" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="116" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" s="116"/>
+      <c r="C11" s="116"/>
+      <c r="D11" s="116"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="43">
+        <v>1</v>
+      </c>
+      <c r="B12" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="115"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="115"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="115"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="115"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="115"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="115"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="115"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="115"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="115"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A11:D11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Document/eAlarmServer_API _1.xlsx
+++ b/Document/eAlarmServer_API _1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="540" windowWidth="17895" windowHeight="9915" activeTab="2"/>
+    <workbookView xWindow="630" yWindow="540" windowWidth="17895" windowHeight="9915" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Default Value" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="133">
   <si>
     <t>Send value</t>
   </si>
@@ -362,6 +362,60 @@
   </si>
   <si>
     <t>Json format error</t>
+  </si>
+  <si>
+    <t>onDisableDevicePro</t>
+  </si>
+  <si>
+    <t>onEditDevicePro</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>onAddDevicePro</t>
+  </si>
+  <si>
+    <t>onGetDeviceProByID</t>
+  </si>
+  <si>
+    <t>onGetAllDevicePro</t>
+  </si>
+  <si>
+    <t>all_devices_pro(JSONArray)</t>
+  </si>
+  <si>
+    <t>device_pro(JSONObject)</t>
+  </si>
+  <si>
+    <t>deviceID</t>
+  </si>
+  <si>
+    <t>onGetAllDevicesByAreaIDViewOnMap</t>
+  </si>
+  <si>
+    <t>onGetDevicesandDeviceLogbyID</t>
+  </si>
+  <si>
+    <t>onGetAllDevicesByAreaID</t>
+  </si>
+  <si>
+    <t>all_devices_byarea_info(JSONArray)</t>
+  </si>
+  <si>
+    <t>device_info(JSONArray)</t>
   </si>
 </sst>
 </file>
@@ -578,7 +632,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -849,12 +903,67 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1011,6 +1120,30 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1023,6 +1156,129 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1053,9 +1309,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1077,134 +1330,62 @@
     <xf numFmtId="0" fontId="5" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1522,12 +1703,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="50" t="s">
@@ -1540,20 +1721,20 @@
       <c r="D2" s="46"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="50" t="s">
@@ -1660,13 +1841,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q121"/>
+  <dimension ref="A1:Q168"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="G109" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="E101" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Q125" sqref="Q125"/>
+      <selection pane="bottomRight" activeCell="J153" sqref="J153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1680,7 +1861,7 @@
     <col min="7" max="7" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.42578125" style="25" customWidth="1"/>
     <col min="11" max="11" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5.140625" style="1" bestFit="1" customWidth="1"/>
@@ -1693,72 +1874,72 @@
   <sheetData>
     <row r="1" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="105" t="s">
+      <c r="B1" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="106" t="s">
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106"/>
-      <c r="P1" s="106"/>
-      <c r="Q1" s="106"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
     </row>
     <row r="2" spans="1:17" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="74" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="74" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="31"/>
-      <c r="D2" s="66" t="s">
+      <c r="D2" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="66" t="s">
+      <c r="E2" s="74" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="36"/>
-      <c r="G2" s="66" t="s">
+      <c r="G2" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="66" t="s">
+      <c r="H2" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66" t="s">
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="74"/>
+      <c r="Q2" s="74"/>
     </row>
     <row r="3" spans="1:17" s="34" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="66"/>
-      <c r="B3" s="66"/>
+      <c r="A3" s="74"/>
+      <c r="B3" s="74"/>
       <c r="C3" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
       <c r="F3" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="66"/>
+      <c r="G3" s="74"/>
       <c r="H3" s="36" t="s">
         <v>8</v>
       </c>
@@ -1791,26 +1972,26 @@
       </c>
     </row>
     <row r="4" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="67">
+      <c r="A4" s="115">
         <v>1</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="109" t="s">
+      <c r="B4" s="75"/>
+      <c r="C4" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="112" t="s">
+      <c r="D4" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="98" t="s">
+      <c r="E4" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="86" t="s">
+      <c r="F4" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="84" t="s">
+      <c r="G4" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="84" t="s">
+      <c r="H4" s="67" t="s">
         <v>18</v>
       </c>
       <c r="I4" s="19" t="s">
@@ -1822,7 +2003,7 @@
       <c r="K4" s="37"/>
       <c r="L4" s="19"/>
       <c r="M4" s="38"/>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="67" t="s">
         <v>20</v>
       </c>
       <c r="O4" s="19" t="s">
@@ -1834,14 +2015,14 @@
       <c r="Q4" s="19"/>
     </row>
     <row r="5" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="68"/>
-      <c r="B5" s="107"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="113"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="93"/>
+      <c r="A5" s="116"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
       <c r="I5" s="3" t="s">
         <v>21</v>
       </c>
@@ -1849,219 +2030,219 @@
       <c r="K5" s="5"/>
       <c r="L5" s="3"/>
       <c r="M5" s="6"/>
-      <c r="N5" s="93"/>
-      <c r="O5" s="96" t="s">
+      <c r="N5" s="69"/>
+      <c r="O5" s="92" t="s">
         <v>41</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="Q5" s="94"/>
+      <c r="Q5" s="89"/>
     </row>
     <row r="6" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="68"/>
-      <c r="B6" s="107"/>
-      <c r="C6" s="110"/>
-      <c r="D6" s="113"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="93"/>
+      <c r="A6" s="116"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
       <c r="I6" s="7"/>
       <c r="J6" s="8"/>
       <c r="K6" s="9"/>
       <c r="L6" s="7"/>
       <c r="M6" s="10"/>
-      <c r="N6" s="93"/>
-      <c r="O6" s="97"/>
+      <c r="N6" s="69"/>
+      <c r="O6" s="93"/>
       <c r="P6" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="Q6" s="95"/>
+      <c r="Q6" s="90"/>
     </row>
     <row r="7" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="68"/>
-      <c r="B7" s="107"/>
-      <c r="C7" s="110"/>
-      <c r="D7" s="113"/>
-      <c r="E7" s="98"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="93"/>
-      <c r="H7" s="93"/>
+      <c r="A7" s="116"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
       <c r="K7" s="13"/>
       <c r="L7" s="12"/>
       <c r="M7" s="14"/>
-      <c r="N7" s="93"/>
-      <c r="O7" s="97"/>
+      <c r="N7" s="69"/>
+      <c r="O7" s="93"/>
       <c r="P7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="Q7" s="95"/>
+      <c r="Q7" s="90"/>
     </row>
     <row r="8" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="68"/>
-      <c r="B8" s="107"/>
-      <c r="C8" s="110"/>
-      <c r="D8" s="113"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="93"/>
-      <c r="H8" s="93"/>
+      <c r="A8" s="116"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
       <c r="K8" s="13"/>
       <c r="L8" s="12"/>
       <c r="M8" s="14"/>
-      <c r="N8" s="93"/>
-      <c r="O8" s="97"/>
+      <c r="N8" s="69"/>
+      <c r="O8" s="93"/>
       <c r="P8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="Q8" s="95"/>
+      <c r="Q8" s="90"/>
     </row>
     <row r="9" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="68"/>
-      <c r="B9" s="107"/>
-      <c r="C9" s="110"/>
-      <c r="D9" s="113"/>
-      <c r="E9" s="98"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="93"/>
-      <c r="H9" s="93"/>
+      <c r="A9" s="116"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
       <c r="K9" s="13"/>
       <c r="L9" s="12"/>
       <c r="M9" s="14"/>
-      <c r="N9" s="93"/>
-      <c r="O9" s="97"/>
+      <c r="N9" s="69"/>
+      <c r="O9" s="93"/>
       <c r="P9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Q9" s="95"/>
+      <c r="Q9" s="90"/>
     </row>
     <row r="10" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="68"/>
-      <c r="B10" s="107"/>
-      <c r="C10" s="110"/>
-      <c r="D10" s="113"/>
-      <c r="E10" s="98"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="93"/>
-      <c r="H10" s="93"/>
+      <c r="A10" s="116"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
       <c r="K10" s="13"/>
       <c r="L10" s="12"/>
       <c r="M10" s="14"/>
-      <c r="N10" s="93"/>
-      <c r="O10" s="97"/>
+      <c r="N10" s="69"/>
+      <c r="O10" s="93"/>
       <c r="P10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="Q10" s="95"/>
+      <c r="Q10" s="90"/>
     </row>
     <row r="11" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="68"/>
-      <c r="B11" s="107"/>
-      <c r="C11" s="110"/>
-      <c r="D11" s="113"/>
-      <c r="E11" s="98"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="93"/>
-      <c r="H11" s="93"/>
+      <c r="A11" s="116"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
       <c r="K11" s="13"/>
       <c r="L11" s="12"/>
       <c r="M11" s="14"/>
-      <c r="N11" s="93"/>
-      <c r="O11" s="97"/>
+      <c r="N11" s="69"/>
+      <c r="O11" s="93"/>
       <c r="P11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="Q11" s="95"/>
+      <c r="Q11" s="90"/>
     </row>
     <row r="12" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="68"/>
-      <c r="B12" s="107"/>
-      <c r="C12" s="110"/>
-      <c r="D12" s="113"/>
-      <c r="E12" s="98"/>
-      <c r="F12" s="86"/>
-      <c r="G12" s="93"/>
-      <c r="H12" s="93"/>
+      <c r="A12" s="116"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
       <c r="K12" s="13"/>
       <c r="L12" s="12"/>
       <c r="M12" s="14"/>
-      <c r="N12" s="93"/>
-      <c r="O12" s="97"/>
+      <c r="N12" s="69"/>
+      <c r="O12" s="93"/>
       <c r="P12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="Q12" s="95"/>
+      <c r="Q12" s="90"/>
     </row>
     <row r="13" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="68"/>
-      <c r="B13" s="107"/>
-      <c r="C13" s="110"/>
-      <c r="D13" s="113"/>
-      <c r="E13" s="98"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="93"/>
-      <c r="H13" s="93"/>
+      <c r="A13" s="116"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
       <c r="K13" s="13"/>
       <c r="L13" s="12"/>
       <c r="M13" s="14"/>
-      <c r="N13" s="93"/>
-      <c r="O13" s="97"/>
+      <c r="N13" s="69"/>
+      <c r="O13" s="93"/>
       <c r="P13" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Q13" s="95"/>
+      <c r="Q13" s="90"/>
     </row>
     <row r="14" spans="1:17" s="15" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="68"/>
-      <c r="B14" s="107"/>
-      <c r="C14" s="110"/>
-      <c r="D14" s="113"/>
-      <c r="E14" s="98"/>
-      <c r="F14" s="86"/>
-      <c r="G14" s="93"/>
-      <c r="H14" s="93"/>
+      <c r="A14" s="116"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
       <c r="K14" s="13"/>
       <c r="L14" s="12"/>
       <c r="M14" s="14"/>
-      <c r="N14" s="93"/>
-      <c r="O14" s="104"/>
+      <c r="N14" s="69"/>
+      <c r="O14" s="94"/>
       <c r="P14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Q14" s="103"/>
+      <c r="Q14" s="91"/>
     </row>
     <row r="15" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="68"/>
-      <c r="B15" s="107"/>
-      <c r="C15" s="110"/>
-      <c r="D15" s="113"/>
-      <c r="E15" s="82" t="s">
+      <c r="A15" s="116"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="86" t="s">
         <v>70</v>
       </c>
-      <c r="F15" s="86" t="s">
+      <c r="F15" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="84" t="s">
+      <c r="G15" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="H15" s="84" t="s">
+      <c r="H15" s="67" t="s">
         <v>18</v>
       </c>
       <c r="I15" s="3" t="s">
@@ -2073,7 +2254,7 @@
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="6"/>
-      <c r="N15" s="84" t="s">
+      <c r="N15" s="67" t="s">
         <v>20</v>
       </c>
       <c r="O15" s="3" t="s">
@@ -2085,232 +2266,232 @@
       <c r="Q15" s="3"/>
     </row>
     <row r="16" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="68"/>
-      <c r="B16" s="107"/>
-      <c r="C16" s="110"/>
-      <c r="D16" s="113"/>
-      <c r="E16" s="83"/>
-      <c r="F16" s="87"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="75"/>
-      <c r="I16" s="80"/>
-      <c r="J16" s="80"/>
-      <c r="K16" s="80"/>
-      <c r="L16" s="80"/>
-      <c r="M16" s="80"/>
-      <c r="N16" s="75"/>
-      <c r="O16" s="80" t="s">
+      <c r="A16" s="116"/>
+      <c r="B16" s="76"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="64"/>
+      <c r="N16" s="68"/>
+      <c r="O16" s="64" t="s">
         <v>71</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="Q16" s="80"/>
+      <c r="Q16" s="64"/>
     </row>
     <row r="17" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="68"/>
-      <c r="B17" s="107"/>
-      <c r="C17" s="110"/>
-      <c r="D17" s="113"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="87"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="85"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="81"/>
-      <c r="K17" s="81"/>
-      <c r="L17" s="81"/>
-      <c r="M17" s="81"/>
-      <c r="N17" s="75"/>
-      <c r="O17" s="81"/>
+      <c r="A17" s="116"/>
+      <c r="B17" s="76"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="82"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="65"/>
+      <c r="L17" s="65"/>
+      <c r="M17" s="65"/>
+      <c r="N17" s="68"/>
+      <c r="O17" s="65"/>
       <c r="P17" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="Q17" s="81"/>
+      <c r="Q17" s="65"/>
     </row>
     <row r="18" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="68"/>
-      <c r="B18" s="107"/>
-      <c r="C18" s="110"/>
-      <c r="D18" s="113"/>
-      <c r="E18" s="83"/>
-      <c r="F18" s="87"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="85"/>
-      <c r="I18" s="81"/>
-      <c r="J18" s="81"/>
-      <c r="K18" s="81"/>
-      <c r="L18" s="81"/>
-      <c r="M18" s="81"/>
-      <c r="N18" s="75"/>
-      <c r="O18" s="81"/>
+      <c r="A18" s="116"/>
+      <c r="B18" s="76"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="88"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="65"/>
+      <c r="M18" s="65"/>
+      <c r="N18" s="68"/>
+      <c r="O18" s="65"/>
       <c r="P18" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="Q18" s="81"/>
+      <c r="Q18" s="65"/>
     </row>
     <row r="19" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="68"/>
-      <c r="B19" s="107"/>
-      <c r="C19" s="110"/>
-      <c r="D19" s="113"/>
-      <c r="E19" s="83"/>
-      <c r="F19" s="87"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="85"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="81"/>
-      <c r="K19" s="81"/>
-      <c r="L19" s="81"/>
-      <c r="M19" s="81"/>
-      <c r="N19" s="75"/>
-      <c r="O19" s="81"/>
+      <c r="A19" s="116"/>
+      <c r="B19" s="76"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="82"/>
+      <c r="E19" s="87"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="65"/>
+      <c r="M19" s="65"/>
+      <c r="N19" s="68"/>
+      <c r="O19" s="65"/>
       <c r="P19" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="Q19" s="81"/>
+      <c r="Q19" s="65"/>
     </row>
     <row r="20" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="68"/>
-      <c r="B20" s="107"/>
-      <c r="C20" s="110"/>
-      <c r="D20" s="113"/>
-      <c r="E20" s="83"/>
-      <c r="F20" s="87"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="85"/>
-      <c r="I20" s="81"/>
-      <c r="J20" s="81"/>
-      <c r="K20" s="81"/>
-      <c r="L20" s="81"/>
-      <c r="M20" s="81"/>
-      <c r="N20" s="75"/>
-      <c r="O20" s="81"/>
+      <c r="A20" s="116"/>
+      <c r="B20" s="76"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="82"/>
+      <c r="E20" s="87"/>
+      <c r="F20" s="88"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="65"/>
+      <c r="M20" s="65"/>
+      <c r="N20" s="68"/>
+      <c r="O20" s="65"/>
       <c r="P20" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Q20" s="81"/>
+      <c r="Q20" s="65"/>
     </row>
     <row r="21" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="68"/>
-      <c r="B21" s="107"/>
-      <c r="C21" s="110"/>
-      <c r="D21" s="113"/>
-      <c r="E21" s="83"/>
-      <c r="F21" s="87"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="85"/>
-      <c r="I21" s="81"/>
-      <c r="J21" s="81"/>
-      <c r="K21" s="81"/>
-      <c r="L21" s="81"/>
-      <c r="M21" s="81"/>
-      <c r="N21" s="75"/>
-      <c r="O21" s="81"/>
+      <c r="A21" s="116"/>
+      <c r="B21" s="76"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="87"/>
+      <c r="F21" s="88"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="70"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="65"/>
+      <c r="K21" s="65"/>
+      <c r="L21" s="65"/>
+      <c r="M21" s="65"/>
+      <c r="N21" s="68"/>
+      <c r="O21" s="65"/>
       <c r="P21" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="Q21" s="81"/>
+      <c r="Q21" s="65"/>
     </row>
     <row r="22" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="68"/>
-      <c r="B22" s="107"/>
-      <c r="C22" s="110"/>
-      <c r="D22" s="113"/>
-      <c r="E22" s="83"/>
-      <c r="F22" s="87"/>
-      <c r="G22" s="75"/>
-      <c r="H22" s="85"/>
-      <c r="I22" s="81"/>
-      <c r="J22" s="81"/>
-      <c r="K22" s="81"/>
-      <c r="L22" s="81"/>
-      <c r="M22" s="81"/>
-      <c r="N22" s="75"/>
-      <c r="O22" s="81"/>
+      <c r="A22" s="116"/>
+      <c r="B22" s="76"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="82"/>
+      <c r="E22" s="87"/>
+      <c r="F22" s="88"/>
+      <c r="G22" s="68"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="65"/>
+      <c r="M22" s="65"/>
+      <c r="N22" s="68"/>
+      <c r="O22" s="65"/>
       <c r="P22" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="Q22" s="81"/>
+      <c r="Q22" s="65"/>
     </row>
     <row r="23" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="68"/>
-      <c r="B23" s="107"/>
-      <c r="C23" s="110"/>
-      <c r="D23" s="113"/>
-      <c r="E23" s="83"/>
-      <c r="F23" s="87"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="85"/>
-      <c r="I23" s="81"/>
-      <c r="J23" s="81"/>
-      <c r="K23" s="81"/>
-      <c r="L23" s="81"/>
-      <c r="M23" s="81"/>
-      <c r="N23" s="75"/>
-      <c r="O23" s="81"/>
+      <c r="A23" s="116"/>
+      <c r="B23" s="76"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="87"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="70"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="65"/>
+      <c r="N23" s="68"/>
+      <c r="O23" s="65"/>
       <c r="P23" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="Q23" s="81"/>
+      <c r="Q23" s="65"/>
     </row>
     <row r="24" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="68"/>
-      <c r="B24" s="107"/>
-      <c r="C24" s="110"/>
-      <c r="D24" s="113"/>
-      <c r="E24" s="83"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="75"/>
-      <c r="H24" s="85"/>
-      <c r="I24" s="81"/>
-      <c r="J24" s="81"/>
-      <c r="K24" s="81"/>
-      <c r="L24" s="81"/>
-      <c r="M24" s="81"/>
-      <c r="N24" s="75"/>
-      <c r="O24" s="81"/>
+      <c r="A24" s="116"/>
+      <c r="B24" s="76"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="82"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="88"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="70"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="65"/>
+      <c r="N24" s="68"/>
+      <c r="O24" s="65"/>
       <c r="P24" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Q24" s="81"/>
+      <c r="Q24" s="65"/>
     </row>
     <row r="25" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="68"/>
-      <c r="B25" s="107"/>
-      <c r="C25" s="110"/>
-      <c r="D25" s="113"/>
-      <c r="E25" s="82"/>
-      <c r="F25" s="86"/>
-      <c r="G25" s="93"/>
-      <c r="H25" s="102"/>
-      <c r="I25" s="89"/>
-      <c r="J25" s="89"/>
-      <c r="K25" s="89"/>
-      <c r="L25" s="89"/>
-      <c r="M25" s="89"/>
-      <c r="N25" s="93"/>
-      <c r="O25" s="89"/>
+      <c r="A25" s="116"/>
+      <c r="B25" s="76"/>
+      <c r="C25" s="79"/>
+      <c r="D25" s="82"/>
+      <c r="E25" s="86"/>
+      <c r="F25" s="85"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="71"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="66"/>
+      <c r="K25" s="66"/>
+      <c r="L25" s="66"/>
+      <c r="M25" s="66"/>
+      <c r="N25" s="69"/>
+      <c r="O25" s="66"/>
       <c r="P25" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Q25" s="89"/>
+      <c r="Q25" s="66"/>
     </row>
     <row r="26" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="68"/>
-      <c r="B26" s="107"/>
-      <c r="C26" s="110"/>
-      <c r="D26" s="113"/>
-      <c r="E26" s="82" t="s">
+      <c r="A26" s="116"/>
+      <c r="B26" s="76"/>
+      <c r="C26" s="79"/>
+      <c r="D26" s="82"/>
+      <c r="E26" s="86" t="s">
         <v>72</v>
       </c>
-      <c r="F26" s="86" t="s">
+      <c r="F26" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="G26" s="84" t="s">
+      <c r="G26" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="H26" s="84" t="s">
+      <c r="H26" s="67" t="s">
         <v>18</v>
       </c>
       <c r="I26" s="3" t="s">
@@ -2322,7 +2503,7 @@
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
       <c r="M26" s="6"/>
-      <c r="N26" s="84" t="s">
+      <c r="N26" s="67" t="s">
         <v>20</v>
       </c>
       <c r="O26" s="3" t="s">
@@ -2334,232 +2515,232 @@
       <c r="Q26" s="3"/>
     </row>
     <row r="27" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="68"/>
-      <c r="B27" s="107"/>
-      <c r="C27" s="110"/>
-      <c r="D27" s="113"/>
-      <c r="E27" s="83"/>
-      <c r="F27" s="87"/>
-      <c r="G27" s="75"/>
-      <c r="H27" s="75"/>
-      <c r="I27" s="80"/>
-      <c r="J27" s="80"/>
-      <c r="K27" s="80"/>
-      <c r="L27" s="80"/>
-      <c r="M27" s="80"/>
-      <c r="N27" s="75"/>
-      <c r="O27" s="80" t="s">
+      <c r="A27" s="116"/>
+      <c r="B27" s="76"/>
+      <c r="C27" s="79"/>
+      <c r="D27" s="82"/>
+      <c r="E27" s="87"/>
+      <c r="F27" s="88"/>
+      <c r="G27" s="68"/>
+      <c r="H27" s="68"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="64"/>
+      <c r="L27" s="64"/>
+      <c r="M27" s="64"/>
+      <c r="N27" s="68"/>
+      <c r="O27" s="64" t="s">
         <v>73</v>
       </c>
       <c r="P27" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="Q27" s="80"/>
+      <c r="Q27" s="64"/>
     </row>
     <row r="28" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="68"/>
-      <c r="B28" s="107"/>
-      <c r="C28" s="110"/>
-      <c r="D28" s="113"/>
-      <c r="E28" s="83"/>
-      <c r="F28" s="87"/>
-      <c r="G28" s="75"/>
-      <c r="H28" s="85"/>
-      <c r="I28" s="81"/>
-      <c r="J28" s="81"/>
-      <c r="K28" s="81"/>
-      <c r="L28" s="81"/>
-      <c r="M28" s="81"/>
-      <c r="N28" s="75"/>
-      <c r="O28" s="81"/>
+      <c r="A28" s="116"/>
+      <c r="B28" s="76"/>
+      <c r="C28" s="79"/>
+      <c r="D28" s="82"/>
+      <c r="E28" s="87"/>
+      <c r="F28" s="88"/>
+      <c r="G28" s="68"/>
+      <c r="H28" s="70"/>
+      <c r="I28" s="65"/>
+      <c r="J28" s="65"/>
+      <c r="K28" s="65"/>
+      <c r="L28" s="65"/>
+      <c r="M28" s="65"/>
+      <c r="N28" s="68"/>
+      <c r="O28" s="65"/>
       <c r="P28" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="Q28" s="81"/>
+      <c r="Q28" s="65"/>
     </row>
     <row r="29" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="68"/>
-      <c r="B29" s="107"/>
-      <c r="C29" s="110"/>
-      <c r="D29" s="113"/>
-      <c r="E29" s="83"/>
-      <c r="F29" s="87"/>
-      <c r="G29" s="75"/>
-      <c r="H29" s="85"/>
-      <c r="I29" s="81"/>
-      <c r="J29" s="81"/>
-      <c r="K29" s="81"/>
-      <c r="L29" s="81"/>
-      <c r="M29" s="81"/>
-      <c r="N29" s="75"/>
-      <c r="O29" s="81"/>
+      <c r="A29" s="116"/>
+      <c r="B29" s="76"/>
+      <c r="C29" s="79"/>
+      <c r="D29" s="82"/>
+      <c r="E29" s="87"/>
+      <c r="F29" s="88"/>
+      <c r="G29" s="68"/>
+      <c r="H29" s="70"/>
+      <c r="I29" s="65"/>
+      <c r="J29" s="65"/>
+      <c r="K29" s="65"/>
+      <c r="L29" s="65"/>
+      <c r="M29" s="65"/>
+      <c r="N29" s="68"/>
+      <c r="O29" s="65"/>
       <c r="P29" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="Q29" s="81"/>
+      <c r="Q29" s="65"/>
     </row>
     <row r="30" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="68"/>
-      <c r="B30" s="107"/>
-      <c r="C30" s="110"/>
-      <c r="D30" s="113"/>
-      <c r="E30" s="83"/>
-      <c r="F30" s="87"/>
-      <c r="G30" s="75"/>
-      <c r="H30" s="85"/>
-      <c r="I30" s="81"/>
-      <c r="J30" s="81"/>
-      <c r="K30" s="81"/>
-      <c r="L30" s="81"/>
-      <c r="M30" s="81"/>
-      <c r="N30" s="75"/>
-      <c r="O30" s="81"/>
+      <c r="A30" s="116"/>
+      <c r="B30" s="76"/>
+      <c r="C30" s="79"/>
+      <c r="D30" s="82"/>
+      <c r="E30" s="87"/>
+      <c r="F30" s="88"/>
+      <c r="G30" s="68"/>
+      <c r="H30" s="70"/>
+      <c r="I30" s="65"/>
+      <c r="J30" s="65"/>
+      <c r="K30" s="65"/>
+      <c r="L30" s="65"/>
+      <c r="M30" s="65"/>
+      <c r="N30" s="68"/>
+      <c r="O30" s="65"/>
       <c r="P30" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="Q30" s="81"/>
+      <c r="Q30" s="65"/>
     </row>
     <row r="31" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="68"/>
-      <c r="B31" s="107"/>
-      <c r="C31" s="110"/>
-      <c r="D31" s="113"/>
-      <c r="E31" s="83"/>
-      <c r="F31" s="87"/>
-      <c r="G31" s="75"/>
-      <c r="H31" s="85"/>
-      <c r="I31" s="81"/>
-      <c r="J31" s="81"/>
-      <c r="K31" s="81"/>
-      <c r="L31" s="81"/>
-      <c r="M31" s="81"/>
-      <c r="N31" s="75"/>
-      <c r="O31" s="81"/>
+      <c r="A31" s="116"/>
+      <c r="B31" s="76"/>
+      <c r="C31" s="79"/>
+      <c r="D31" s="82"/>
+      <c r="E31" s="87"/>
+      <c r="F31" s="88"/>
+      <c r="G31" s="68"/>
+      <c r="H31" s="70"/>
+      <c r="I31" s="65"/>
+      <c r="J31" s="65"/>
+      <c r="K31" s="65"/>
+      <c r="L31" s="65"/>
+      <c r="M31" s="65"/>
+      <c r="N31" s="68"/>
+      <c r="O31" s="65"/>
       <c r="P31" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Q31" s="81"/>
+      <c r="Q31" s="65"/>
     </row>
     <row r="32" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="68"/>
-      <c r="B32" s="107"/>
-      <c r="C32" s="110"/>
-      <c r="D32" s="113"/>
-      <c r="E32" s="83"/>
-      <c r="F32" s="87"/>
-      <c r="G32" s="75"/>
-      <c r="H32" s="85"/>
-      <c r="I32" s="81"/>
-      <c r="J32" s="81"/>
-      <c r="K32" s="81"/>
-      <c r="L32" s="81"/>
-      <c r="M32" s="81"/>
-      <c r="N32" s="75"/>
-      <c r="O32" s="81"/>
+      <c r="A32" s="116"/>
+      <c r="B32" s="76"/>
+      <c r="C32" s="79"/>
+      <c r="D32" s="82"/>
+      <c r="E32" s="87"/>
+      <c r="F32" s="88"/>
+      <c r="G32" s="68"/>
+      <c r="H32" s="70"/>
+      <c r="I32" s="65"/>
+      <c r="J32" s="65"/>
+      <c r="K32" s="65"/>
+      <c r="L32" s="65"/>
+      <c r="M32" s="65"/>
+      <c r="N32" s="68"/>
+      <c r="O32" s="65"/>
       <c r="P32" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="Q32" s="81"/>
+      <c r="Q32" s="65"/>
     </row>
     <row r="33" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="68"/>
-      <c r="B33" s="107"/>
-      <c r="C33" s="110"/>
-      <c r="D33" s="113"/>
-      <c r="E33" s="83"/>
-      <c r="F33" s="87"/>
-      <c r="G33" s="75"/>
-      <c r="H33" s="85"/>
-      <c r="I33" s="81"/>
-      <c r="J33" s="81"/>
-      <c r="K33" s="81"/>
-      <c r="L33" s="81"/>
-      <c r="M33" s="81"/>
-      <c r="N33" s="75"/>
-      <c r="O33" s="81"/>
+      <c r="A33" s="116"/>
+      <c r="B33" s="76"/>
+      <c r="C33" s="79"/>
+      <c r="D33" s="82"/>
+      <c r="E33" s="87"/>
+      <c r="F33" s="88"/>
+      <c r="G33" s="68"/>
+      <c r="H33" s="70"/>
+      <c r="I33" s="65"/>
+      <c r="J33" s="65"/>
+      <c r="K33" s="65"/>
+      <c r="L33" s="65"/>
+      <c r="M33" s="65"/>
+      <c r="N33" s="68"/>
+      <c r="O33" s="65"/>
       <c r="P33" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="Q33" s="81"/>
+      <c r="Q33" s="65"/>
     </row>
     <row r="34" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="68"/>
-      <c r="B34" s="107"/>
-      <c r="C34" s="110"/>
-      <c r="D34" s="113"/>
-      <c r="E34" s="83"/>
-      <c r="F34" s="87"/>
-      <c r="G34" s="75"/>
-      <c r="H34" s="85"/>
-      <c r="I34" s="81"/>
-      <c r="J34" s="81"/>
-      <c r="K34" s="81"/>
-      <c r="L34" s="81"/>
-      <c r="M34" s="81"/>
-      <c r="N34" s="75"/>
-      <c r="O34" s="81"/>
+      <c r="A34" s="116"/>
+      <c r="B34" s="76"/>
+      <c r="C34" s="79"/>
+      <c r="D34" s="82"/>
+      <c r="E34" s="87"/>
+      <c r="F34" s="88"/>
+      <c r="G34" s="68"/>
+      <c r="H34" s="70"/>
+      <c r="I34" s="65"/>
+      <c r="J34" s="65"/>
+      <c r="K34" s="65"/>
+      <c r="L34" s="65"/>
+      <c r="M34" s="65"/>
+      <c r="N34" s="68"/>
+      <c r="O34" s="65"/>
       <c r="P34" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="Q34" s="81"/>
+      <c r="Q34" s="65"/>
     </row>
     <row r="35" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="68"/>
-      <c r="B35" s="107"/>
-      <c r="C35" s="110"/>
-      <c r="D35" s="113"/>
-      <c r="E35" s="83"/>
-      <c r="F35" s="87"/>
-      <c r="G35" s="75"/>
-      <c r="H35" s="85"/>
-      <c r="I35" s="81"/>
-      <c r="J35" s="81"/>
-      <c r="K35" s="81"/>
-      <c r="L35" s="81"/>
-      <c r="M35" s="81"/>
-      <c r="N35" s="75"/>
-      <c r="O35" s="81"/>
+      <c r="A35" s="116"/>
+      <c r="B35" s="76"/>
+      <c r="C35" s="79"/>
+      <c r="D35" s="82"/>
+      <c r="E35" s="87"/>
+      <c r="F35" s="88"/>
+      <c r="G35" s="68"/>
+      <c r="H35" s="70"/>
+      <c r="I35" s="65"/>
+      <c r="J35" s="65"/>
+      <c r="K35" s="65"/>
+      <c r="L35" s="65"/>
+      <c r="M35" s="65"/>
+      <c r="N35" s="68"/>
+      <c r="O35" s="65"/>
       <c r="P35" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Q35" s="81"/>
+      <c r="Q35" s="65"/>
     </row>
     <row r="36" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="68"/>
-      <c r="B36" s="107"/>
-      <c r="C36" s="110"/>
-      <c r="D36" s="113"/>
-      <c r="E36" s="82"/>
-      <c r="F36" s="86"/>
-      <c r="G36" s="93"/>
-      <c r="H36" s="102"/>
-      <c r="I36" s="89"/>
-      <c r="J36" s="89"/>
-      <c r="K36" s="89"/>
-      <c r="L36" s="89"/>
-      <c r="M36" s="89"/>
-      <c r="N36" s="93"/>
-      <c r="O36" s="89"/>
+      <c r="A36" s="116"/>
+      <c r="B36" s="76"/>
+      <c r="C36" s="79"/>
+      <c r="D36" s="82"/>
+      <c r="E36" s="86"/>
+      <c r="F36" s="85"/>
+      <c r="G36" s="69"/>
+      <c r="H36" s="71"/>
+      <c r="I36" s="66"/>
+      <c r="J36" s="66"/>
+      <c r="K36" s="66"/>
+      <c r="L36" s="66"/>
+      <c r="M36" s="66"/>
+      <c r="N36" s="69"/>
+      <c r="O36" s="66"/>
       <c r="P36" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Q36" s="89"/>
+      <c r="Q36" s="66"/>
     </row>
     <row r="37" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="68"/>
-      <c r="B37" s="107"/>
-      <c r="C37" s="110"/>
-      <c r="D37" s="113"/>
-      <c r="E37" s="82" t="s">
+      <c r="A37" s="116"/>
+      <c r="B37" s="76"/>
+      <c r="C37" s="79"/>
+      <c r="D37" s="82"/>
+      <c r="E37" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="F37" s="86" t="s">
+      <c r="F37" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="G37" s="84" t="s">
+      <c r="G37" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="H37" s="84" t="s">
+      <c r="H37" s="67" t="s">
         <v>18</v>
       </c>
       <c r="I37" s="3" t="s">
@@ -2571,7 +2752,7 @@
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
       <c r="M37" s="6"/>
-      <c r="N37" s="84" t="s">
+      <c r="N37" s="67" t="s">
         <v>20</v>
       </c>
       <c r="O37" s="3" t="s">
@@ -2583,14 +2764,14 @@
       <c r="Q37" s="3"/>
     </row>
     <row r="38" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="68"/>
-      <c r="B38" s="107"/>
-      <c r="C38" s="110"/>
-      <c r="D38" s="113"/>
-      <c r="E38" s="83"/>
-      <c r="F38" s="87"/>
-      <c r="G38" s="75"/>
-      <c r="H38" s="75"/>
+      <c r="A38" s="116"/>
+      <c r="B38" s="76"/>
+      <c r="C38" s="79"/>
+      <c r="D38" s="82"/>
+      <c r="E38" s="87"/>
+      <c r="F38" s="88"/>
+      <c r="G38" s="68"/>
+      <c r="H38" s="68"/>
       <c r="I38" s="4" t="s">
         <v>21</v>
       </c>
@@ -2598,217 +2779,217 @@
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
-      <c r="N38" s="75"/>
-      <c r="O38" s="80" t="s">
+      <c r="N38" s="68"/>
+      <c r="O38" s="64" t="s">
         <v>40</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="Q38" s="80"/>
+      <c r="Q38" s="64"/>
     </row>
     <row r="39" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="68"/>
-      <c r="B39" s="107"/>
-      <c r="C39" s="110"/>
-      <c r="D39" s="113"/>
-      <c r="E39" s="83"/>
-      <c r="F39" s="87"/>
-      <c r="G39" s="75"/>
-      <c r="H39" s="85"/>
+      <c r="A39" s="116"/>
+      <c r="B39" s="76"/>
+      <c r="C39" s="79"/>
+      <c r="D39" s="82"/>
+      <c r="E39" s="87"/>
+      <c r="F39" s="88"/>
+      <c r="G39" s="68"/>
+      <c r="H39" s="70"/>
       <c r="I39" s="16"/>
       <c r="J39" s="17"/>
       <c r="K39" s="17"/>
       <c r="L39" s="18"/>
       <c r="M39" s="18"/>
-      <c r="N39" s="75"/>
-      <c r="O39" s="81"/>
+      <c r="N39" s="68"/>
+      <c r="O39" s="65"/>
       <c r="P39" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="Q39" s="81"/>
+      <c r="Q39" s="65"/>
     </row>
     <row r="40" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="68"/>
-      <c r="B40" s="107"/>
-      <c r="C40" s="110"/>
-      <c r="D40" s="113"/>
-      <c r="E40" s="83"/>
-      <c r="F40" s="87"/>
-      <c r="G40" s="75"/>
-      <c r="H40" s="85"/>
+      <c r="A40" s="116"/>
+      <c r="B40" s="76"/>
+      <c r="C40" s="79"/>
+      <c r="D40" s="82"/>
+      <c r="E40" s="87"/>
+      <c r="F40" s="88"/>
+      <c r="G40" s="68"/>
+      <c r="H40" s="70"/>
       <c r="I40" s="18"/>
       <c r="J40" s="17"/>
       <c r="K40" s="17"/>
       <c r="L40" s="18"/>
       <c r="M40" s="18"/>
-      <c r="N40" s="75"/>
-      <c r="O40" s="81"/>
+      <c r="N40" s="68"/>
+      <c r="O40" s="65"/>
       <c r="P40" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="Q40" s="81"/>
+      <c r="Q40" s="65"/>
     </row>
     <row r="41" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A41" s="68"/>
-      <c r="B41" s="107"/>
-      <c r="C41" s="110"/>
-      <c r="D41" s="113"/>
-      <c r="E41" s="83"/>
-      <c r="F41" s="87"/>
-      <c r="G41" s="75"/>
-      <c r="H41" s="85"/>
+      <c r="A41" s="116"/>
+      <c r="B41" s="76"/>
+      <c r="C41" s="79"/>
+      <c r="D41" s="82"/>
+      <c r="E41" s="87"/>
+      <c r="F41" s="88"/>
+      <c r="G41" s="68"/>
+      <c r="H41" s="70"/>
       <c r="I41" s="18"/>
       <c r="J41" s="17"/>
       <c r="K41" s="17"/>
       <c r="L41" s="18"/>
       <c r="M41" s="18"/>
-      <c r="N41" s="75"/>
-      <c r="O41" s="81"/>
+      <c r="N41" s="68"/>
+      <c r="O41" s="65"/>
       <c r="P41" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="Q41" s="81"/>
+      <c r="Q41" s="65"/>
     </row>
     <row r="42" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A42" s="68"/>
-      <c r="B42" s="107"/>
-      <c r="C42" s="110"/>
-      <c r="D42" s="113"/>
-      <c r="E42" s="83"/>
-      <c r="F42" s="87"/>
-      <c r="G42" s="75"/>
-      <c r="H42" s="85"/>
+      <c r="A42" s="116"/>
+      <c r="B42" s="76"/>
+      <c r="C42" s="79"/>
+      <c r="D42" s="82"/>
+      <c r="E42" s="87"/>
+      <c r="F42" s="88"/>
+      <c r="G42" s="68"/>
+      <c r="H42" s="70"/>
       <c r="I42" s="18"/>
       <c r="J42" s="17"/>
       <c r="K42" s="17"/>
       <c r="L42" s="18"/>
       <c r="M42" s="18"/>
-      <c r="N42" s="75"/>
-      <c r="O42" s="81"/>
+      <c r="N42" s="68"/>
+      <c r="O42" s="65"/>
       <c r="P42" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Q42" s="81"/>
+      <c r="Q42" s="65"/>
     </row>
     <row r="43" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A43" s="68"/>
-      <c r="B43" s="107"/>
-      <c r="C43" s="110"/>
-      <c r="D43" s="113"/>
-      <c r="E43" s="83"/>
-      <c r="F43" s="87"/>
-      <c r="G43" s="75"/>
-      <c r="H43" s="85"/>
+      <c r="A43" s="116"/>
+      <c r="B43" s="76"/>
+      <c r="C43" s="79"/>
+      <c r="D43" s="82"/>
+      <c r="E43" s="87"/>
+      <c r="F43" s="88"/>
+      <c r="G43" s="68"/>
+      <c r="H43" s="70"/>
       <c r="I43" s="18"/>
       <c r="J43" s="17"/>
       <c r="K43" s="17"/>
       <c r="L43" s="18"/>
       <c r="M43" s="18"/>
-      <c r="N43" s="75"/>
-      <c r="O43" s="81"/>
+      <c r="N43" s="68"/>
+      <c r="O43" s="65"/>
       <c r="P43" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="Q43" s="81"/>
+      <c r="Q43" s="65"/>
     </row>
     <row r="44" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A44" s="68"/>
-      <c r="B44" s="107"/>
-      <c r="C44" s="110"/>
-      <c r="D44" s="113"/>
-      <c r="E44" s="83"/>
-      <c r="F44" s="87"/>
-      <c r="G44" s="75"/>
-      <c r="H44" s="85"/>
+      <c r="A44" s="116"/>
+      <c r="B44" s="76"/>
+      <c r="C44" s="79"/>
+      <c r="D44" s="82"/>
+      <c r="E44" s="87"/>
+      <c r="F44" s="88"/>
+      <c r="G44" s="68"/>
+      <c r="H44" s="70"/>
       <c r="I44" s="18"/>
       <c r="J44" s="17"/>
       <c r="K44" s="17"/>
       <c r="L44" s="18"/>
       <c r="M44" s="18"/>
-      <c r="N44" s="75"/>
-      <c r="O44" s="81"/>
+      <c r="N44" s="68"/>
+      <c r="O44" s="65"/>
       <c r="P44" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="Q44" s="81"/>
+      <c r="Q44" s="65"/>
     </row>
     <row r="45" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A45" s="68"/>
-      <c r="B45" s="107"/>
-      <c r="C45" s="110"/>
-      <c r="D45" s="113"/>
-      <c r="E45" s="83"/>
-      <c r="F45" s="87"/>
-      <c r="G45" s="75"/>
-      <c r="H45" s="85"/>
+      <c r="A45" s="116"/>
+      <c r="B45" s="76"/>
+      <c r="C45" s="79"/>
+      <c r="D45" s="82"/>
+      <c r="E45" s="87"/>
+      <c r="F45" s="88"/>
+      <c r="G45" s="68"/>
+      <c r="H45" s="70"/>
       <c r="I45" s="18"/>
       <c r="J45" s="17"/>
       <c r="K45" s="17"/>
       <c r="L45" s="18"/>
       <c r="M45" s="18"/>
-      <c r="N45" s="75"/>
-      <c r="O45" s="81"/>
+      <c r="N45" s="68"/>
+      <c r="O45" s="65"/>
       <c r="P45" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="Q45" s="81"/>
+      <c r="Q45" s="65"/>
     </row>
     <row r="46" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A46" s="68"/>
-      <c r="B46" s="107"/>
-      <c r="C46" s="110"/>
-      <c r="D46" s="113"/>
-      <c r="E46" s="83"/>
-      <c r="F46" s="87"/>
-      <c r="G46" s="75"/>
-      <c r="H46" s="85"/>
+      <c r="A46" s="116"/>
+      <c r="B46" s="76"/>
+      <c r="C46" s="79"/>
+      <c r="D46" s="82"/>
+      <c r="E46" s="87"/>
+      <c r="F46" s="88"/>
+      <c r="G46" s="68"/>
+      <c r="H46" s="70"/>
       <c r="I46" s="18"/>
       <c r="J46" s="17"/>
       <c r="K46" s="17"/>
       <c r="L46" s="18"/>
       <c r="M46" s="18"/>
-      <c r="N46" s="75"/>
-      <c r="O46" s="81"/>
+      <c r="N46" s="68"/>
+      <c r="O46" s="65"/>
       <c r="P46" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Q46" s="81"/>
+      <c r="Q46" s="65"/>
     </row>
     <row r="47" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A47" s="68"/>
-      <c r="B47" s="107"/>
-      <c r="C47" s="110"/>
-      <c r="D47" s="113"/>
-      <c r="E47" s="82"/>
-      <c r="F47" s="86"/>
-      <c r="G47" s="93"/>
-      <c r="H47" s="102"/>
+      <c r="A47" s="116"/>
+      <c r="B47" s="76"/>
+      <c r="C47" s="79"/>
+      <c r="D47" s="82"/>
+      <c r="E47" s="86"/>
+      <c r="F47" s="85"/>
+      <c r="G47" s="69"/>
+      <c r="H47" s="71"/>
       <c r="I47" s="19"/>
       <c r="J47" s="17"/>
       <c r="K47" s="17"/>
       <c r="L47" s="18"/>
       <c r="M47" s="18"/>
-      <c r="N47" s="93"/>
-      <c r="O47" s="89"/>
+      <c r="N47" s="69"/>
+      <c r="O47" s="66"/>
       <c r="P47" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Q47" s="89"/>
+      <c r="Q47" s="66"/>
     </row>
     <row r="48" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A48" s="68"/>
-      <c r="B48" s="107"/>
-      <c r="C48" s="110"/>
-      <c r="D48" s="113"/>
-      <c r="E48" s="99" t="s">
+      <c r="A48" s="116"/>
+      <c r="B48" s="76"/>
+      <c r="C48" s="79"/>
+      <c r="D48" s="82"/>
+      <c r="E48" s="96" t="s">
         <v>26</v>
       </c>
       <c r="F48" s="20"/>
-      <c r="G48" s="74" t="s">
+      <c r="G48" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="H48" s="74" t="s">
+      <c r="H48" s="75" t="s">
         <v>18</v>
       </c>
       <c r="I48" s="4" t="s">
@@ -2820,7 +3001,7 @@
       <c r="K48" s="5"/>
       <c r="L48" s="6"/>
       <c r="M48" s="6"/>
-      <c r="N48" s="84" t="s">
+      <c r="N48" s="67" t="s">
         <v>20</v>
       </c>
       <c r="O48" s="3" t="s">
@@ -2832,14 +3013,14 @@
       <c r="Q48" s="3"/>
     </row>
     <row r="49" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A49" s="68"/>
-      <c r="B49" s="107"/>
-      <c r="C49" s="110"/>
-      <c r="D49" s="113"/>
-      <c r="E49" s="91"/>
+      <c r="A49" s="116"/>
+      <c r="B49" s="76"/>
+      <c r="C49" s="79"/>
+      <c r="D49" s="82"/>
+      <c r="E49" s="97"/>
       <c r="F49" s="20"/>
-      <c r="G49" s="75"/>
-      <c r="H49" s="75"/>
+      <c r="G49" s="68"/>
+      <c r="H49" s="68"/>
       <c r="I49" s="3" t="s">
         <v>29</v>
       </c>
@@ -2847,20 +3028,20 @@
       <c r="K49" s="5"/>
       <c r="L49" s="6"/>
       <c r="M49" s="6"/>
-      <c r="N49" s="93"/>
-      <c r="O49" s="80"/>
-      <c r="P49" s="80"/>
-      <c r="Q49" s="80"/>
+      <c r="N49" s="69"/>
+      <c r="O49" s="64"/>
+      <c r="P49" s="64"/>
+      <c r="Q49" s="64"/>
     </row>
     <row r="50" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A50" s="68"/>
-      <c r="B50" s="107"/>
-      <c r="C50" s="110"/>
-      <c r="D50" s="113"/>
-      <c r="E50" s="91"/>
+      <c r="A50" s="116"/>
+      <c r="B50" s="76"/>
+      <c r="C50" s="79"/>
+      <c r="D50" s="82"/>
+      <c r="E50" s="97"/>
       <c r="F50" s="20"/>
-      <c r="G50" s="75"/>
-      <c r="H50" s="75"/>
+      <c r="G50" s="68"/>
+      <c r="H50" s="68"/>
       <c r="I50" s="3" t="s">
         <v>30</v>
       </c>
@@ -2868,20 +3049,20 @@
       <c r="K50" s="5"/>
       <c r="L50" s="6"/>
       <c r="M50" s="6"/>
-      <c r="N50" s="93"/>
-      <c r="O50" s="81"/>
-      <c r="P50" s="81"/>
-      <c r="Q50" s="81"/>
+      <c r="N50" s="69"/>
+      <c r="O50" s="65"/>
+      <c r="P50" s="65"/>
+      <c r="Q50" s="65"/>
     </row>
     <row r="51" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A51" s="68"/>
-      <c r="B51" s="107"/>
-      <c r="C51" s="110"/>
-      <c r="D51" s="113"/>
-      <c r="E51" s="91"/>
+      <c r="A51" s="116"/>
+      <c r="B51" s="76"/>
+      <c r="C51" s="79"/>
+      <c r="D51" s="82"/>
+      <c r="E51" s="97"/>
       <c r="F51" s="20"/>
-      <c r="G51" s="75"/>
-      <c r="H51" s="75"/>
+      <c r="G51" s="68"/>
+      <c r="H51" s="68"/>
       <c r="I51" s="3" t="s">
         <v>31</v>
       </c>
@@ -2889,20 +3070,20 @@
       <c r="K51" s="5"/>
       <c r="L51" s="6"/>
       <c r="M51" s="6"/>
-      <c r="N51" s="93"/>
-      <c r="O51" s="81"/>
-      <c r="P51" s="81"/>
-      <c r="Q51" s="81"/>
+      <c r="N51" s="69"/>
+      <c r="O51" s="65"/>
+      <c r="P51" s="65"/>
+      <c r="Q51" s="65"/>
     </row>
     <row r="52" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A52" s="68"/>
-      <c r="B52" s="107"/>
-      <c r="C52" s="110"/>
-      <c r="D52" s="113"/>
-      <c r="E52" s="91"/>
+      <c r="A52" s="116"/>
+      <c r="B52" s="76"/>
+      <c r="C52" s="79"/>
+      <c r="D52" s="82"/>
+      <c r="E52" s="97"/>
       <c r="F52" s="20"/>
-      <c r="G52" s="75"/>
-      <c r="H52" s="75"/>
+      <c r="G52" s="68"/>
+      <c r="H52" s="68"/>
       <c r="I52" s="3" t="s">
         <v>32</v>
       </c>
@@ -2910,20 +3091,20 @@
       <c r="K52" s="5"/>
       <c r="L52" s="6"/>
       <c r="M52" s="6"/>
-      <c r="N52" s="93"/>
-      <c r="O52" s="81"/>
-      <c r="P52" s="81"/>
-      <c r="Q52" s="81"/>
+      <c r="N52" s="69"/>
+      <c r="O52" s="65"/>
+      <c r="P52" s="65"/>
+      <c r="Q52" s="65"/>
     </row>
     <row r="53" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A53" s="68"/>
-      <c r="B53" s="107"/>
-      <c r="C53" s="110"/>
-      <c r="D53" s="113"/>
-      <c r="E53" s="91"/>
+      <c r="A53" s="116"/>
+      <c r="B53" s="76"/>
+      <c r="C53" s="79"/>
+      <c r="D53" s="82"/>
+      <c r="E53" s="97"/>
       <c r="F53" s="20"/>
-      <c r="G53" s="75"/>
-      <c r="H53" s="75"/>
+      <c r="G53" s="68"/>
+      <c r="H53" s="68"/>
       <c r="I53" s="3" t="s">
         <v>33</v>
       </c>
@@ -2931,20 +3112,20 @@
       <c r="K53" s="5"/>
       <c r="L53" s="6"/>
       <c r="M53" s="6"/>
-      <c r="N53" s="93"/>
-      <c r="O53" s="81"/>
-      <c r="P53" s="81"/>
-      <c r="Q53" s="81"/>
+      <c r="N53" s="69"/>
+      <c r="O53" s="65"/>
+      <c r="P53" s="65"/>
+      <c r="Q53" s="65"/>
     </row>
     <row r="54" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A54" s="68"/>
-      <c r="B54" s="107"/>
-      <c r="C54" s="110"/>
-      <c r="D54" s="113"/>
-      <c r="E54" s="91"/>
+      <c r="A54" s="116"/>
+      <c r="B54" s="76"/>
+      <c r="C54" s="79"/>
+      <c r="D54" s="82"/>
+      <c r="E54" s="97"/>
       <c r="F54" s="20"/>
-      <c r="G54" s="75"/>
-      <c r="H54" s="75"/>
+      <c r="G54" s="68"/>
+      <c r="H54" s="68"/>
       <c r="I54" s="3" t="s">
         <v>34</v>
       </c>
@@ -2952,20 +3133,20 @@
       <c r="K54" s="5"/>
       <c r="L54" s="6"/>
       <c r="M54" s="6"/>
-      <c r="N54" s="93"/>
-      <c r="O54" s="89"/>
-      <c r="P54" s="89"/>
-      <c r="Q54" s="89"/>
+      <c r="N54" s="69"/>
+      <c r="O54" s="66"/>
+      <c r="P54" s="66"/>
+      <c r="Q54" s="66"/>
     </row>
     <row r="55" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A55" s="68"/>
-      <c r="B55" s="107"/>
-      <c r="C55" s="110"/>
-      <c r="D55" s="113"/>
-      <c r="E55" s="100"/>
+      <c r="A55" s="116"/>
+      <c r="B55" s="76"/>
+      <c r="C55" s="79"/>
+      <c r="D55" s="82"/>
+      <c r="E55" s="98"/>
       <c r="F55" s="21"/>
-      <c r="G55" s="76"/>
-      <c r="H55" s="76"/>
+      <c r="G55" s="99"/>
+      <c r="H55" s="99"/>
       <c r="I55" s="3" t="s">
         <v>35</v>
       </c>
@@ -2979,18 +3160,18 @@
       <c r="Q55" s="24"/>
     </row>
     <row r="56" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A56" s="68"/>
-      <c r="B56" s="107"/>
-      <c r="C56" s="110"/>
-      <c r="D56" s="113"/>
-      <c r="E56" s="90" t="s">
+      <c r="A56" s="116"/>
+      <c r="B56" s="76"/>
+      <c r="C56" s="79"/>
+      <c r="D56" s="82"/>
+      <c r="E56" s="100" t="s">
         <v>27</v>
       </c>
       <c r="F56" s="20"/>
-      <c r="G56" s="84" t="s">
+      <c r="G56" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="H56" s="84" t="s">
+      <c r="H56" s="67" t="s">
         <v>18</v>
       </c>
       <c r="I56" s="3" t="s">
@@ -3002,7 +3183,7 @@
       <c r="K56" s="5"/>
       <c r="L56" s="6"/>
       <c r="M56" s="6"/>
-      <c r="N56" s="84" t="s">
+      <c r="N56" s="67" t="s">
         <v>20</v>
       </c>
       <c r="O56" s="3" t="s">
@@ -3014,14 +3195,14 @@
       <c r="Q56" s="3"/>
     </row>
     <row r="57" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A57" s="68"/>
-      <c r="B57" s="107"/>
-      <c r="C57" s="110"/>
-      <c r="D57" s="113"/>
-      <c r="E57" s="91"/>
+      <c r="A57" s="116"/>
+      <c r="B57" s="76"/>
+      <c r="C57" s="79"/>
+      <c r="D57" s="82"/>
+      <c r="E57" s="97"/>
       <c r="F57" s="21"/>
-      <c r="G57" s="75"/>
-      <c r="H57" s="75"/>
+      <c r="G57" s="68"/>
+      <c r="H57" s="68"/>
       <c r="I57" s="3" t="s">
         <v>21</v>
       </c>
@@ -3029,20 +3210,20 @@
       <c r="K57" s="5"/>
       <c r="L57" s="22"/>
       <c r="M57" s="22"/>
-      <c r="N57" s="75"/>
-      <c r="O57" s="80"/>
-      <c r="P57" s="80"/>
-      <c r="Q57" s="80"/>
+      <c r="N57" s="68"/>
+      <c r="O57" s="64"/>
+      <c r="P57" s="64"/>
+      <c r="Q57" s="64"/>
     </row>
     <row r="58" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A58" s="68"/>
-      <c r="B58" s="107"/>
-      <c r="C58" s="110"/>
-      <c r="D58" s="113"/>
-      <c r="E58" s="91"/>
+      <c r="A58" s="116"/>
+      <c r="B58" s="76"/>
+      <c r="C58" s="79"/>
+      <c r="D58" s="82"/>
+      <c r="E58" s="97"/>
       <c r="F58" s="21"/>
-      <c r="G58" s="75"/>
-      <c r="H58" s="75"/>
+      <c r="G58" s="68"/>
+      <c r="H58" s="68"/>
       <c r="I58" s="3" t="s">
         <v>29</v>
       </c>
@@ -3050,20 +3231,20 @@
       <c r="K58" s="5"/>
       <c r="L58" s="22"/>
       <c r="M58" s="22"/>
-      <c r="N58" s="75"/>
-      <c r="O58" s="81"/>
-      <c r="P58" s="81"/>
-      <c r="Q58" s="81"/>
+      <c r="N58" s="68"/>
+      <c r="O58" s="65"/>
+      <c r="P58" s="65"/>
+      <c r="Q58" s="65"/>
     </row>
     <row r="59" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A59" s="68"/>
-      <c r="B59" s="107"/>
-      <c r="C59" s="110"/>
-      <c r="D59" s="113"/>
-      <c r="E59" s="91"/>
+      <c r="A59" s="116"/>
+      <c r="B59" s="76"/>
+      <c r="C59" s="79"/>
+      <c r="D59" s="82"/>
+      <c r="E59" s="97"/>
       <c r="F59" s="21"/>
-      <c r="G59" s="75"/>
-      <c r="H59" s="75"/>
+      <c r="G59" s="68"/>
+      <c r="H59" s="68"/>
       <c r="I59" s="3" t="s">
         <v>30</v>
       </c>
@@ -3071,20 +3252,20 @@
       <c r="K59" s="5"/>
       <c r="L59" s="22"/>
       <c r="M59" s="22"/>
-      <c r="N59" s="75"/>
-      <c r="O59" s="81"/>
-      <c r="P59" s="81"/>
-      <c r="Q59" s="81"/>
+      <c r="N59" s="68"/>
+      <c r="O59" s="65"/>
+      <c r="P59" s="65"/>
+      <c r="Q59" s="65"/>
     </row>
     <row r="60" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A60" s="68"/>
-      <c r="B60" s="107"/>
-      <c r="C60" s="110"/>
-      <c r="D60" s="113"/>
-      <c r="E60" s="91"/>
+      <c r="A60" s="116"/>
+      <c r="B60" s="76"/>
+      <c r="C60" s="79"/>
+      <c r="D60" s="82"/>
+      <c r="E60" s="97"/>
       <c r="F60" s="21"/>
-      <c r="G60" s="75"/>
-      <c r="H60" s="75"/>
+      <c r="G60" s="68"/>
+      <c r="H60" s="68"/>
       <c r="I60" s="3" t="s">
         <v>31</v>
       </c>
@@ -3092,20 +3273,20 @@
       <c r="K60" s="5"/>
       <c r="L60" s="22"/>
       <c r="M60" s="22"/>
-      <c r="N60" s="75"/>
-      <c r="O60" s="81"/>
-      <c r="P60" s="81"/>
-      <c r="Q60" s="81"/>
+      <c r="N60" s="68"/>
+      <c r="O60" s="65"/>
+      <c r="P60" s="65"/>
+      <c r="Q60" s="65"/>
     </row>
     <row r="61" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A61" s="68"/>
-      <c r="B61" s="107"/>
-      <c r="C61" s="110"/>
-      <c r="D61" s="113"/>
-      <c r="E61" s="91"/>
+      <c r="A61" s="116"/>
+      <c r="B61" s="76"/>
+      <c r="C61" s="79"/>
+      <c r="D61" s="82"/>
+      <c r="E61" s="97"/>
       <c r="F61" s="21"/>
-      <c r="G61" s="75"/>
-      <c r="H61" s="75"/>
+      <c r="G61" s="68"/>
+      <c r="H61" s="68"/>
       <c r="I61" s="3" t="s">
         <v>32</v>
       </c>
@@ -3113,20 +3294,20 @@
       <c r="K61" s="5"/>
       <c r="L61" s="22"/>
       <c r="M61" s="22"/>
-      <c r="N61" s="75"/>
-      <c r="O61" s="81"/>
-      <c r="P61" s="81"/>
-      <c r="Q61" s="81"/>
+      <c r="N61" s="68"/>
+      <c r="O61" s="65"/>
+      <c r="P61" s="65"/>
+      <c r="Q61" s="65"/>
     </row>
     <row r="62" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A62" s="68"/>
-      <c r="B62" s="107"/>
-      <c r="C62" s="110"/>
-      <c r="D62" s="113"/>
-      <c r="E62" s="91"/>
+      <c r="A62" s="116"/>
+      <c r="B62" s="76"/>
+      <c r="C62" s="79"/>
+      <c r="D62" s="82"/>
+      <c r="E62" s="97"/>
       <c r="F62" s="21"/>
-      <c r="G62" s="75"/>
-      <c r="H62" s="75"/>
+      <c r="G62" s="68"/>
+      <c r="H62" s="68"/>
       <c r="I62" s="3" t="s">
         <v>33</v>
       </c>
@@ -3134,20 +3315,20 @@
       <c r="K62" s="5"/>
       <c r="L62" s="22"/>
       <c r="M62" s="22"/>
-      <c r="N62" s="75"/>
-      <c r="O62" s="81"/>
-      <c r="P62" s="81"/>
-      <c r="Q62" s="81"/>
+      <c r="N62" s="68"/>
+      <c r="O62" s="65"/>
+      <c r="P62" s="65"/>
+      <c r="Q62" s="65"/>
     </row>
     <row r="63" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A63" s="68"/>
-      <c r="B63" s="107"/>
-      <c r="C63" s="110"/>
-      <c r="D63" s="113"/>
-      <c r="E63" s="91"/>
+      <c r="A63" s="116"/>
+      <c r="B63" s="76"/>
+      <c r="C63" s="79"/>
+      <c r="D63" s="82"/>
+      <c r="E63" s="97"/>
       <c r="F63" s="21"/>
-      <c r="G63" s="75"/>
-      <c r="H63" s="75"/>
+      <c r="G63" s="68"/>
+      <c r="H63" s="68"/>
       <c r="I63" s="3" t="s">
         <v>34</v>
       </c>
@@ -3155,20 +3336,20 @@
       <c r="K63" s="5"/>
       <c r="L63" s="22"/>
       <c r="M63" s="22"/>
-      <c r="N63" s="75"/>
-      <c r="O63" s="81"/>
-      <c r="P63" s="81"/>
-      <c r="Q63" s="81"/>
+      <c r="N63" s="68"/>
+      <c r="O63" s="65"/>
+      <c r="P63" s="65"/>
+      <c r="Q63" s="65"/>
     </row>
     <row r="64" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A64" s="68"/>
-      <c r="B64" s="107"/>
-      <c r="C64" s="110"/>
-      <c r="D64" s="113"/>
-      <c r="E64" s="92"/>
+      <c r="A64" s="116"/>
+      <c r="B64" s="76"/>
+      <c r="C64" s="79"/>
+      <c r="D64" s="82"/>
+      <c r="E64" s="101"/>
       <c r="F64" s="20"/>
-      <c r="G64" s="88"/>
-      <c r="H64" s="88"/>
+      <c r="G64" s="95"/>
+      <c r="H64" s="95"/>
       <c r="I64" s="3" t="s">
         <v>35</v>
       </c>
@@ -3176,24 +3357,24 @@
       <c r="K64" s="5"/>
       <c r="L64" s="6"/>
       <c r="M64" s="6"/>
-      <c r="N64" s="88"/>
-      <c r="O64" s="89"/>
-      <c r="P64" s="89"/>
-      <c r="Q64" s="89"/>
+      <c r="N64" s="95"/>
+      <c r="O64" s="66"/>
+      <c r="P64" s="66"/>
+      <c r="Q64" s="66"/>
     </row>
     <row r="65" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A65" s="68"/>
-      <c r="B65" s="107"/>
-      <c r="C65" s="110"/>
-      <c r="D65" s="113"/>
-      <c r="E65" s="99" t="s">
+      <c r="A65" s="116"/>
+      <c r="B65" s="76"/>
+      <c r="C65" s="79"/>
+      <c r="D65" s="82"/>
+      <c r="E65" s="96" t="s">
         <v>28</v>
       </c>
       <c r="F65" s="20"/>
-      <c r="G65" s="84" t="s">
+      <c r="G65" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="H65" s="84" t="s">
+      <c r="H65" s="67" t="s">
         <v>18</v>
       </c>
       <c r="I65" s="3" t="s">
@@ -3205,7 +3386,7 @@
       <c r="K65" s="5"/>
       <c r="L65" s="6"/>
       <c r="M65" s="6"/>
-      <c r="N65" s="84" t="s">
+      <c r="N65" s="67" t="s">
         <v>20</v>
       </c>
       <c r="O65" s="3" t="s">
@@ -3217,14 +3398,14 @@
       <c r="Q65" s="3"/>
     </row>
     <row r="66" spans="1:17" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A66" s="69"/>
-      <c r="B66" s="108"/>
-      <c r="C66" s="111"/>
-      <c r="D66" s="114"/>
-      <c r="E66" s="100"/>
+      <c r="A66" s="117"/>
+      <c r="B66" s="77"/>
+      <c r="C66" s="80"/>
+      <c r="D66" s="83"/>
+      <c r="E66" s="98"/>
       <c r="F66" s="20"/>
-      <c r="G66" s="88"/>
-      <c r="H66" s="88"/>
+      <c r="G66" s="95"/>
+      <c r="H66" s="95"/>
       <c r="I66" s="3" t="s">
         <v>21</v>
       </c>
@@ -3232,30 +3413,30 @@
       <c r="K66" s="5"/>
       <c r="L66" s="6"/>
       <c r="M66" s="6"/>
-      <c r="N66" s="88"/>
+      <c r="N66" s="95"/>
       <c r="O66" s="3"/>
       <c r="P66" s="24"/>
       <c r="Q66" s="3"/>
     </row>
     <row r="67" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="60">
+      <c r="A67" s="109">
         <v>2</v>
       </c>
-      <c r="B67" s="57"/>
+      <c r="B67" s="106"/>
       <c r="C67" s="34"/>
-      <c r="D67" s="101" t="s">
+      <c r="D67" s="122" t="s">
         <v>47</v>
       </c>
-      <c r="E67" s="98" t="s">
+      <c r="E67" s="84" t="s">
         <v>48</v>
       </c>
-      <c r="F67" s="86" t="s">
+      <c r="F67" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="G67" s="84" t="s">
+      <c r="G67" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="H67" s="84" t="s">
+      <c r="H67" s="67" t="s">
         <v>18</v>
       </c>
       <c r="I67" s="3" t="s">
@@ -3267,7 +3448,7 @@
       <c r="K67" s="5"/>
       <c r="L67" s="3"/>
       <c r="M67" s="6"/>
-      <c r="N67" s="84" t="s">
+      <c r="N67" s="67" t="s">
         <v>20</v>
       </c>
       <c r="O67" s="3" t="s">
@@ -3279,192 +3460,192 @@
       <c r="Q67" s="3"/>
     </row>
     <row r="68" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="61"/>
-      <c r="B68" s="58"/>
+      <c r="A68" s="110"/>
+      <c r="B68" s="107"/>
       <c r="C68" s="34"/>
-      <c r="D68" s="101"/>
-      <c r="E68" s="98"/>
-      <c r="F68" s="86"/>
-      <c r="G68" s="93"/>
-      <c r="H68" s="93"/>
+      <c r="D68" s="122"/>
+      <c r="E68" s="84"/>
+      <c r="F68" s="85"/>
+      <c r="G68" s="69"/>
+      <c r="H68" s="69"/>
       <c r="I68" s="3" t="s">
-        <v>21</v>
+        <v>127</v>
       </c>
       <c r="J68" s="4"/>
       <c r="K68" s="5"/>
       <c r="L68" s="3"/>
       <c r="M68" s="6"/>
-      <c r="N68" s="93"/>
-      <c r="O68" s="96" t="s">
+      <c r="N68" s="69"/>
+      <c r="O68" s="92" t="s">
         <v>58</v>
       </c>
       <c r="P68" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="Q68" s="94"/>
+      <c r="Q68" s="89"/>
     </row>
     <row r="69" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="61"/>
-      <c r="B69" s="58"/>
+      <c r="A69" s="110"/>
+      <c r="B69" s="107"/>
       <c r="C69" s="34"/>
-      <c r="D69" s="101"/>
-      <c r="E69" s="98"/>
-      <c r="F69" s="86"/>
-      <c r="G69" s="93"/>
-      <c r="H69" s="93"/>
+      <c r="D69" s="122"/>
+      <c r="E69" s="84"/>
+      <c r="F69" s="85"/>
+      <c r="G69" s="69"/>
+      <c r="H69" s="69"/>
       <c r="I69" s="7"/>
       <c r="J69" s="8"/>
       <c r="K69" s="28"/>
       <c r="L69" s="7"/>
       <c r="M69" s="10"/>
-      <c r="N69" s="93"/>
-      <c r="O69" s="97"/>
+      <c r="N69" s="69"/>
+      <c r="O69" s="93"/>
       <c r="P69" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="Q69" s="95"/>
+      <c r="Q69" s="90"/>
     </row>
     <row r="70" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="61"/>
-      <c r="B70" s="58"/>
+      <c r="A70" s="110"/>
+      <c r="B70" s="107"/>
       <c r="C70" s="34"/>
-      <c r="D70" s="101"/>
-      <c r="E70" s="98"/>
-      <c r="F70" s="86"/>
-      <c r="G70" s="93"/>
-      <c r="H70" s="93"/>
+      <c r="D70" s="122"/>
+      <c r="E70" s="84"/>
+      <c r="F70" s="85"/>
+      <c r="G70" s="69"/>
+      <c r="H70" s="69"/>
       <c r="I70" s="12"/>
       <c r="J70" s="12"/>
       <c r="K70" s="29"/>
       <c r="L70" s="12"/>
       <c r="M70" s="14"/>
-      <c r="N70" s="93"/>
-      <c r="O70" s="97"/>
+      <c r="N70" s="69"/>
+      <c r="O70" s="93"/>
       <c r="P70" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="Q70" s="95"/>
+      <c r="Q70" s="90"/>
     </row>
     <row r="71" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="61"/>
-      <c r="B71" s="58"/>
+      <c r="A71" s="110"/>
+      <c r="B71" s="107"/>
       <c r="C71" s="34"/>
-      <c r="D71" s="101"/>
-      <c r="E71" s="98"/>
-      <c r="F71" s="86"/>
-      <c r="G71" s="93"/>
-      <c r="H71" s="93"/>
+      <c r="D71" s="122"/>
+      <c r="E71" s="84"/>
+      <c r="F71" s="85"/>
+      <c r="G71" s="69"/>
+      <c r="H71" s="69"/>
       <c r="I71" s="12"/>
       <c r="J71" s="12"/>
       <c r="K71" s="29"/>
       <c r="L71" s="12"/>
       <c r="M71" s="14"/>
-      <c r="N71" s="93"/>
-      <c r="O71" s="97"/>
+      <c r="N71" s="69"/>
+      <c r="O71" s="93"/>
       <c r="P71" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="Q71" s="95"/>
+      <c r="Q71" s="90"/>
     </row>
     <row r="72" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="61"/>
-      <c r="B72" s="58"/>
+      <c r="A72" s="110"/>
+      <c r="B72" s="107"/>
       <c r="C72" s="34"/>
-      <c r="D72" s="101"/>
-      <c r="E72" s="98"/>
-      <c r="F72" s="86"/>
-      <c r="G72" s="93"/>
-      <c r="H72" s="93"/>
+      <c r="D72" s="122"/>
+      <c r="E72" s="84"/>
+      <c r="F72" s="85"/>
+      <c r="G72" s="69"/>
+      <c r="H72" s="69"/>
       <c r="I72" s="12"/>
       <c r="J72" s="12"/>
       <c r="K72" s="29"/>
       <c r="L72" s="12"/>
       <c r="M72" s="14"/>
-      <c r="N72" s="93"/>
-      <c r="O72" s="97"/>
+      <c r="N72" s="69"/>
+      <c r="O72" s="93"/>
       <c r="P72" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="Q72" s="95"/>
+      <c r="Q72" s="90"/>
     </row>
     <row r="73" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="61"/>
-      <c r="B73" s="58"/>
+      <c r="A73" s="110"/>
+      <c r="B73" s="107"/>
       <c r="C73" s="34"/>
-      <c r="D73" s="101"/>
-      <c r="E73" s="98"/>
-      <c r="F73" s="86"/>
-      <c r="G73" s="93"/>
-      <c r="H73" s="93"/>
+      <c r="D73" s="122"/>
+      <c r="E73" s="84"/>
+      <c r="F73" s="85"/>
+      <c r="G73" s="69"/>
+      <c r="H73" s="69"/>
       <c r="I73" s="12"/>
       <c r="J73" s="12"/>
       <c r="K73" s="29"/>
       <c r="L73" s="12"/>
       <c r="M73" s="14"/>
-      <c r="N73" s="93"/>
-      <c r="O73" s="97"/>
+      <c r="N73" s="69"/>
+      <c r="O73" s="93"/>
       <c r="P73" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="Q73" s="95"/>
+      <c r="Q73" s="90"/>
     </row>
     <row r="74" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="61"/>
-      <c r="B74" s="58"/>
+      <c r="A74" s="110"/>
+      <c r="B74" s="107"/>
       <c r="C74" s="34"/>
-      <c r="D74" s="101"/>
-      <c r="E74" s="98"/>
-      <c r="F74" s="86"/>
-      <c r="G74" s="93"/>
-      <c r="H74" s="93"/>
+      <c r="D74" s="122"/>
+      <c r="E74" s="84"/>
+      <c r="F74" s="85"/>
+      <c r="G74" s="69"/>
+      <c r="H74" s="69"/>
       <c r="I74" s="12"/>
       <c r="J74" s="12"/>
       <c r="K74" s="29"/>
       <c r="L74" s="12"/>
       <c r="M74" s="14"/>
-      <c r="N74" s="93"/>
-      <c r="O74" s="97"/>
+      <c r="N74" s="69"/>
+      <c r="O74" s="93"/>
       <c r="P74" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="Q74" s="95"/>
+      <c r="Q74" s="90"/>
     </row>
     <row r="75" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="61"/>
-      <c r="B75" s="58"/>
+      <c r="A75" s="110"/>
+      <c r="B75" s="107"/>
       <c r="C75" s="34"/>
-      <c r="D75" s="101"/>
-      <c r="E75" s="98"/>
-      <c r="F75" s="86"/>
-      <c r="G75" s="93"/>
-      <c r="H75" s="93"/>
+      <c r="D75" s="122"/>
+      <c r="E75" s="84"/>
+      <c r="F75" s="85"/>
+      <c r="G75" s="69"/>
+      <c r="H75" s="69"/>
       <c r="I75" s="12"/>
       <c r="J75" s="12"/>
       <c r="K75" s="29"/>
       <c r="L75" s="12"/>
       <c r="M75" s="14"/>
-      <c r="N75" s="93"/>
-      <c r="O75" s="97"/>
+      <c r="N75" s="69"/>
+      <c r="O75" s="93"/>
       <c r="P75" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="Q75" s="95"/>
+      <c r="Q75" s="90"/>
     </row>
     <row r="76" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="61"/>
-      <c r="B76" s="58"/>
+      <c r="A76" s="110"/>
+      <c r="B76" s="107"/>
       <c r="C76" s="34"/>
-      <c r="D76" s="101"/>
-      <c r="E76" s="82" t="s">
+      <c r="D76" s="122"/>
+      <c r="E76" s="86" t="s">
         <v>57</v>
       </c>
-      <c r="F76" s="86" t="s">
+      <c r="F76" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="G76" s="84" t="s">
+      <c r="G76" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="H76" s="84" t="s">
+      <c r="H76" s="67" t="s">
         <v>18</v>
       </c>
       <c r="I76" s="3" t="s">
@@ -3476,7 +3657,7 @@
       <c r="K76" s="5"/>
       <c r="L76" s="5"/>
       <c r="M76" s="6"/>
-      <c r="N76" s="84" t="s">
+      <c r="N76" s="67" t="s">
         <v>20</v>
       </c>
       <c r="O76" s="3" t="s">
@@ -3488,14 +3669,14 @@
       <c r="Q76" s="3"/>
     </row>
     <row r="77" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="61"/>
-      <c r="B77" s="58"/>
+      <c r="A77" s="110"/>
+      <c r="B77" s="107"/>
       <c r="C77" s="34"/>
-      <c r="D77" s="101"/>
-      <c r="E77" s="83"/>
-      <c r="F77" s="87"/>
-      <c r="G77" s="75"/>
-      <c r="H77" s="75"/>
+      <c r="D77" s="122"/>
+      <c r="E77" s="87"/>
+      <c r="F77" s="88"/>
+      <c r="G77" s="68"/>
+      <c r="H77" s="68"/>
       <c r="I77" s="4" t="s">
         <v>21</v>
       </c>
@@ -3503,175 +3684,175 @@
       <c r="K77" s="4"/>
       <c r="L77" s="4"/>
       <c r="M77" s="4"/>
-      <c r="N77" s="75"/>
-      <c r="O77" s="77" t="s">
+      <c r="N77" s="68"/>
+      <c r="O77" s="102" t="s">
         <v>59</v>
       </c>
       <c r="P77" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="Q77" s="80"/>
+      <c r="Q77" s="64"/>
     </row>
     <row r="78" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="61"/>
-      <c r="B78" s="58"/>
+      <c r="A78" s="110"/>
+      <c r="B78" s="107"/>
       <c r="C78" s="34"/>
-      <c r="D78" s="101"/>
-      <c r="E78" s="83"/>
-      <c r="F78" s="87"/>
-      <c r="G78" s="75"/>
-      <c r="H78" s="85"/>
+      <c r="D78" s="122"/>
+      <c r="E78" s="87"/>
+      <c r="F78" s="88"/>
+      <c r="G78" s="68"/>
+      <c r="H78" s="70"/>
       <c r="I78" s="16"/>
       <c r="J78" s="17"/>
       <c r="K78" s="17"/>
       <c r="L78" s="18"/>
       <c r="M78" s="18"/>
-      <c r="N78" s="75"/>
-      <c r="O78" s="78"/>
+      <c r="N78" s="68"/>
+      <c r="O78" s="103"/>
       <c r="P78" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="Q78" s="81"/>
+      <c r="Q78" s="65"/>
     </row>
     <row r="79" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="61"/>
-      <c r="B79" s="58"/>
+      <c r="A79" s="110"/>
+      <c r="B79" s="107"/>
       <c r="C79" s="34"/>
-      <c r="D79" s="101"/>
-      <c r="E79" s="83"/>
-      <c r="F79" s="87"/>
-      <c r="G79" s="75"/>
-      <c r="H79" s="85"/>
+      <c r="D79" s="122"/>
+      <c r="E79" s="87"/>
+      <c r="F79" s="88"/>
+      <c r="G79" s="68"/>
+      <c r="H79" s="70"/>
       <c r="I79" s="18"/>
       <c r="J79" s="17"/>
       <c r="K79" s="17"/>
       <c r="L79" s="18"/>
       <c r="M79" s="18"/>
-      <c r="N79" s="75"/>
-      <c r="O79" s="78"/>
+      <c r="N79" s="68"/>
+      <c r="O79" s="103"/>
       <c r="P79" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="Q79" s="81"/>
+      <c r="Q79" s="65"/>
     </row>
     <row r="80" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="61"/>
-      <c r="B80" s="58"/>
+      <c r="A80" s="110"/>
+      <c r="B80" s="107"/>
       <c r="C80" s="34"/>
-      <c r="D80" s="101"/>
-      <c r="E80" s="83"/>
-      <c r="F80" s="87"/>
-      <c r="G80" s="75"/>
-      <c r="H80" s="85"/>
+      <c r="D80" s="122"/>
+      <c r="E80" s="87"/>
+      <c r="F80" s="88"/>
+      <c r="G80" s="68"/>
+      <c r="H80" s="70"/>
       <c r="I80" s="18"/>
       <c r="J80" s="17"/>
       <c r="K80" s="17"/>
       <c r="L80" s="18"/>
       <c r="M80" s="18"/>
-      <c r="N80" s="75"/>
-      <c r="O80" s="78"/>
+      <c r="N80" s="68"/>
+      <c r="O80" s="103"/>
       <c r="P80" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="Q80" s="81"/>
+      <c r="Q80" s="65"/>
     </row>
     <row r="81" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="61"/>
-      <c r="B81" s="58"/>
+      <c r="A81" s="110"/>
+      <c r="B81" s="107"/>
       <c r="C81" s="34"/>
-      <c r="D81" s="101"/>
-      <c r="E81" s="83"/>
-      <c r="F81" s="87"/>
-      <c r="G81" s="75"/>
-      <c r="H81" s="85"/>
+      <c r="D81" s="122"/>
+      <c r="E81" s="87"/>
+      <c r="F81" s="88"/>
+      <c r="G81" s="68"/>
+      <c r="H81" s="70"/>
       <c r="I81" s="18"/>
       <c r="J81" s="17"/>
       <c r="K81" s="17"/>
       <c r="L81" s="18"/>
       <c r="M81" s="18"/>
-      <c r="N81" s="75"/>
-      <c r="O81" s="78"/>
+      <c r="N81" s="68"/>
+      <c r="O81" s="103"/>
       <c r="P81" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="Q81" s="81"/>
+      <c r="Q81" s="65"/>
     </row>
     <row r="82" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="61"/>
-      <c r="B82" s="58"/>
+      <c r="A82" s="110"/>
+      <c r="B82" s="107"/>
       <c r="C82" s="34"/>
-      <c r="D82" s="101"/>
-      <c r="E82" s="83"/>
-      <c r="F82" s="87"/>
-      <c r="G82" s="75"/>
-      <c r="H82" s="85"/>
+      <c r="D82" s="122"/>
+      <c r="E82" s="87"/>
+      <c r="F82" s="88"/>
+      <c r="G82" s="68"/>
+      <c r="H82" s="70"/>
       <c r="I82" s="18"/>
       <c r="J82" s="17"/>
       <c r="K82" s="17"/>
       <c r="L82" s="18"/>
       <c r="M82" s="18"/>
-      <c r="N82" s="75"/>
-      <c r="O82" s="78"/>
+      <c r="N82" s="68"/>
+      <c r="O82" s="103"/>
       <c r="P82" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="Q82" s="81"/>
+      <c r="Q82" s="65"/>
     </row>
     <row r="83" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="61"/>
-      <c r="B83" s="58"/>
+      <c r="A83" s="110"/>
+      <c r="B83" s="107"/>
       <c r="C83" s="34"/>
-      <c r="D83" s="101"/>
-      <c r="E83" s="83"/>
-      <c r="F83" s="87"/>
-      <c r="G83" s="75"/>
-      <c r="H83" s="85"/>
+      <c r="D83" s="122"/>
+      <c r="E83" s="87"/>
+      <c r="F83" s="88"/>
+      <c r="G83" s="68"/>
+      <c r="H83" s="70"/>
       <c r="I83" s="18"/>
       <c r="J83" s="17"/>
       <c r="K83" s="17"/>
       <c r="L83" s="18"/>
       <c r="M83" s="18"/>
-      <c r="N83" s="75"/>
-      <c r="O83" s="78"/>
+      <c r="N83" s="68"/>
+      <c r="O83" s="103"/>
       <c r="P83" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="Q83" s="81"/>
+      <c r="Q83" s="65"/>
     </row>
     <row r="84" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="61"/>
-      <c r="B84" s="58"/>
+      <c r="A84" s="110"/>
+      <c r="B84" s="107"/>
       <c r="C84" s="34"/>
-      <c r="D84" s="101"/>
-      <c r="E84" s="83"/>
-      <c r="F84" s="87"/>
-      <c r="G84" s="75"/>
-      <c r="H84" s="85"/>
+      <c r="D84" s="122"/>
+      <c r="E84" s="87"/>
+      <c r="F84" s="88"/>
+      <c r="G84" s="68"/>
+      <c r="H84" s="70"/>
       <c r="I84" s="18"/>
       <c r="J84" s="17"/>
       <c r="K84" s="17"/>
       <c r="L84" s="18"/>
       <c r="M84" s="18"/>
-      <c r="N84" s="75"/>
-      <c r="O84" s="79"/>
+      <c r="N84" s="68"/>
+      <c r="O84" s="104"/>
       <c r="P84" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="Q84" s="81"/>
+      <c r="Q84" s="65"/>
     </row>
     <row r="85" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="61"/>
-      <c r="B85" s="58"/>
+      <c r="A85" s="110"/>
+      <c r="B85" s="107"/>
       <c r="C85" s="34"/>
-      <c r="D85" s="101"/>
-      <c r="E85" s="99" t="s">
+      <c r="D85" s="122"/>
+      <c r="E85" s="96" t="s">
         <v>60</v>
       </c>
       <c r="F85" s="27"/>
-      <c r="G85" s="74" t="s">
+      <c r="G85" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="H85" s="74" t="s">
+      <c r="H85" s="75" t="s">
         <v>18</v>
       </c>
       <c r="I85" s="4" t="s">
@@ -3683,7 +3864,7 @@
       <c r="K85" s="5"/>
       <c r="L85" s="6"/>
       <c r="M85" s="6"/>
-      <c r="N85" s="84" t="s">
+      <c r="N85" s="67" t="s">
         <v>20</v>
       </c>
       <c r="O85" s="3" t="s">
@@ -3695,14 +3876,14 @@
       <c r="Q85" s="3"/>
     </row>
     <row r="86" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="61"/>
-      <c r="B86" s="58"/>
+      <c r="A86" s="110"/>
+      <c r="B86" s="107"/>
       <c r="C86" s="34"/>
-      <c r="D86" s="101"/>
-      <c r="E86" s="91"/>
+      <c r="D86" s="122"/>
+      <c r="E86" s="97"/>
       <c r="F86" s="27"/>
-      <c r="G86" s="75"/>
-      <c r="H86" s="75"/>
+      <c r="G86" s="68"/>
+      <c r="H86" s="68"/>
       <c r="I86" s="11" t="s">
         <v>50</v>
       </c>
@@ -3710,20 +3891,20 @@
       <c r="K86" s="5"/>
       <c r="L86" s="6"/>
       <c r="M86" s="6"/>
-      <c r="N86" s="93"/>
-      <c r="O86" s="80"/>
-      <c r="P86" s="80"/>
-      <c r="Q86" s="80"/>
+      <c r="N86" s="69"/>
+      <c r="O86" s="64"/>
+      <c r="P86" s="64"/>
+      <c r="Q86" s="64"/>
     </row>
     <row r="87" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="61"/>
-      <c r="B87" s="58"/>
+      <c r="A87" s="110"/>
+      <c r="B87" s="107"/>
       <c r="C87" s="34"/>
-      <c r="D87" s="101"/>
-      <c r="E87" s="91"/>
+      <c r="D87" s="122"/>
+      <c r="E87" s="97"/>
       <c r="F87" s="27"/>
-      <c r="G87" s="75"/>
-      <c r="H87" s="75"/>
+      <c r="G87" s="68"/>
+      <c r="H87" s="68"/>
       <c r="I87" s="3" t="s">
         <v>51</v>
       </c>
@@ -3731,20 +3912,20 @@
       <c r="K87" s="5"/>
       <c r="L87" s="6"/>
       <c r="M87" s="6"/>
-      <c r="N87" s="93"/>
-      <c r="O87" s="81"/>
-      <c r="P87" s="81"/>
-      <c r="Q87" s="81"/>
+      <c r="N87" s="69"/>
+      <c r="O87" s="65"/>
+      <c r="P87" s="65"/>
+      <c r="Q87" s="65"/>
     </row>
     <row r="88" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="61"/>
-      <c r="B88" s="58"/>
+      <c r="A88" s="110"/>
+      <c r="B88" s="107"/>
       <c r="C88" s="34"/>
-      <c r="D88" s="101"/>
-      <c r="E88" s="91"/>
+      <c r="D88" s="122"/>
+      <c r="E88" s="97"/>
       <c r="F88" s="27"/>
-      <c r="G88" s="75"/>
-      <c r="H88" s="75"/>
+      <c r="G88" s="68"/>
+      <c r="H88" s="68"/>
       <c r="I88" s="3" t="s">
         <v>52</v>
       </c>
@@ -3752,20 +3933,20 @@
       <c r="K88" s="5"/>
       <c r="L88" s="6"/>
       <c r="M88" s="6"/>
-      <c r="N88" s="93"/>
-      <c r="O88" s="81"/>
-      <c r="P88" s="81"/>
-      <c r="Q88" s="81"/>
+      <c r="N88" s="69"/>
+      <c r="O88" s="65"/>
+      <c r="P88" s="65"/>
+      <c r="Q88" s="65"/>
     </row>
     <row r="89" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="61"/>
-      <c r="B89" s="58"/>
+      <c r="A89" s="110"/>
+      <c r="B89" s="107"/>
       <c r="C89" s="34"/>
-      <c r="D89" s="101"/>
-      <c r="E89" s="91"/>
+      <c r="D89" s="122"/>
+      <c r="E89" s="97"/>
       <c r="F89" s="27"/>
-      <c r="G89" s="75"/>
-      <c r="H89" s="75"/>
+      <c r="G89" s="68"/>
+      <c r="H89" s="68"/>
       <c r="I89" s="3" t="s">
         <v>53</v>
       </c>
@@ -3773,20 +3954,20 @@
       <c r="K89" s="5"/>
       <c r="L89" s="6"/>
       <c r="M89" s="6"/>
-      <c r="N89" s="93"/>
-      <c r="O89" s="81"/>
-      <c r="P89" s="81"/>
-      <c r="Q89" s="81"/>
+      <c r="N89" s="69"/>
+      <c r="O89" s="65"/>
+      <c r="P89" s="65"/>
+      <c r="Q89" s="65"/>
     </row>
     <row r="90" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="61"/>
-      <c r="B90" s="58"/>
+      <c r="A90" s="110"/>
+      <c r="B90" s="107"/>
       <c r="C90" s="34"/>
-      <c r="D90" s="101"/>
-      <c r="E90" s="91"/>
+      <c r="D90" s="122"/>
+      <c r="E90" s="97"/>
       <c r="F90" s="27"/>
-      <c r="G90" s="75"/>
-      <c r="H90" s="75"/>
+      <c r="G90" s="68"/>
+      <c r="H90" s="68"/>
       <c r="I90" s="3" t="s">
         <v>54</v>
       </c>
@@ -3794,20 +3975,20 @@
       <c r="K90" s="5"/>
       <c r="L90" s="6"/>
       <c r="M90" s="6"/>
-      <c r="N90" s="93"/>
-      <c r="O90" s="81"/>
-      <c r="P90" s="81"/>
-      <c r="Q90" s="81"/>
+      <c r="N90" s="69"/>
+      <c r="O90" s="65"/>
+      <c r="P90" s="65"/>
+      <c r="Q90" s="65"/>
     </row>
     <row r="91" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="61"/>
-      <c r="B91" s="58"/>
+      <c r="A91" s="110"/>
+      <c r="B91" s="107"/>
       <c r="C91" s="34"/>
-      <c r="D91" s="101"/>
-      <c r="E91" s="91"/>
+      <c r="D91" s="122"/>
+      <c r="E91" s="97"/>
       <c r="F91" s="27"/>
-      <c r="G91" s="75"/>
-      <c r="H91" s="75"/>
+      <c r="G91" s="68"/>
+      <c r="H91" s="68"/>
       <c r="I91" s="3" t="s">
         <v>55</v>
       </c>
@@ -3815,20 +3996,20 @@
       <c r="K91" s="5"/>
       <c r="L91" s="6"/>
       <c r="M91" s="6"/>
-      <c r="N91" s="93"/>
-      <c r="O91" s="89"/>
-      <c r="P91" s="89"/>
-      <c r="Q91" s="89"/>
+      <c r="N91" s="69"/>
+      <c r="O91" s="66"/>
+      <c r="P91" s="66"/>
+      <c r="Q91" s="66"/>
     </row>
     <row r="92" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="61"/>
-      <c r="B92" s="58"/>
+      <c r="A92" s="110"/>
+      <c r="B92" s="107"/>
       <c r="C92" s="34"/>
-      <c r="D92" s="101"/>
-      <c r="E92" s="100"/>
+      <c r="D92" s="122"/>
+      <c r="E92" s="98"/>
       <c r="F92" s="30"/>
-      <c r="G92" s="76"/>
-      <c r="H92" s="76"/>
+      <c r="G92" s="99"/>
+      <c r="H92" s="99"/>
       <c r="I92" s="3" t="s">
         <v>56</v>
       </c>
@@ -3842,18 +4023,18 @@
       <c r="Q92" s="24"/>
     </row>
     <row r="93" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="61"/>
-      <c r="B93" s="58"/>
+      <c r="A93" s="110"/>
+      <c r="B93" s="107"/>
       <c r="C93" s="34"/>
-      <c r="D93" s="101"/>
-      <c r="E93" s="90" t="s">
+      <c r="D93" s="122"/>
+      <c r="E93" s="100" t="s">
         <v>61</v>
       </c>
       <c r="F93" s="27"/>
-      <c r="G93" s="84" t="s">
+      <c r="G93" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="H93" s="84" t="s">
+      <c r="H93" s="67" t="s">
         <v>18</v>
       </c>
       <c r="I93" s="3" t="s">
@@ -3865,7 +4046,7 @@
       <c r="K93" s="5"/>
       <c r="L93" s="6"/>
       <c r="M93" s="6"/>
-      <c r="N93" s="84" t="s">
+      <c r="N93" s="67" t="s">
         <v>20</v>
       </c>
       <c r="O93" s="3" t="s">
@@ -3877,14 +4058,14 @@
       <c r="Q93" s="3"/>
     </row>
     <row r="94" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="61"/>
-      <c r="B94" s="58"/>
+      <c r="A94" s="110"/>
+      <c r="B94" s="107"/>
       <c r="C94" s="34"/>
-      <c r="D94" s="101"/>
-      <c r="E94" s="91"/>
+      <c r="D94" s="122"/>
+      <c r="E94" s="97"/>
       <c r="F94" s="30"/>
-      <c r="G94" s="75"/>
-      <c r="H94" s="75"/>
+      <c r="G94" s="68"/>
+      <c r="H94" s="68"/>
       <c r="I94" s="3" t="s">
         <v>21</v>
       </c>
@@ -3892,20 +4073,20 @@
       <c r="K94" s="5"/>
       <c r="L94" s="22"/>
       <c r="M94" s="22"/>
-      <c r="N94" s="75"/>
-      <c r="O94" s="80"/>
-      <c r="P94" s="80"/>
-      <c r="Q94" s="80"/>
+      <c r="N94" s="68"/>
+      <c r="O94" s="64"/>
+      <c r="P94" s="64"/>
+      <c r="Q94" s="64"/>
     </row>
     <row r="95" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="61"/>
-      <c r="B95" s="58"/>
+      <c r="A95" s="110"/>
+      <c r="B95" s="107"/>
       <c r="C95" s="34"/>
-      <c r="D95" s="101"/>
-      <c r="E95" s="91"/>
+      <c r="D95" s="122"/>
+      <c r="E95" s="97"/>
       <c r="F95" s="30"/>
-      <c r="G95" s="75"/>
-      <c r="H95" s="75"/>
+      <c r="G95" s="68"/>
+      <c r="H95" s="68"/>
       <c r="I95" s="11" t="s">
         <v>50</v>
       </c>
@@ -3913,20 +4094,20 @@
       <c r="K95" s="5"/>
       <c r="L95" s="22"/>
       <c r="M95" s="22"/>
-      <c r="N95" s="75"/>
-      <c r="O95" s="81"/>
-      <c r="P95" s="81"/>
-      <c r="Q95" s="81"/>
+      <c r="N95" s="68"/>
+      <c r="O95" s="65"/>
+      <c r="P95" s="65"/>
+      <c r="Q95" s="65"/>
     </row>
     <row r="96" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="61"/>
-      <c r="B96" s="58"/>
+      <c r="A96" s="110"/>
+      <c r="B96" s="107"/>
       <c r="C96" s="34"/>
-      <c r="D96" s="101"/>
-      <c r="E96" s="91"/>
+      <c r="D96" s="122"/>
+      <c r="E96" s="97"/>
       <c r="F96" s="30"/>
-      <c r="G96" s="75"/>
-      <c r="H96" s="75"/>
+      <c r="G96" s="68"/>
+      <c r="H96" s="68"/>
       <c r="I96" s="3" t="s">
         <v>51</v>
       </c>
@@ -3934,20 +4115,20 @@
       <c r="K96" s="5"/>
       <c r="L96" s="22"/>
       <c r="M96" s="22"/>
-      <c r="N96" s="75"/>
-      <c r="O96" s="81"/>
-      <c r="P96" s="81"/>
-      <c r="Q96" s="81"/>
+      <c r="N96" s="68"/>
+      <c r="O96" s="65"/>
+      <c r="P96" s="65"/>
+      <c r="Q96" s="65"/>
     </row>
     <row r="97" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="61"/>
-      <c r="B97" s="58"/>
+      <c r="A97" s="110"/>
+      <c r="B97" s="107"/>
       <c r="C97" s="34"/>
-      <c r="D97" s="101"/>
-      <c r="E97" s="91"/>
+      <c r="D97" s="122"/>
+      <c r="E97" s="97"/>
       <c r="F97" s="30"/>
-      <c r="G97" s="75"/>
-      <c r="H97" s="75"/>
+      <c r="G97" s="68"/>
+      <c r="H97" s="68"/>
       <c r="I97" s="3" t="s">
         <v>52</v>
       </c>
@@ -3955,20 +4136,20 @@
       <c r="K97" s="5"/>
       <c r="L97" s="22"/>
       <c r="M97" s="22"/>
-      <c r="N97" s="75"/>
-      <c r="O97" s="81"/>
-      <c r="P97" s="81"/>
-      <c r="Q97" s="81"/>
+      <c r="N97" s="68"/>
+      <c r="O97" s="65"/>
+      <c r="P97" s="65"/>
+      <c r="Q97" s="65"/>
     </row>
     <row r="98" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="61"/>
-      <c r="B98" s="58"/>
+      <c r="A98" s="110"/>
+      <c r="B98" s="107"/>
       <c r="C98" s="34"/>
-      <c r="D98" s="101"/>
-      <c r="E98" s="91"/>
+      <c r="D98" s="122"/>
+      <c r="E98" s="97"/>
       <c r="F98" s="30"/>
-      <c r="G98" s="75"/>
-      <c r="H98" s="75"/>
+      <c r="G98" s="68"/>
+      <c r="H98" s="68"/>
       <c r="I98" s="3" t="s">
         <v>53</v>
       </c>
@@ -3976,20 +4157,20 @@
       <c r="K98" s="5"/>
       <c r="L98" s="22"/>
       <c r="M98" s="22"/>
-      <c r="N98" s="75"/>
-      <c r="O98" s="81"/>
-      <c r="P98" s="81"/>
-      <c r="Q98" s="81"/>
+      <c r="N98" s="68"/>
+      <c r="O98" s="65"/>
+      <c r="P98" s="65"/>
+      <c r="Q98" s="65"/>
     </row>
     <row r="99" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="61"/>
-      <c r="B99" s="58"/>
+      <c r="A99" s="110"/>
+      <c r="B99" s="107"/>
       <c r="C99" s="34"/>
-      <c r="D99" s="101"/>
-      <c r="E99" s="91"/>
+      <c r="D99" s="122"/>
+      <c r="E99" s="97"/>
       <c r="F99" s="30"/>
-      <c r="G99" s="75"/>
-      <c r="H99" s="75"/>
+      <c r="G99" s="68"/>
+      <c r="H99" s="68"/>
       <c r="I99" s="3" t="s">
         <v>54</v>
       </c>
@@ -3997,20 +4178,20 @@
       <c r="K99" s="5"/>
       <c r="L99" s="22"/>
       <c r="M99" s="22"/>
-      <c r="N99" s="75"/>
-      <c r="O99" s="81"/>
-      <c r="P99" s="81"/>
-      <c r="Q99" s="81"/>
+      <c r="N99" s="68"/>
+      <c r="O99" s="65"/>
+      <c r="P99" s="65"/>
+      <c r="Q99" s="65"/>
     </row>
     <row r="100" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="61"/>
-      <c r="B100" s="58"/>
+      <c r="A100" s="110"/>
+      <c r="B100" s="107"/>
       <c r="C100" s="34"/>
-      <c r="D100" s="101"/>
-      <c r="E100" s="91"/>
+      <c r="D100" s="122"/>
+      <c r="E100" s="97"/>
       <c r="F100" s="30"/>
-      <c r="G100" s="75"/>
-      <c r="H100" s="75"/>
+      <c r="G100" s="68"/>
+      <c r="H100" s="68"/>
       <c r="I100" s="3" t="s">
         <v>55</v>
       </c>
@@ -4018,20 +4199,20 @@
       <c r="K100" s="5"/>
       <c r="L100" s="22"/>
       <c r="M100" s="22"/>
-      <c r="N100" s="75"/>
-      <c r="O100" s="81"/>
-      <c r="P100" s="81"/>
-      <c r="Q100" s="81"/>
+      <c r="N100" s="68"/>
+      <c r="O100" s="65"/>
+      <c r="P100" s="65"/>
+      <c r="Q100" s="65"/>
     </row>
     <row r="101" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="61"/>
-      <c r="B101" s="58"/>
+      <c r="A101" s="110"/>
+      <c r="B101" s="107"/>
       <c r="C101" s="34"/>
-      <c r="D101" s="101"/>
-      <c r="E101" s="92"/>
+      <c r="D101" s="122"/>
+      <c r="E101" s="101"/>
       <c r="F101" s="27"/>
-      <c r="G101" s="88"/>
-      <c r="H101" s="88"/>
+      <c r="G101" s="95"/>
+      <c r="H101" s="95"/>
       <c r="I101" s="3" t="s">
         <v>56</v>
       </c>
@@ -4039,24 +4220,24 @@
       <c r="K101" s="5"/>
       <c r="L101" s="6"/>
       <c r="M101" s="6"/>
-      <c r="N101" s="88"/>
-      <c r="O101" s="89"/>
-      <c r="P101" s="89"/>
-      <c r="Q101" s="89"/>
+      <c r="N101" s="95"/>
+      <c r="O101" s="66"/>
+      <c r="P101" s="66"/>
+      <c r="Q101" s="66"/>
     </row>
     <row r="102" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="61"/>
-      <c r="B102" s="58"/>
+      <c r="A102" s="110"/>
+      <c r="B102" s="107"/>
       <c r="C102" s="34"/>
-      <c r="D102" s="101"/>
-      <c r="E102" s="99" t="s">
+      <c r="D102" s="122"/>
+      <c r="E102" s="96" t="s">
         <v>62</v>
       </c>
       <c r="F102" s="27"/>
-      <c r="G102" s="84" t="s">
+      <c r="G102" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="H102" s="84" t="s">
+      <c r="H102" s="67" t="s">
         <v>18</v>
       </c>
       <c r="I102" s="3" t="s">
@@ -4068,7 +4249,7 @@
       <c r="K102" s="5"/>
       <c r="L102" s="6"/>
       <c r="M102" s="6"/>
-      <c r="N102" s="84" t="s">
+      <c r="N102" s="67" t="s">
         <v>20</v>
       </c>
       <c r="O102" s="3" t="s">
@@ -4080,14 +4261,14 @@
       <c r="Q102" s="3"/>
     </row>
     <row r="103" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="61"/>
-      <c r="B103" s="58"/>
+      <c r="A103" s="110"/>
+      <c r="B103" s="107"/>
       <c r="C103" s="34"/>
-      <c r="D103" s="101"/>
-      <c r="E103" s="100"/>
+      <c r="D103" s="122"/>
+      <c r="E103" s="98"/>
       <c r="F103" s="27"/>
-      <c r="G103" s="88"/>
-      <c r="H103" s="88"/>
+      <c r="G103" s="95"/>
+      <c r="H103" s="95"/>
       <c r="I103" s="3" t="s">
         <v>21</v>
       </c>
@@ -4095,26 +4276,26 @@
       <c r="K103" s="5"/>
       <c r="L103" s="6"/>
       <c r="M103" s="6"/>
-      <c r="N103" s="88"/>
+      <c r="N103" s="95"/>
       <c r="O103" s="3"/>
       <c r="P103" s="24"/>
       <c r="Q103" s="3"/>
     </row>
     <row r="104" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="61"/>
-      <c r="B104" s="58"/>
+      <c r="A104" s="110"/>
+      <c r="B104" s="107"/>
       <c r="C104" s="34"/>
-      <c r="D104" s="101"/>
-      <c r="E104" s="82" t="s">
+      <c r="D104" s="122"/>
+      <c r="E104" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="F104" s="86" t="s">
+      <c r="F104" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="G104" s="84" t="s">
+      <c r="G104" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="H104" s="84" t="s">
+      <c r="H104" s="67" t="s">
         <v>18</v>
       </c>
       <c r="I104" s="3" t="s">
@@ -4126,7 +4307,7 @@
       <c r="K104" s="5"/>
       <c r="L104" s="5"/>
       <c r="M104" s="6"/>
-      <c r="N104" s="84" t="s">
+      <c r="N104" s="67" t="s">
         <v>20</v>
       </c>
       <c r="O104" s="3" t="s">
@@ -4138,14 +4319,14 @@
       <c r="Q104" s="3"/>
     </row>
     <row r="105" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="61"/>
-      <c r="B105" s="58"/>
+      <c r="A105" s="110"/>
+      <c r="B105" s="107"/>
       <c r="C105" s="34"/>
-      <c r="D105" s="101"/>
-      <c r="E105" s="83"/>
-      <c r="F105" s="87"/>
-      <c r="G105" s="75"/>
-      <c r="H105" s="75"/>
+      <c r="D105" s="122"/>
+      <c r="E105" s="87"/>
+      <c r="F105" s="88"/>
+      <c r="G105" s="68"/>
+      <c r="H105" s="68"/>
       <c r="I105" s="4" t="s">
         <v>21</v>
       </c>
@@ -4153,418 +4334,1477 @@
       <c r="K105" s="4"/>
       <c r="L105" s="4"/>
       <c r="M105" s="4"/>
-      <c r="N105" s="75"/>
-      <c r="O105" s="77" t="s">
+      <c r="N105" s="68"/>
+      <c r="O105" s="102" t="s">
         <v>65</v>
       </c>
       <c r="P105" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="Q105" s="80"/>
+      <c r="Q105" s="64"/>
     </row>
     <row r="106" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="61"/>
-      <c r="B106" s="58"/>
+      <c r="A106" s="110"/>
+      <c r="B106" s="107"/>
       <c r="C106" s="34"/>
-      <c r="D106" s="101"/>
-      <c r="E106" s="83"/>
-      <c r="F106" s="87"/>
-      <c r="G106" s="75"/>
-      <c r="H106" s="85"/>
+      <c r="D106" s="122"/>
+      <c r="E106" s="87"/>
+      <c r="F106" s="88"/>
+      <c r="G106" s="68"/>
+      <c r="H106" s="70"/>
       <c r="I106" s="16"/>
       <c r="J106" s="17"/>
       <c r="K106" s="17"/>
       <c r="L106" s="18"/>
       <c r="M106" s="18"/>
-      <c r="N106" s="75"/>
-      <c r="O106" s="78"/>
+      <c r="N106" s="68"/>
+      <c r="O106" s="103"/>
       <c r="P106" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="Q106" s="81"/>
+      <c r="Q106" s="65"/>
     </row>
     <row r="107" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="61"/>
-      <c r="B107" s="58"/>
+      <c r="A107" s="110"/>
+      <c r="B107" s="107"/>
       <c r="C107" s="34"/>
-      <c r="D107" s="101"/>
-      <c r="E107" s="83"/>
-      <c r="F107" s="87"/>
-      <c r="G107" s="75"/>
-      <c r="H107" s="85"/>
+      <c r="D107" s="122"/>
+      <c r="E107" s="87"/>
+      <c r="F107" s="88"/>
+      <c r="G107" s="68"/>
+      <c r="H107" s="70"/>
       <c r="I107" s="18"/>
       <c r="J107" s="17"/>
       <c r="K107" s="17"/>
       <c r="L107" s="18"/>
       <c r="M107" s="18"/>
-      <c r="N107" s="75"/>
-      <c r="O107" s="78"/>
+      <c r="N107" s="68"/>
+      <c r="O107" s="103"/>
       <c r="P107" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="Q107" s="81"/>
+      <c r="Q107" s="65"/>
     </row>
     <row r="108" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="61"/>
-      <c r="B108" s="58"/>
+      <c r="A108" s="110"/>
+      <c r="B108" s="107"/>
       <c r="C108" s="34"/>
-      <c r="D108" s="101"/>
-      <c r="E108" s="83"/>
-      <c r="F108" s="87"/>
-      <c r="G108" s="75"/>
-      <c r="H108" s="85"/>
+      <c r="D108" s="122"/>
+      <c r="E108" s="87"/>
+      <c r="F108" s="88"/>
+      <c r="G108" s="68"/>
+      <c r="H108" s="70"/>
       <c r="I108" s="18"/>
       <c r="J108" s="17"/>
       <c r="K108" s="17"/>
       <c r="L108" s="18"/>
       <c r="M108" s="18"/>
-      <c r="N108" s="75"/>
-      <c r="O108" s="78"/>
+      <c r="N108" s="68"/>
+      <c r="O108" s="103"/>
       <c r="P108" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="Q108" s="81"/>
+      <c r="Q108" s="65"/>
     </row>
     <row r="109" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="61"/>
-      <c r="B109" s="58"/>
+      <c r="A109" s="110"/>
+      <c r="B109" s="107"/>
       <c r="C109" s="34"/>
-      <c r="D109" s="101"/>
-      <c r="E109" s="83"/>
-      <c r="F109" s="87"/>
-      <c r="G109" s="75"/>
-      <c r="H109" s="85"/>
+      <c r="D109" s="122"/>
+      <c r="E109" s="87"/>
+      <c r="F109" s="88"/>
+      <c r="G109" s="68"/>
+      <c r="H109" s="70"/>
       <c r="I109" s="18"/>
       <c r="J109" s="17"/>
       <c r="K109" s="17"/>
       <c r="L109" s="18"/>
       <c r="M109" s="18"/>
-      <c r="N109" s="75"/>
-      <c r="O109" s="78"/>
+      <c r="N109" s="68"/>
+      <c r="O109" s="103"/>
       <c r="P109" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="Q109" s="81"/>
+      <c r="Q109" s="65"/>
     </row>
     <row r="110" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="61"/>
-      <c r="B110" s="58"/>
+      <c r="A110" s="110"/>
+      <c r="B110" s="107"/>
       <c r="C110" s="34"/>
-      <c r="D110" s="101"/>
-      <c r="E110" s="83"/>
-      <c r="F110" s="87"/>
-      <c r="G110" s="75"/>
-      <c r="H110" s="85"/>
+      <c r="D110" s="122"/>
+      <c r="E110" s="87"/>
+      <c r="F110" s="88"/>
+      <c r="G110" s="68"/>
+      <c r="H110" s="70"/>
       <c r="I110" s="18"/>
       <c r="J110" s="17"/>
       <c r="K110" s="17"/>
       <c r="L110" s="18"/>
       <c r="M110" s="18"/>
-      <c r="N110" s="75"/>
-      <c r="O110" s="78"/>
+      <c r="N110" s="68"/>
+      <c r="O110" s="103"/>
       <c r="P110" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="Q110" s="81"/>
+      <c r="Q110" s="65"/>
     </row>
     <row r="111" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="61"/>
-      <c r="B111" s="58"/>
+      <c r="A111" s="110"/>
+      <c r="B111" s="107"/>
       <c r="C111" s="34"/>
-      <c r="D111" s="101"/>
-      <c r="E111" s="83"/>
-      <c r="F111" s="87"/>
-      <c r="G111" s="75"/>
-      <c r="H111" s="85"/>
+      <c r="D111" s="122"/>
+      <c r="E111" s="87"/>
+      <c r="F111" s="88"/>
+      <c r="G111" s="68"/>
+      <c r="H111" s="70"/>
       <c r="I111" s="18"/>
       <c r="J111" s="17"/>
       <c r="K111" s="17"/>
       <c r="L111" s="18"/>
       <c r="M111" s="18"/>
-      <c r="N111" s="75"/>
-      <c r="O111" s="78"/>
+      <c r="N111" s="68"/>
+      <c r="O111" s="103"/>
       <c r="P111" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="Q111" s="81"/>
+      <c r="Q111" s="65"/>
     </row>
     <row r="112" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="61"/>
-      <c r="B112" s="58"/>
+      <c r="A112" s="110"/>
+      <c r="B112" s="107"/>
       <c r="C112" s="34"/>
-      <c r="D112" s="101"/>
-      <c r="E112" s="83"/>
-      <c r="F112" s="87"/>
-      <c r="G112" s="75"/>
-      <c r="H112" s="85"/>
+      <c r="D112" s="122"/>
+      <c r="E112" s="87"/>
+      <c r="F112" s="88"/>
+      <c r="G112" s="68"/>
+      <c r="H112" s="70"/>
       <c r="I112" s="18"/>
       <c r="J112" s="17"/>
       <c r="K112" s="17"/>
       <c r="L112" s="18"/>
       <c r="M112" s="18"/>
-      <c r="N112" s="75"/>
-      <c r="O112" s="78"/>
+      <c r="N112" s="68"/>
+      <c r="O112" s="103"/>
       <c r="P112" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="Q112" s="81"/>
-    </row>
-    <row r="113" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="61"/>
-      <c r="B113" s="58"/>
+      <c r="Q112" s="65"/>
+    </row>
+    <row r="113" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="110"/>
+      <c r="B113" s="107"/>
       <c r="C113" s="34"/>
-      <c r="D113" s="101"/>
-      <c r="E113" s="83"/>
-      <c r="F113" s="87"/>
-      <c r="G113" s="75"/>
-      <c r="H113" s="85"/>
+      <c r="D113" s="122"/>
+      <c r="E113" s="87"/>
+      <c r="F113" s="88"/>
+      <c r="G113" s="68"/>
+      <c r="H113" s="70"/>
       <c r="I113" s="18"/>
       <c r="J113" s="17"/>
       <c r="K113" s="17"/>
       <c r="L113" s="18"/>
       <c r="M113" s="18"/>
-      <c r="N113" s="75"/>
-      <c r="O113" s="79"/>
-      <c r="P113" s="3" t="s">
+      <c r="N113" s="68"/>
+      <c r="O113" s="103"/>
+      <c r="P113" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="Q113" s="81"/>
-    </row>
-    <row r="114" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="61"/>
-      <c r="B114" s="58"/>
+      <c r="Q113" s="65"/>
+    </row>
+    <row r="114" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="110"/>
+      <c r="B114" s="107"/>
       <c r="C114" s="34"/>
-      <c r="D114" s="101"/>
-      <c r="E114" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="F114" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="G114" s="74" t="s">
-        <v>23</v>
-      </c>
-      <c r="H114" s="74" t="s">
-        <v>18</v>
-      </c>
+      <c r="D114" s="122"/>
+      <c r="E114" s="119" t="s">
+        <v>115</v>
+      </c>
+      <c r="F114" s="58"/>
+      <c r="G114" s="52"/>
+      <c r="H114" s="52"/>
       <c r="I114" s="4" t="s">
         <v>8</v>
       </c>
       <c r="J114" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="K114" s="5"/>
-      <c r="L114" s="5"/>
-      <c r="M114" s="22"/>
+        <v>115</v>
+      </c>
+      <c r="K114" s="4"/>
+      <c r="L114" s="4"/>
+      <c r="M114" s="4"/>
       <c r="N114" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="O114" s="4" t="s">
+      <c r="O114" s="128" t="s">
         <v>36</v>
       </c>
-      <c r="P114" s="4" t="s">
+      <c r="P114" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="Q114" s="4"/>
-    </row>
-    <row r="115" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="61"/>
-      <c r="B115" s="58"/>
+      <c r="Q114" s="56"/>
+    </row>
+    <row r="115" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="110"/>
+      <c r="B115" s="107"/>
       <c r="C115" s="34"/>
-      <c r="D115" s="101"/>
-      <c r="E115" s="72"/>
-      <c r="F115" s="34"/>
-      <c r="G115" s="75"/>
-      <c r="H115" s="75"/>
-      <c r="I115" s="11" t="s">
+      <c r="D115" s="122"/>
+      <c r="E115" s="120"/>
+      <c r="F115" s="58"/>
+      <c r="G115" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="H115" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="I115" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J115" s="4"/>
+      <c r="K115" s="4"/>
+      <c r="L115" s="4"/>
+      <c r="M115" s="4"/>
+      <c r="N115" s="32"/>
+      <c r="O115" s="55"/>
+      <c r="P115" s="4"/>
+      <c r="Q115" s="56"/>
+    </row>
+    <row r="116" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="110"/>
+      <c r="B116" s="107"/>
+      <c r="C116" s="34"/>
+      <c r="D116" s="122"/>
+      <c r="E116" s="121"/>
+      <c r="F116" s="58"/>
+      <c r="G116" s="54"/>
+      <c r="H116" s="54"/>
+      <c r="I116" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J116" s="4"/>
+      <c r="K116" s="4"/>
+      <c r="L116" s="4"/>
+      <c r="M116" s="4"/>
+      <c r="N116" s="32"/>
+      <c r="O116" s="55"/>
+      <c r="P116" s="4"/>
+      <c r="Q116" s="56"/>
+    </row>
+    <row r="117" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="110"/>
+      <c r="B117" s="107"/>
+      <c r="C117" s="34"/>
+      <c r="D117" s="122"/>
+      <c r="E117" s="119" t="s">
+        <v>116</v>
+      </c>
+      <c r="F117" s="129"/>
+      <c r="G117" s="75" t="s">
+        <v>23</v>
+      </c>
+      <c r="H117" s="75" t="s">
+        <v>18</v>
+      </c>
+      <c r="I117" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J117" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="K117" s="4"/>
+      <c r="L117" s="4"/>
+      <c r="M117" s="4"/>
+      <c r="N117" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="O117" s="130" t="s">
+        <v>36</v>
+      </c>
+      <c r="P117" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q117" s="56"/>
+    </row>
+    <row r="118" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="110"/>
+      <c r="B118" s="107"/>
+      <c r="C118" s="34"/>
+      <c r="D118" s="122"/>
+      <c r="E118" s="120"/>
+      <c r="F118" s="58"/>
+      <c r="G118" s="68"/>
+      <c r="H118" s="68"/>
+      <c r="I118" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J118" s="4"/>
+      <c r="K118" s="4"/>
+      <c r="L118" s="4"/>
+      <c r="M118" s="4"/>
+      <c r="N118" s="32"/>
+      <c r="O118" s="55"/>
+      <c r="P118" s="19"/>
+      <c r="Q118" s="56"/>
+    </row>
+    <row r="119" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="110"/>
+      <c r="B119" s="107"/>
+      <c r="C119" s="34"/>
+      <c r="D119" s="122"/>
+      <c r="E119" s="120"/>
+      <c r="F119" s="58"/>
+      <c r="G119" s="68"/>
+      <c r="H119" s="68"/>
+      <c r="I119" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="J119" s="4"/>
+      <c r="K119" s="4"/>
+      <c r="L119" s="4"/>
+      <c r="M119" s="4"/>
+      <c r="N119" s="32"/>
+      <c r="O119" s="55"/>
+      <c r="P119" s="19"/>
+      <c r="Q119" s="56"/>
+    </row>
+    <row r="120" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="110"/>
+      <c r="B120" s="107"/>
+      <c r="C120" s="34"/>
+      <c r="D120" s="122"/>
+      <c r="E120" s="120"/>
+      <c r="F120" s="58"/>
+      <c r="G120" s="68"/>
+      <c r="H120" s="68"/>
+      <c r="I120" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J120" s="4"/>
+      <c r="K120" s="4"/>
+      <c r="L120" s="4"/>
+      <c r="M120" s="4"/>
+      <c r="N120" s="32"/>
+      <c r="O120" s="55"/>
+      <c r="P120" s="19"/>
+      <c r="Q120" s="56"/>
+    </row>
+    <row r="121" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="110"/>
+      <c r="B121" s="107"/>
+      <c r="C121" s="34"/>
+      <c r="D121" s="122"/>
+      <c r="E121" s="120"/>
+      <c r="F121" s="58"/>
+      <c r="G121" s="68"/>
+      <c r="H121" s="68"/>
+      <c r="I121" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="J121" s="4"/>
+      <c r="K121" s="4"/>
+      <c r="L121" s="4"/>
+      <c r="M121" s="4"/>
+      <c r="N121" s="32"/>
+      <c r="O121" s="55"/>
+      <c r="P121" s="19"/>
+      <c r="Q121" s="56"/>
+    </row>
+    <row r="122" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="110"/>
+      <c r="B122" s="107"/>
+      <c r="C122" s="34"/>
+      <c r="D122" s="122"/>
+      <c r="E122" s="120"/>
+      <c r="F122" s="58"/>
+      <c r="G122" s="68"/>
+      <c r="H122" s="68"/>
+      <c r="I122" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="J122" s="4"/>
+      <c r="K122" s="4"/>
+      <c r="L122" s="4"/>
+      <c r="M122" s="4"/>
+      <c r="N122" s="32"/>
+      <c r="O122" s="55"/>
+      <c r="P122" s="19"/>
+      <c r="Q122" s="56"/>
+    </row>
+    <row r="123" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="110"/>
+      <c r="B123" s="107"/>
+      <c r="C123" s="34"/>
+      <c r="D123" s="122"/>
+      <c r="E123" s="120"/>
+      <c r="F123" s="58"/>
+      <c r="G123" s="68"/>
+      <c r="H123" s="68"/>
+      <c r="I123" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="J123" s="4"/>
+      <c r="K123" s="4"/>
+      <c r="L123" s="4"/>
+      <c r="M123" s="4"/>
+      <c r="N123" s="32"/>
+      <c r="O123" s="55"/>
+      <c r="P123" s="19"/>
+      <c r="Q123" s="56"/>
+    </row>
+    <row r="124" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="110"/>
+      <c r="B124" s="107"/>
+      <c r="C124" s="34"/>
+      <c r="D124" s="122"/>
+      <c r="E124" s="121"/>
+      <c r="F124" s="58"/>
+      <c r="G124" s="99"/>
+      <c r="H124" s="99"/>
+      <c r="I124" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="J124" s="4"/>
+      <c r="K124" s="4"/>
+      <c r="L124" s="4"/>
+      <c r="M124" s="4"/>
+      <c r="N124" s="32"/>
+      <c r="O124" s="55"/>
+      <c r="P124" s="19"/>
+      <c r="Q124" s="56"/>
+    </row>
+    <row r="125" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="110"/>
+      <c r="B125" s="107"/>
+      <c r="C125" s="34"/>
+      <c r="D125" s="122"/>
+      <c r="E125" s="119" t="s">
+        <v>122</v>
+      </c>
+      <c r="F125" s="58"/>
+      <c r="G125" s="75" t="s">
+        <v>23</v>
+      </c>
+      <c r="H125" s="75" t="s">
+        <v>18</v>
+      </c>
+      <c r="I125" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J125" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="K125" s="4"/>
+      <c r="L125" s="4"/>
+      <c r="M125" s="4"/>
+      <c r="N125" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="O125" s="128" t="s">
+        <v>36</v>
+      </c>
+      <c r="P125" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q125" s="56"/>
+    </row>
+    <row r="126" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="110"/>
+      <c r="B126" s="107"/>
+      <c r="C126" s="34"/>
+      <c r="D126" s="122"/>
+      <c r="E126" s="120"/>
+      <c r="F126" s="58"/>
+      <c r="G126" s="68"/>
+      <c r="H126" s="68"/>
+      <c r="I126" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="J126" s="4"/>
+      <c r="K126" s="4"/>
+      <c r="L126" s="4"/>
+      <c r="M126" s="4"/>
+      <c r="N126" s="32"/>
+      <c r="O126" s="127"/>
+      <c r="P126" s="4"/>
+      <c r="Q126" s="56"/>
+    </row>
+    <row r="127" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="110"/>
+      <c r="B127" s="107"/>
+      <c r="C127" s="34"/>
+      <c r="D127" s="122"/>
+      <c r="E127" s="120"/>
+      <c r="F127" s="58"/>
+      <c r="G127" s="68"/>
+      <c r="H127" s="68"/>
+      <c r="I127" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J127" s="4"/>
+      <c r="K127" s="4"/>
+      <c r="L127" s="4"/>
+      <c r="M127" s="4"/>
+      <c r="N127" s="32"/>
+      <c r="O127" s="127"/>
+      <c r="P127" s="4"/>
+      <c r="Q127" s="56"/>
+    </row>
+    <row r="128" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="110"/>
+      <c r="B128" s="107"/>
+      <c r="C128" s="34"/>
+      <c r="D128" s="122"/>
+      <c r="E128" s="120"/>
+      <c r="F128" s="58"/>
+      <c r="G128" s="68"/>
+      <c r="H128" s="68"/>
+      <c r="I128" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="J128" s="4"/>
+      <c r="K128" s="4"/>
+      <c r="L128" s="4"/>
+      <c r="M128" s="4"/>
+      <c r="N128" s="32"/>
+      <c r="O128" s="127"/>
+      <c r="P128" s="4"/>
+      <c r="Q128" s="56"/>
+    </row>
+    <row r="129" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="110"/>
+      <c r="B129" s="107"/>
+      <c r="C129" s="34"/>
+      <c r="D129" s="122"/>
+      <c r="E129" s="120"/>
+      <c r="F129" s="58"/>
+      <c r="G129" s="68"/>
+      <c r="H129" s="68"/>
+      <c r="I129" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="J129" s="4"/>
+      <c r="K129" s="4"/>
+      <c r="L129" s="4"/>
+      <c r="M129" s="4"/>
+      <c r="N129" s="32"/>
+      <c r="O129" s="127"/>
+      <c r="P129" s="4"/>
+      <c r="Q129" s="56"/>
+    </row>
+    <row r="130" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="110"/>
+      <c r="B130" s="107"/>
+      <c r="C130" s="34"/>
+      <c r="D130" s="122"/>
+      <c r="E130" s="120"/>
+      <c r="F130" s="58"/>
+      <c r="G130" s="68"/>
+      <c r="H130" s="68"/>
+      <c r="I130" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="J130" s="4"/>
+      <c r="K130" s="4"/>
+      <c r="L130" s="4"/>
+      <c r="M130" s="4"/>
+      <c r="N130" s="32"/>
+      <c r="O130" s="127"/>
+      <c r="P130" s="4"/>
+      <c r="Q130" s="56"/>
+    </row>
+    <row r="131" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="110"/>
+      <c r="B131" s="107"/>
+      <c r="C131" s="34"/>
+      <c r="D131" s="122"/>
+      <c r="E131" s="121"/>
+      <c r="F131" s="58"/>
+      <c r="G131" s="99"/>
+      <c r="H131" s="99"/>
+      <c r="I131" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="J131" s="4"/>
+      <c r="K131" s="4"/>
+      <c r="L131" s="4"/>
+      <c r="M131" s="4"/>
+      <c r="N131" s="32"/>
+      <c r="O131" s="127"/>
+      <c r="P131" s="4"/>
+      <c r="Q131" s="56"/>
+    </row>
+    <row r="132" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="110"/>
+      <c r="B132" s="107"/>
+      <c r="C132" s="34"/>
+      <c r="D132" s="122"/>
+      <c r="E132" s="119" t="s">
+        <v>123</v>
+      </c>
+      <c r="F132" s="58"/>
+      <c r="G132" s="75" t="s">
+        <v>23</v>
+      </c>
+      <c r="H132" s="75" t="s">
+        <v>18</v>
+      </c>
+      <c r="I132" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J132" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K132" s="4"/>
+      <c r="L132" s="4"/>
+      <c r="M132" s="4"/>
+      <c r="N132" s="32"/>
+      <c r="O132" s="128" t="s">
+        <v>36</v>
+      </c>
+      <c r="P132" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q132" s="56"/>
+    </row>
+    <row r="133" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="110"/>
+      <c r="B133" s="107"/>
+      <c r="C133" s="34"/>
+      <c r="D133" s="122"/>
+      <c r="E133" s="120"/>
+      <c r="F133" s="58"/>
+      <c r="G133" s="68"/>
+      <c r="H133" s="68"/>
+      <c r="I133" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J133" s="4"/>
+      <c r="K133" s="4"/>
+      <c r="L133" s="4"/>
+      <c r="M133" s="4"/>
+      <c r="N133" s="32"/>
+      <c r="O133" s="102" t="s">
+        <v>126</v>
+      </c>
+      <c r="P133" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q133" s="56"/>
+    </row>
+    <row r="134" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="110"/>
+      <c r="B134" s="107"/>
+      <c r="C134" s="34"/>
+      <c r="D134" s="122"/>
+      <c r="E134" s="120"/>
+      <c r="F134" s="58"/>
+      <c r="G134" s="68"/>
+      <c r="H134" s="68"/>
+      <c r="I134" s="18"/>
+      <c r="J134" s="18"/>
+      <c r="K134" s="18"/>
+      <c r="L134" s="18"/>
+      <c r="M134" s="18"/>
+      <c r="N134" s="53"/>
+      <c r="O134" s="103"/>
+      <c r="P134" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q134" s="56"/>
+    </row>
+    <row r="135" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="110"/>
+      <c r="B135" s="107"/>
+      <c r="C135" s="34"/>
+      <c r="D135" s="122"/>
+      <c r="E135" s="120"/>
+      <c r="F135" s="58"/>
+      <c r="G135" s="68"/>
+      <c r="H135" s="68"/>
+      <c r="I135" s="18"/>
+      <c r="J135" s="18"/>
+      <c r="K135" s="18"/>
+      <c r="L135" s="18"/>
+      <c r="M135" s="18"/>
+      <c r="N135" s="53"/>
+      <c r="O135" s="103"/>
+      <c r="P135" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q135" s="56"/>
+    </row>
+    <row r="136" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="110"/>
+      <c r="B136" s="107"/>
+      <c r="C136" s="34"/>
+      <c r="D136" s="122"/>
+      <c r="E136" s="120"/>
+      <c r="F136" s="58"/>
+      <c r="G136" s="68"/>
+      <c r="H136" s="68"/>
+      <c r="I136" s="18"/>
+      <c r="J136" s="18"/>
+      <c r="K136" s="18"/>
+      <c r="L136" s="18"/>
+      <c r="M136" s="18"/>
+      <c r="N136" s="53"/>
+      <c r="O136" s="103"/>
+      <c r="P136" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q136" s="56"/>
+    </row>
+    <row r="137" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="110"/>
+      <c r="B137" s="107"/>
+      <c r="C137" s="34"/>
+      <c r="D137" s="122"/>
+      <c r="E137" s="120"/>
+      <c r="F137" s="58"/>
+      <c r="G137" s="68"/>
+      <c r="H137" s="68"/>
+      <c r="I137" s="18"/>
+      <c r="J137" s="18"/>
+      <c r="K137" s="18"/>
+      <c r="L137" s="18"/>
+      <c r="M137" s="18"/>
+      <c r="N137" s="53"/>
+      <c r="O137" s="103"/>
+      <c r="P137" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q137" s="56"/>
+    </row>
+    <row r="138" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="110"/>
+      <c r="B138" s="107"/>
+      <c r="C138" s="34"/>
+      <c r="D138" s="122"/>
+      <c r="E138" s="120"/>
+      <c r="F138" s="58"/>
+      <c r="G138" s="68"/>
+      <c r="H138" s="68"/>
+      <c r="I138" s="18"/>
+      <c r="J138" s="18"/>
+      <c r="K138" s="18"/>
+      <c r="L138" s="18"/>
+      <c r="M138" s="18"/>
+      <c r="N138" s="53"/>
+      <c r="O138" s="103"/>
+      <c r="P138" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q138" s="56"/>
+    </row>
+    <row r="139" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="110"/>
+      <c r="B139" s="107"/>
+      <c r="C139" s="34"/>
+      <c r="D139" s="122"/>
+      <c r="E139" s="121"/>
+      <c r="F139" s="58"/>
+      <c r="G139" s="99"/>
+      <c r="H139" s="99"/>
+      <c r="I139" s="19"/>
+      <c r="J139" s="19"/>
+      <c r="K139" s="19"/>
+      <c r="L139" s="19"/>
+      <c r="M139" s="19"/>
+      <c r="N139" s="54"/>
+      <c r="O139" s="104"/>
+      <c r="P139" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q139" s="56"/>
+    </row>
+    <row r="140" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="110"/>
+      <c r="B140" s="107"/>
+      <c r="C140" s="34"/>
+      <c r="D140" s="122"/>
+      <c r="E140" s="135" t="s">
+        <v>124</v>
+      </c>
+      <c r="F140" s="58"/>
+      <c r="G140" s="75" t="s">
+        <v>23</v>
+      </c>
+      <c r="H140" s="75" t="s">
+        <v>18</v>
+      </c>
+      <c r="I140" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J140" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="K140" s="4"/>
+      <c r="L140" s="4"/>
+      <c r="M140" s="4"/>
+      <c r="N140" s="32"/>
+      <c r="O140" s="128" t="s">
+        <v>36</v>
+      </c>
+      <c r="P140" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q140" s="56"/>
+    </row>
+    <row r="141" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="110"/>
+      <c r="B141" s="107"/>
+      <c r="C141" s="34"/>
+      <c r="D141" s="122"/>
+      <c r="E141" s="136"/>
+      <c r="F141" s="58"/>
+      <c r="G141" s="68"/>
+      <c r="H141" s="68"/>
+      <c r="I141" s="18"/>
+      <c r="J141" s="17"/>
+      <c r="K141" s="17"/>
+      <c r="L141" s="18"/>
+      <c r="M141" s="18"/>
+      <c r="N141" s="57"/>
+      <c r="O141" s="102" t="s">
+        <v>125</v>
+      </c>
+      <c r="P141" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q141" s="56"/>
+    </row>
+    <row r="142" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="110"/>
+      <c r="B142" s="107"/>
+      <c r="C142" s="34"/>
+      <c r="D142" s="122"/>
+      <c r="E142" s="136"/>
+      <c r="F142" s="58"/>
+      <c r="G142" s="68"/>
+      <c r="H142" s="68"/>
+      <c r="I142" s="18"/>
+      <c r="J142" s="17"/>
+      <c r="K142" s="17"/>
+      <c r="L142" s="18"/>
+      <c r="M142" s="18"/>
+      <c r="N142" s="57"/>
+      <c r="O142" s="103"/>
+      <c r="P142" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q142" s="56"/>
+    </row>
+    <row r="143" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="110"/>
+      <c r="B143" s="107"/>
+      <c r="C143" s="34"/>
+      <c r="D143" s="122"/>
+      <c r="E143" s="136"/>
+      <c r="F143" s="131"/>
+      <c r="G143" s="68"/>
+      <c r="H143" s="68"/>
+      <c r="I143" s="18"/>
+      <c r="J143" s="18"/>
+      <c r="K143" s="18"/>
+      <c r="L143" s="18"/>
+      <c r="M143" s="18"/>
+      <c r="N143" s="53"/>
+      <c r="O143" s="103"/>
+      <c r="P143" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q143" s="56"/>
+    </row>
+    <row r="144" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="110"/>
+      <c r="B144" s="107"/>
+      <c r="C144" s="34"/>
+      <c r="D144" s="122"/>
+      <c r="E144" s="136"/>
+      <c r="G144" s="68"/>
+      <c r="H144" s="68"/>
+      <c r="I144" s="132"/>
+      <c r="J144" s="132"/>
+      <c r="K144" s="132"/>
+      <c r="L144" s="132"/>
+      <c r="M144" s="132"/>
+      <c r="N144" s="132"/>
+      <c r="O144" s="103"/>
+      <c r="P144" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q144" s="56"/>
+    </row>
+    <row r="145" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="110"/>
+      <c r="B145" s="107"/>
+      <c r="C145" s="34"/>
+      <c r="D145" s="122"/>
+      <c r="E145" s="136"/>
+      <c r="G145" s="68"/>
+      <c r="H145" s="68"/>
+      <c r="I145" s="132"/>
+      <c r="J145" s="132"/>
+      <c r="K145" s="132"/>
+      <c r="L145" s="132"/>
+      <c r="M145" s="132"/>
+      <c r="N145" s="132"/>
+      <c r="O145" s="103"/>
+      <c r="P145" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q145" s="56"/>
+    </row>
+    <row r="146" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="110"/>
+      <c r="B146" s="107"/>
+      <c r="C146" s="34"/>
+      <c r="D146" s="122"/>
+      <c r="E146" s="136"/>
+      <c r="G146" s="68"/>
+      <c r="H146" s="68"/>
+      <c r="I146" s="132"/>
+      <c r="J146" s="132"/>
+      <c r="K146" s="132"/>
+      <c r="L146" s="132"/>
+      <c r="M146" s="132"/>
+      <c r="N146" s="132"/>
+      <c r="O146" s="103"/>
+      <c r="P146" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q146" s="56"/>
+    </row>
+    <row r="147" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="110"/>
+      <c r="B147" s="107"/>
+      <c r="C147" s="34"/>
+      <c r="D147" s="122"/>
+      <c r="E147" s="137"/>
+      <c r="G147" s="99"/>
+      <c r="H147" s="99"/>
+      <c r="I147" s="133"/>
+      <c r="J147" s="133"/>
+      <c r="K147" s="133"/>
+      <c r="L147" s="133"/>
+      <c r="M147" s="133"/>
+      <c r="N147" s="133"/>
+      <c r="O147" s="104"/>
+      <c r="P147" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q147" s="56"/>
+    </row>
+    <row r="148" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="110"/>
+      <c r="B148" s="107"/>
+      <c r="C148" s="34"/>
+      <c r="D148" s="122"/>
+      <c r="E148" s="138" t="s">
+        <v>130</v>
+      </c>
+      <c r="F148" s="139"/>
+      <c r="G148" s="134" t="s">
+        <v>23</v>
+      </c>
+      <c r="H148" s="134" t="s">
+        <v>18</v>
+      </c>
+      <c r="I148" s="133" t="s">
+        <v>8</v>
+      </c>
+      <c r="J148" s="133" t="s">
+        <v>130</v>
+      </c>
+      <c r="K148" s="133"/>
+      <c r="L148" s="133"/>
+      <c r="M148" s="133"/>
+      <c r="N148" s="133"/>
+      <c r="O148" s="128" t="s">
+        <v>36</v>
+      </c>
+      <c r="P148" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q148" s="56"/>
+    </row>
+    <row r="149" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="110"/>
+      <c r="B149" s="107"/>
+      <c r="C149" s="34"/>
+      <c r="D149" s="122"/>
+      <c r="E149" s="138"/>
+      <c r="F149" s="140"/>
+      <c r="G149" s="134"/>
+      <c r="H149" s="134"/>
+      <c r="I149" s="133" t="s">
+        <v>51</v>
+      </c>
+      <c r="J149" s="133"/>
+      <c r="K149" s="133"/>
+      <c r="L149" s="133"/>
+      <c r="M149" s="133"/>
+      <c r="N149" s="133"/>
+      <c r="O149" s="102" t="s">
+        <v>131</v>
+      </c>
+      <c r="P149" s="4"/>
+      <c r="Q149" s="56"/>
+    </row>
+    <row r="150" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="110"/>
+      <c r="B150" s="107"/>
+      <c r="C150" s="34"/>
+      <c r="D150" s="122"/>
+      <c r="E150" s="138"/>
+      <c r="F150" s="140"/>
+      <c r="G150" s="134"/>
+      <c r="H150" s="134"/>
+      <c r="I150" s="133"/>
+      <c r="J150" s="133"/>
+      <c r="K150" s="133"/>
+      <c r="L150" s="133"/>
+      <c r="M150" s="133"/>
+      <c r="N150" s="133"/>
+      <c r="O150" s="103"/>
+      <c r="P150" s="4"/>
+      <c r="Q150" s="56"/>
+    </row>
+    <row r="151" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="110"/>
+      <c r="B151" s="107"/>
+      <c r="C151" s="34"/>
+      <c r="D151" s="122"/>
+      <c r="E151" s="138"/>
+      <c r="F151" s="140"/>
+      <c r="G151" s="134"/>
+      <c r="H151" s="134"/>
+      <c r="I151" s="133"/>
+      <c r="J151" s="133"/>
+      <c r="K151" s="133"/>
+      <c r="L151" s="133"/>
+      <c r="M151" s="133"/>
+      <c r="N151" s="133"/>
+      <c r="O151" s="104"/>
+      <c r="P151" s="4"/>
+      <c r="Q151" s="56"/>
+    </row>
+    <row r="152" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="110"/>
+      <c r="B152" s="107"/>
+      <c r="C152" s="34"/>
+      <c r="D152" s="122"/>
+      <c r="E152" s="119" t="s">
+        <v>129</v>
+      </c>
+      <c r="F152" s="34"/>
+      <c r="G152" s="75" t="s">
+        <v>23</v>
+      </c>
+      <c r="H152" s="75" t="s">
+        <v>18</v>
+      </c>
+      <c r="I152" s="133" t="s">
+        <v>8</v>
+      </c>
+      <c r="J152" s="133" t="s">
+        <v>129</v>
+      </c>
+      <c r="K152" s="133"/>
+      <c r="L152" s="133"/>
+      <c r="M152" s="133"/>
+      <c r="N152" s="133"/>
+      <c r="O152" s="128" t="s">
+        <v>36</v>
+      </c>
+      <c r="P152" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q152" s="56"/>
+    </row>
+    <row r="153" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="110"/>
+      <c r="B153" s="107"/>
+      <c r="C153" s="34"/>
+      <c r="D153" s="122"/>
+      <c r="E153" s="120"/>
+      <c r="F153" s="34"/>
+      <c r="G153" s="68"/>
+      <c r="H153" s="68"/>
+      <c r="I153" s="133" t="s">
+        <v>127</v>
+      </c>
+      <c r="J153" s="133"/>
+      <c r="K153" s="133"/>
+      <c r="L153" s="133"/>
+      <c r="M153" s="133"/>
+      <c r="N153" s="133"/>
+      <c r="O153" s="102" t="s">
+        <v>132</v>
+      </c>
+      <c r="P153" s="4"/>
+      <c r="Q153" s="56"/>
+    </row>
+    <row r="154" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="110"/>
+      <c r="B154" s="107"/>
+      <c r="C154" s="34"/>
+      <c r="D154" s="122"/>
+      <c r="E154" s="121"/>
+      <c r="F154" s="34"/>
+      <c r="G154" s="99"/>
+      <c r="H154" s="99"/>
+      <c r="I154" s="133"/>
+      <c r="J154" s="133"/>
+      <c r="K154" s="133"/>
+      <c r="L154" s="133"/>
+      <c r="M154" s="133"/>
+      <c r="N154" s="133"/>
+      <c r="O154" s="104"/>
+      <c r="P154" s="4"/>
+      <c r="Q154" s="56"/>
+    </row>
+    <row r="155" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="110"/>
+      <c r="B155" s="107"/>
+      <c r="C155" s="34"/>
+      <c r="D155" s="122"/>
+      <c r="E155" s="124" t="s">
+        <v>66</v>
+      </c>
+      <c r="F155" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="G155" s="75" t="s">
+        <v>23</v>
+      </c>
+      <c r="H155" s="75" t="s">
+        <v>18</v>
+      </c>
+      <c r="I155" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J155" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K155" s="5"/>
+      <c r="L155" s="5"/>
+      <c r="M155" s="22"/>
+      <c r="N155" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="O155" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="P155" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q155" s="4"/>
+    </row>
+    <row r="156" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="110"/>
+      <c r="B156" s="107"/>
+      <c r="C156" s="34"/>
+      <c r="D156" s="122"/>
+      <c r="E156" s="125"/>
+      <c r="F156" s="34"/>
+      <c r="G156" s="68"/>
+      <c r="H156" s="68"/>
+      <c r="I156" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="J115" s="33"/>
-      <c r="K115" s="35"/>
-      <c r="L115" s="35"/>
-      <c r="M115" s="35"/>
-      <c r="N115" s="35"/>
-      <c r="O115" s="35"/>
-      <c r="P115" s="35"/>
-      <c r="Q115" s="35"/>
-    </row>
-    <row r="116" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="61"/>
-      <c r="B116" s="58"/>
-      <c r="C116" s="34"/>
-      <c r="D116" s="101"/>
-      <c r="E116" s="72"/>
-      <c r="F116" s="34"/>
-      <c r="G116" s="75"/>
-      <c r="H116" s="75"/>
-      <c r="I116" s="4" t="s">
+      <c r="J156" s="33"/>
+      <c r="K156" s="35"/>
+      <c r="L156" s="35"/>
+      <c r="M156" s="35"/>
+      <c r="N156" s="35"/>
+      <c r="O156" s="35"/>
+      <c r="P156" s="35"/>
+      <c r="Q156" s="35"/>
+    </row>
+    <row r="157" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="110"/>
+      <c r="B157" s="107"/>
+      <c r="C157" s="34"/>
+      <c r="D157" s="122"/>
+      <c r="E157" s="125"/>
+      <c r="F157" s="34"/>
+      <c r="G157" s="68"/>
+      <c r="H157" s="68"/>
+      <c r="I157" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="J116" s="33"/>
-      <c r="K116" s="35"/>
-      <c r="L116" s="35"/>
-      <c r="M116" s="35"/>
-      <c r="N116" s="35"/>
-      <c r="O116" s="35"/>
-      <c r="P116" s="35"/>
-      <c r="Q116" s="35"/>
-    </row>
-    <row r="117" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="62"/>
-      <c r="B117" s="59"/>
-      <c r="C117" s="34"/>
-      <c r="D117" s="101"/>
-      <c r="E117" s="73"/>
-      <c r="F117" s="34"/>
-      <c r="G117" s="76"/>
-      <c r="H117" s="76"/>
-      <c r="I117" s="4" t="s">
+      <c r="J157" s="33"/>
+      <c r="K157" s="35"/>
+      <c r="L157" s="35"/>
+      <c r="M157" s="35"/>
+      <c r="N157" s="35"/>
+      <c r="O157" s="35"/>
+      <c r="P157" s="35"/>
+      <c r="Q157" s="35"/>
+    </row>
+    <row r="158" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="111"/>
+      <c r="B158" s="108"/>
+      <c r="C158" s="34"/>
+      <c r="D158" s="122"/>
+      <c r="E158" s="126"/>
+      <c r="F158" s="34"/>
+      <c r="G158" s="99"/>
+      <c r="H158" s="99"/>
+      <c r="I158" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="J117" s="33"/>
-      <c r="K117" s="35"/>
-      <c r="L117" s="35"/>
-      <c r="M117" s="35"/>
-      <c r="N117" s="35"/>
-      <c r="O117" s="35"/>
-      <c r="P117" s="35"/>
-      <c r="Q117" s="35"/>
-    </row>
-    <row r="118" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="60">
+      <c r="J158" s="33"/>
+      <c r="K158" s="35"/>
+      <c r="L158" s="35"/>
+      <c r="M158" s="35"/>
+      <c r="N158" s="35"/>
+      <c r="O158" s="35"/>
+      <c r="P158" s="35"/>
+      <c r="Q158" s="35"/>
+    </row>
+    <row r="159" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="109">
         <v>3</v>
       </c>
-      <c r="B118" s="57"/>
-      <c r="C118" s="34"/>
-      <c r="D118" s="56" t="s">
+      <c r="B159" s="106"/>
+      <c r="C159" s="34"/>
+      <c r="D159" s="105" t="s">
         <v>77</v>
       </c>
-      <c r="E118" s="56" t="s">
+      <c r="E159" s="105" t="s">
         <v>78</v>
       </c>
-      <c r="F118" s="34"/>
-      <c r="G118" s="70" t="s">
+      <c r="F159" s="34"/>
+      <c r="G159" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="H118" s="70" t="s">
+      <c r="H159" s="118" t="s">
         <v>18</v>
       </c>
-      <c r="I118" s="33" t="s">
+      <c r="I159" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="J118" s="33" t="s">
+      <c r="J159" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="K118" s="35"/>
-      <c r="L118" s="35"/>
-      <c r="M118" s="35"/>
-      <c r="N118" s="63" t="s">
+      <c r="K159" s="35"/>
+      <c r="L159" s="35"/>
+      <c r="M159" s="35"/>
+      <c r="N159" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="O118" s="35" t="s">
+      <c r="O159" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="P118" s="35" t="s">
+      <c r="P159" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="Q118" s="35"/>
-    </row>
-    <row r="119" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="61"/>
-      <c r="B119" s="58"/>
-      <c r="C119" s="34"/>
-      <c r="D119" s="56"/>
-      <c r="E119" s="56"/>
-      <c r="F119" s="34"/>
-      <c r="G119" s="70"/>
-      <c r="H119" s="70"/>
-      <c r="I119" s="33" t="s">
+      <c r="Q159" s="35"/>
+    </row>
+    <row r="160" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="110"/>
+      <c r="B160" s="107"/>
+      <c r="C160" s="34"/>
+      <c r="D160" s="105"/>
+      <c r="E160" s="105"/>
+      <c r="F160" s="34"/>
+      <c r="G160" s="118"/>
+      <c r="H160" s="118"/>
+      <c r="I160" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="J119" s="33"/>
-      <c r="K119" s="35"/>
-      <c r="L119" s="35"/>
-      <c r="M119" s="35"/>
-      <c r="N119" s="64"/>
-      <c r="O119" s="35" t="s">
+      <c r="J160" s="33"/>
+      <c r="K160" s="35"/>
+      <c r="L160" s="35"/>
+      <c r="M160" s="35"/>
+      <c r="N160" s="113"/>
+      <c r="O160" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="P119" s="35" t="s">
+      <c r="P160" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="Q119" s="35"/>
-    </row>
-    <row r="120" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="61"/>
-      <c r="B120" s="58"/>
-      <c r="C120" s="34"/>
-      <c r="D120" s="56"/>
-      <c r="E120" s="56"/>
-      <c r="F120" s="34"/>
-      <c r="G120" s="70"/>
-      <c r="H120" s="70"/>
-      <c r="I120" s="33" t="s">
+      <c r="Q160" s="35"/>
+    </row>
+    <row r="161" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="110"/>
+      <c r="B161" s="107"/>
+      <c r="C161" s="34"/>
+      <c r="D161" s="105"/>
+      <c r="E161" s="105"/>
+      <c r="F161" s="34"/>
+      <c r="G161" s="118"/>
+      <c r="H161" s="118"/>
+      <c r="I161" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="J120" s="33" t="s">
+      <c r="J161" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="K120" s="35"/>
-      <c r="L120" s="35"/>
-      <c r="M120" s="35"/>
-      <c r="N120" s="65"/>
-      <c r="O120" s="35" t="s">
+      <c r="K161" s="35"/>
+      <c r="L161" s="35"/>
+      <c r="M161" s="35"/>
+      <c r="N161" s="114"/>
+      <c r="O161" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="P120" s="35" t="s">
+      <c r="P161" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="Q120" s="35"/>
-    </row>
-    <row r="121" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="62"/>
-      <c r="B121" s="59"/>
-      <c r="C121" s="34"/>
-      <c r="D121" s="56"/>
-      <c r="E121" s="42" t="s">
+      <c r="Q161" s="35"/>
+    </row>
+    <row r="162" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="111"/>
+      <c r="B162" s="108"/>
+      <c r="C162" s="34"/>
+      <c r="D162" s="105"/>
+      <c r="E162" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="F121" s="34"/>
-      <c r="G121" s="39" t="s">
+      <c r="F162" s="34"/>
+      <c r="G162" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="H121" s="39" t="s">
+      <c r="H162" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="I121" s="33" t="s">
+      <c r="I162" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="J121" s="33" t="s">
+      <c r="J162" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="K121" s="35"/>
-      <c r="L121" s="35"/>
-      <c r="M121" s="35"/>
-      <c r="N121" s="39" t="s">
+      <c r="K162" s="35"/>
+      <c r="L162" s="35"/>
+      <c r="M162" s="35"/>
+      <c r="N162" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="O121" s="35"/>
-      <c r="P121" s="35"/>
-      <c r="Q121" s="35"/>
+      <c r="O162" s="35"/>
+      <c r="P162" s="35"/>
+      <c r="Q162" s="35"/>
+    </row>
+    <row r="167" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E167" s="25" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="168" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E168" s="25" t="s">
+        <v>129</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="121">
-    <mergeCell ref="M16:M25"/>
-    <mergeCell ref="G26:G36"/>
-    <mergeCell ref="H26:H36"/>
-    <mergeCell ref="N26:N36"/>
-    <mergeCell ref="O27:O36"/>
-    <mergeCell ref="Q27:Q36"/>
-    <mergeCell ref="I27:I36"/>
-    <mergeCell ref="J27:J36"/>
-    <mergeCell ref="K27:K36"/>
-    <mergeCell ref="L27:L36"/>
-    <mergeCell ref="M27:M36"/>
+  <mergeCells count="144">
+    <mergeCell ref="E155:E158"/>
+    <mergeCell ref="O149:O151"/>
+    <mergeCell ref="E148:E151"/>
+    <mergeCell ref="G148:G151"/>
+    <mergeCell ref="H148:H151"/>
+    <mergeCell ref="O153:O154"/>
+    <mergeCell ref="G152:G154"/>
+    <mergeCell ref="H152:H154"/>
+    <mergeCell ref="E152:E154"/>
+    <mergeCell ref="E114:E116"/>
+    <mergeCell ref="E117:E124"/>
+    <mergeCell ref="E125:E131"/>
+    <mergeCell ref="O133:O139"/>
+    <mergeCell ref="E132:E139"/>
+    <mergeCell ref="O141:O147"/>
+    <mergeCell ref="G117:G124"/>
+    <mergeCell ref="G125:G131"/>
+    <mergeCell ref="G132:G139"/>
+    <mergeCell ref="H117:H124"/>
+    <mergeCell ref="H125:H131"/>
+    <mergeCell ref="H132:H139"/>
+    <mergeCell ref="E140:E147"/>
+    <mergeCell ref="G140:G147"/>
+    <mergeCell ref="H140:H147"/>
+    <mergeCell ref="D159:D162"/>
+    <mergeCell ref="B159:B162"/>
+    <mergeCell ref="A159:A162"/>
+    <mergeCell ref="N159:N161"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A66"/>
+    <mergeCell ref="A67:A158"/>
+    <mergeCell ref="B67:B158"/>
+    <mergeCell ref="G159:G161"/>
+    <mergeCell ref="H159:H161"/>
+    <mergeCell ref="E159:E161"/>
+    <mergeCell ref="G155:G158"/>
+    <mergeCell ref="H155:H158"/>
+    <mergeCell ref="D67:D158"/>
+    <mergeCell ref="H102:H103"/>
+    <mergeCell ref="F26:F36"/>
+    <mergeCell ref="E37:E47"/>
+    <mergeCell ref="F37:F47"/>
+    <mergeCell ref="G37:G47"/>
+    <mergeCell ref="H37:H47"/>
+    <mergeCell ref="N37:N47"/>
+    <mergeCell ref="K16:K25"/>
+    <mergeCell ref="L16:L25"/>
+    <mergeCell ref="O105:O113"/>
+    <mergeCell ref="Q105:Q113"/>
+    <mergeCell ref="E104:E113"/>
+    <mergeCell ref="G104:G113"/>
+    <mergeCell ref="H104:H113"/>
+    <mergeCell ref="N104:N113"/>
+    <mergeCell ref="F104:F113"/>
+    <mergeCell ref="N102:N103"/>
+    <mergeCell ref="Q86:Q91"/>
+    <mergeCell ref="E93:E101"/>
+    <mergeCell ref="H93:H101"/>
+    <mergeCell ref="N93:N101"/>
+    <mergeCell ref="Q94:Q101"/>
+    <mergeCell ref="O94:O101"/>
+    <mergeCell ref="P94:P101"/>
+    <mergeCell ref="G102:G103"/>
+    <mergeCell ref="N85:N91"/>
+    <mergeCell ref="O86:O91"/>
+    <mergeCell ref="P86:P91"/>
+    <mergeCell ref="E85:E92"/>
+    <mergeCell ref="H85:H92"/>
+    <mergeCell ref="G93:G101"/>
+    <mergeCell ref="G85:G92"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="Q68:Q75"/>
+    <mergeCell ref="E76:E84"/>
+    <mergeCell ref="F76:F84"/>
+    <mergeCell ref="G76:G84"/>
+    <mergeCell ref="H76:H84"/>
+    <mergeCell ref="N76:N84"/>
+    <mergeCell ref="O77:O84"/>
+    <mergeCell ref="Q77:Q84"/>
+    <mergeCell ref="N67:N75"/>
+    <mergeCell ref="O68:O75"/>
+    <mergeCell ref="E67:E75"/>
+    <mergeCell ref="F67:F75"/>
+    <mergeCell ref="G67:G75"/>
+    <mergeCell ref="H67:H75"/>
+    <mergeCell ref="Q5:Q14"/>
+    <mergeCell ref="G4:G14"/>
+    <mergeCell ref="H4:H14"/>
+    <mergeCell ref="N4:N14"/>
+    <mergeCell ref="O5:O14"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="N65:N66"/>
+    <mergeCell ref="E48:E55"/>
+    <mergeCell ref="H48:H55"/>
+    <mergeCell ref="G48:G55"/>
+    <mergeCell ref="N48:N54"/>
+    <mergeCell ref="E56:E64"/>
+    <mergeCell ref="G56:G64"/>
+    <mergeCell ref="H56:H64"/>
+    <mergeCell ref="N56:N64"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="G15:G25"/>
+    <mergeCell ref="H15:H25"/>
+    <mergeCell ref="N15:N25"/>
+    <mergeCell ref="O16:O25"/>
+    <mergeCell ref="Q16:Q25"/>
+    <mergeCell ref="I16:I25"/>
+    <mergeCell ref="J16:J25"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="Q49:Q54"/>
     <mergeCell ref="O57:O64"/>
@@ -4589,92 +5829,17 @@
     <mergeCell ref="E15:E25"/>
     <mergeCell ref="F15:F25"/>
     <mergeCell ref="E26:E36"/>
-    <mergeCell ref="Q5:Q14"/>
-    <mergeCell ref="G4:G14"/>
-    <mergeCell ref="H4:H14"/>
-    <mergeCell ref="N4:N14"/>
-    <mergeCell ref="O5:O14"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="H65:H66"/>
-    <mergeCell ref="N65:N66"/>
-    <mergeCell ref="E48:E55"/>
-    <mergeCell ref="H48:H55"/>
-    <mergeCell ref="G48:G55"/>
-    <mergeCell ref="N48:N54"/>
-    <mergeCell ref="E56:E64"/>
-    <mergeCell ref="G56:G64"/>
-    <mergeCell ref="H56:H64"/>
-    <mergeCell ref="N56:N64"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="G15:G25"/>
-    <mergeCell ref="H15:H25"/>
-    <mergeCell ref="N15:N25"/>
-    <mergeCell ref="O16:O25"/>
-    <mergeCell ref="Q16:Q25"/>
-    <mergeCell ref="I16:I25"/>
-    <mergeCell ref="J16:J25"/>
-    <mergeCell ref="Q68:Q75"/>
-    <mergeCell ref="E76:E84"/>
-    <mergeCell ref="F76:F84"/>
-    <mergeCell ref="G76:G84"/>
-    <mergeCell ref="H76:H84"/>
-    <mergeCell ref="N76:N84"/>
-    <mergeCell ref="O77:O84"/>
-    <mergeCell ref="Q77:Q84"/>
-    <mergeCell ref="N67:N75"/>
-    <mergeCell ref="O68:O75"/>
-    <mergeCell ref="E67:E75"/>
-    <mergeCell ref="F67:F75"/>
-    <mergeCell ref="G67:G75"/>
-    <mergeCell ref="H67:H75"/>
-    <mergeCell ref="O105:O113"/>
-    <mergeCell ref="Q105:Q113"/>
-    <mergeCell ref="E104:E113"/>
-    <mergeCell ref="G104:G113"/>
-    <mergeCell ref="H104:H113"/>
-    <mergeCell ref="N104:N113"/>
-    <mergeCell ref="F104:F113"/>
-    <mergeCell ref="N102:N103"/>
-    <mergeCell ref="Q86:Q91"/>
-    <mergeCell ref="E93:E101"/>
-    <mergeCell ref="H93:H101"/>
-    <mergeCell ref="N93:N101"/>
-    <mergeCell ref="Q94:Q101"/>
-    <mergeCell ref="O94:O101"/>
-    <mergeCell ref="P94:P101"/>
-    <mergeCell ref="G102:G103"/>
-    <mergeCell ref="N85:N91"/>
-    <mergeCell ref="O86:O91"/>
-    <mergeCell ref="P86:P91"/>
-    <mergeCell ref="E85:E92"/>
-    <mergeCell ref="H85:H92"/>
-    <mergeCell ref="G93:G101"/>
-    <mergeCell ref="G85:G92"/>
-    <mergeCell ref="E102:E103"/>
-    <mergeCell ref="D118:D121"/>
-    <mergeCell ref="B118:B121"/>
-    <mergeCell ref="A118:A121"/>
-    <mergeCell ref="N118:N120"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A66"/>
-    <mergeCell ref="A67:A117"/>
-    <mergeCell ref="B67:B117"/>
-    <mergeCell ref="G118:G120"/>
-    <mergeCell ref="H118:H120"/>
-    <mergeCell ref="E118:E120"/>
-    <mergeCell ref="E114:E117"/>
-    <mergeCell ref="G114:G117"/>
-    <mergeCell ref="H114:H117"/>
-    <mergeCell ref="D67:D117"/>
-    <mergeCell ref="H102:H103"/>
-    <mergeCell ref="F26:F36"/>
-    <mergeCell ref="E37:E47"/>
-    <mergeCell ref="F37:F47"/>
-    <mergeCell ref="G37:G47"/>
-    <mergeCell ref="H37:H47"/>
-    <mergeCell ref="N37:N47"/>
-    <mergeCell ref="K16:K25"/>
-    <mergeCell ref="L16:L25"/>
+    <mergeCell ref="M16:M25"/>
+    <mergeCell ref="G26:G36"/>
+    <mergeCell ref="H26:H36"/>
+    <mergeCell ref="N26:N36"/>
+    <mergeCell ref="O27:O36"/>
+    <mergeCell ref="Q27:Q36"/>
+    <mergeCell ref="I27:I36"/>
+    <mergeCell ref="J27:J36"/>
+    <mergeCell ref="K27:K36"/>
+    <mergeCell ref="L27:L36"/>
+    <mergeCell ref="M27:M36"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E1" r:id="rId1"/>
@@ -4688,8 +5853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4714,12 +5879,12 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="116" t="s">
+      <c r="A4" s="123" t="s">
         <v>113</v>
       </c>
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
+      <c r="B4" s="123"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="123"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="43">
@@ -4770,12 +5935,12 @@
       <c r="D8" s="48"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="116" t="s">
+      <c r="A9" s="123" t="s">
         <v>110</v>
       </c>
-      <c r="B9" s="116"/>
-      <c r="C9" s="116"/>
-      <c r="D9" s="116"/>
+      <c r="B9" s="123"/>
+      <c r="C9" s="123"/>
+      <c r="D9" s="123"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="43">
@@ -4790,12 +5955,12 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="116" t="s">
+      <c r="A11" s="123" t="s">
         <v>112</v>
       </c>
-      <c r="B11" s="116"/>
-      <c r="C11" s="116"/>
-      <c r="D11" s="116"/>
+      <c r="B11" s="123"/>
+      <c r="C11" s="123"/>
+      <c r="D11" s="123"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="43">
@@ -4810,31 +5975,31 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="115"/>
+      <c r="A13" s="59"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="115"/>
+      <c r="A14" s="59"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="115"/>
+      <c r="A15" s="59"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="115"/>
+      <c r="A16" s="59"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="115"/>
+      <c r="A17" s="59"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="115"/>
+      <c r="A18" s="59"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="115"/>
+      <c r="A19" s="59"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="115"/>
+      <c r="A20" s="59"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="115"/>
+      <c r="A21" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="3">
